--- a/KR_Stocks_ETF.xlsx
+++ b/KR_Stocks_ETF.xlsx
@@ -714,7 +714,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I19"/>
+  <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -731,6 +731,7 @@
     <col width="10" customWidth="1" min="7" max="7"/>
     <col width="10" customWidth="1" min="8" max="8"/>
     <col width="10" customWidth="1" min="9" max="9"/>
+    <col width="10" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -765,6 +766,9 @@
       <c r="I1" s="1" t="n">
         <v>20251205</v>
       </c>
+      <c r="J1" s="1" t="n">
+        <v>20251208</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -798,6 +802,9 @@
       <c r="I2" t="n">
         <v>51</v>
       </c>
+      <c r="J2" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -831,6 +838,9 @@
       <c r="I3" t="n">
         <v>39</v>
       </c>
+      <c r="J3" t="n">
+        <v>46</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -864,6 +874,9 @@
       <c r="I4" t="n">
         <v>51</v>
       </c>
+      <c r="J4" t="n">
+        <v>33</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -897,6 +910,9 @@
       <c r="I5" t="n">
         <v>31</v>
       </c>
+      <c r="J5" t="n">
+        <v>33</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -930,6 +946,9 @@
       <c r="I6" t="n">
         <v>46</v>
       </c>
+      <c r="J6" t="n">
+        <v>54</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -963,6 +982,9 @@
       <c r="I7" t="n">
         <v>51</v>
       </c>
+      <c r="J7" t="n">
+        <v>58</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -996,6 +1018,9 @@
       <c r="I8" t="n">
         <v>38</v>
       </c>
+      <c r="J8" t="n">
+        <v>48</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1029,6 +1054,9 @@
       <c r="I9" t="n">
         <v>20</v>
       </c>
+      <c r="J9" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1062,6 +1090,9 @@
       <c r="I10" t="n">
         <v>36</v>
       </c>
+      <c r="J10" t="n">
+        <v>41</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1095,6 +1126,9 @@
       <c r="I11" t="n">
         <v>44</v>
       </c>
+      <c r="J11" t="n">
+        <v>69</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1128,6 +1162,9 @@
       <c r="I12" t="n">
         <v>43</v>
       </c>
+      <c r="J12" t="n">
+        <v>70</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1161,6 +1198,9 @@
       <c r="I13" t="n">
         <v>47</v>
       </c>
+      <c r="J13" t="n">
+        <v>78</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1194,6 +1234,9 @@
       <c r="I14" t="n">
         <v>28</v>
       </c>
+      <c r="J14" t="n">
+        <v>49</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1227,6 +1270,9 @@
       <c r="I15" t="n">
         <v>72</v>
       </c>
+      <c r="J15" t="n">
+        <v>57</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1260,6 +1306,9 @@
       <c r="I16" t="n">
         <v>37</v>
       </c>
+      <c r="J16" t="n">
+        <v>60</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1293,6 +1342,9 @@
       <c r="I17" t="n">
         <v>33</v>
       </c>
+      <c r="J17" t="n">
+        <v>57</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1326,6 +1378,9 @@
       <c r="I18" t="n">
         <v>56</v>
       </c>
+      <c r="J18" t="n">
+        <v>59</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1358,6 +1413,9 @@
       </c>
       <c r="I19" t="n">
         <v>77</v>
+      </c>
+      <c r="J19" t="n">
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -1371,7 +1429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AW19"/>
+  <dimension ref="A1:AX19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1428,6 +1486,7 @@
     <col width="12" customWidth="1" min="47" max="47"/>
     <col width="12" customWidth="1" min="48" max="48"/>
     <col width="12" customWidth="1" min="49" max="49"/>
+    <col width="12" customWidth="1" min="50" max="50"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1676,6 +1735,11 @@
           <t>20251205</t>
         </is>
       </c>
+      <c r="AX1" s="1" t="inlineStr">
+        <is>
+          <t>20251208</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1829,6 +1893,9 @@
       <c r="AW2" t="n">
         <v>98</v>
       </c>
+      <c r="AX2" t="n">
+        <v>94</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1982,6 +2049,9 @@
       <c r="AW3" t="n">
         <v>101</v>
       </c>
+      <c r="AX3" t="n">
+        <v>103</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -2135,6 +2205,9 @@
       <c r="AW4" t="n">
         <v>99</v>
       </c>
+      <c r="AX4" t="n">
+        <v>97</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -2288,6 +2361,9 @@
       <c r="AW5" t="n">
         <v>101</v>
       </c>
+      <c r="AX5" t="n">
+        <v>101</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -2441,6 +2517,9 @@
       <c r="AW6" t="n">
         <v>102</v>
       </c>
+      <c r="AX6" t="n">
+        <v>104</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -2594,6 +2673,9 @@
       <c r="AW7" t="n">
         <v>103</v>
       </c>
+      <c r="AX7" t="n">
+        <v>105</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2747,6 +2829,9 @@
       <c r="AW8" t="n">
         <v>101</v>
       </c>
+      <c r="AX8" t="n">
+        <v>103</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2900,6 +2985,9 @@
       <c r="AW9" t="n">
         <v>98</v>
       </c>
+      <c r="AX9" t="n">
+        <v>106</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -3053,6 +3141,9 @@
       <c r="AW10" t="n">
         <v>100</v>
       </c>
+      <c r="AX10" t="n">
+        <v>101</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -3206,6 +3297,9 @@
       <c r="AW11" t="n">
         <v>102</v>
       </c>
+      <c r="AX11" t="n">
+        <v>109</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -3359,6 +3453,9 @@
       <c r="AW12" t="n">
         <v>103</v>
       </c>
+      <c r="AX12" t="n">
+        <v>111</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3512,6 +3609,9 @@
       <c r="AW13" t="n">
         <v>104</v>
       </c>
+      <c r="AX13" t="n">
+        <v>113</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -3665,6 +3765,9 @@
       <c r="AW14" t="n">
         <v>99</v>
       </c>
+      <c r="AX14" t="n">
+        <v>109</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -3818,6 +3921,9 @@
       <c r="AW15" t="n">
         <v>102</v>
       </c>
+      <c r="AX15" t="n">
+        <v>98</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -3971,6 +4077,9 @@
       <c r="AW16" t="n">
         <v>101</v>
       </c>
+      <c r="AX16" t="n">
+        <v>107</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -4124,6 +4233,9 @@
       <c r="AW17" t="n">
         <v>100</v>
       </c>
+      <c r="AX17" t="n">
+        <v>108</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -4277,6 +4389,9 @@
       <c r="AW18" t="n">
         <v>102</v>
       </c>
+      <c r="AX18" t="n">
+        <v>102</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -4429,6 +4544,9 @@
       </c>
       <c r="AW19" t="n">
         <v>102</v>
+      </c>
+      <c r="AX19" t="n">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -4442,7 +4560,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AD19"/>
+  <dimension ref="A1:AE19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4480,6 +4598,7 @@
     <col width="12" customWidth="1" min="28" max="28"/>
     <col width="12" customWidth="1" min="29" max="29"/>
     <col width="12" customWidth="1" min="30" max="30"/>
+    <col width="12" customWidth="1" min="31" max="31"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -4633,6 +4752,11 @@
           <t>20251205</t>
         </is>
       </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>20251208</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -4729,6 +4853,9 @@
       <c r="AD2" t="n">
         <v>-31.48</v>
       </c>
+      <c r="AE2" t="n">
+        <v>-36.33</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -4825,6 +4952,9 @@
       <c r="AD3" t="n">
         <v>-1.76</v>
       </c>
+      <c r="AE3" t="n">
+        <v>-1.88</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -4921,6 +5051,9 @@
       <c r="AD4" t="n">
         <v>-21.12</v>
       </c>
+      <c r="AE4" t="n">
+        <v>-28.52</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -5017,6 +5150,9 @@
       <c r="AD5" t="n">
         <v>-2.02</v>
       </c>
+      <c r="AE5" t="n">
+        <v>-2.87</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -5113,6 +5249,9 @@
       <c r="AD6" t="n">
         <v>-15.44</v>
       </c>
+      <c r="AE6" t="n">
+        <v>-11.06</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -5209,6 +5348,9 @@
       <c r="AD7" t="n">
         <v>-11.02</v>
       </c>
+      <c r="AE7" t="n">
+        <v>-4.77</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -5305,6 +5447,9 @@
       <c r="AD8" t="n">
         <v>-0.68</v>
       </c>
+      <c r="AE8" t="n">
+        <v>-0.04</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -5401,6 +5546,9 @@
       <c r="AD9" t="n">
         <v>-12.61</v>
       </c>
+      <c r="AE9" t="n">
+        <v>-9.279999999999999</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -5497,6 +5645,9 @@
       <c r="AD10" t="n">
         <v>-4.84</v>
       </c>
+      <c r="AE10" t="n">
+        <v>-3.89</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -5593,6 +5744,9 @@
       <c r="AD11" t="n">
         <v>-14.02</v>
       </c>
+      <c r="AE11" t="n">
+        <v>3.31</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -5689,6 +5843,9 @@
       <c r="AD12" t="n">
         <v>-17.45</v>
       </c>
+      <c r="AE12" t="n">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -5785,6 +5942,9 @@
       <c r="AD13" t="n">
         <v>-12.31</v>
       </c>
+      <c r="AE13" t="n">
+        <v>10.44</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -5881,6 +6041,9 @@
       <c r="AD14" t="n">
         <v>-13.71</v>
       </c>
+      <c r="AE14" t="n">
+        <v>-8.85</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -5977,6 +6140,9 @@
       <c r="AD15" t="n">
         <v>-14.07</v>
       </c>
+      <c r="AE15" t="n">
+        <v>-26.63</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -6073,6 +6239,9 @@
       <c r="AD16" t="n">
         <v>-18.17</v>
       </c>
+      <c r="AE16" t="n">
+        <v>-6.98</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -6169,6 +6338,9 @@
       <c r="AD17" t="n">
         <v>-12.51</v>
       </c>
+      <c r="AE17" t="n">
+        <v>-2.85</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -6265,6 +6437,9 @@
       <c r="AD18" t="n">
         <v>-6.67</v>
       </c>
+      <c r="AE18" t="n">
+        <v>-4.83</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -6360,6 +6535,9 @@
       </c>
       <c r="AD19" t="n">
         <v>-11.05</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>-25.68</v>
       </c>
     </row>
   </sheetData>
@@ -6373,7 +6551,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I19"/>
+  <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6390,6 +6568,7 @@
     <col width="12" customWidth="1" min="7" max="7"/>
     <col width="12" customWidth="1" min="8" max="8"/>
     <col width="12" customWidth="1" min="9" max="9"/>
+    <col width="12" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -6438,6 +6617,11 @@
           <t>20251205</t>
         </is>
       </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>20251208</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -6471,6 +6655,9 @@
       <c r="I2" t="n">
         <v>213</v>
       </c>
+      <c r="J2" t="n">
+        <v>142</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -6504,6 +6691,9 @@
       <c r="I3" t="n">
         <v>23</v>
       </c>
+      <c r="J3" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -6537,6 +6727,9 @@
       <c r="I4" t="n">
         <v>166</v>
       </c>
+      <c r="J4" t="n">
+        <v>55</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -6570,6 +6763,9 @@
       <c r="I5" t="n">
         <v>12</v>
       </c>
+      <c r="J5" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -6603,6 +6799,9 @@
       <c r="I6" t="n">
         <v>28</v>
       </c>
+      <c r="J6" t="n">
+        <v>32</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -6636,6 +6835,9 @@
       <c r="I7" t="n">
         <v>14</v>
       </c>
+      <c r="J7" t="n">
+        <v>31</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -6669,6 +6871,9 @@
       <c r="I8" t="n">
         <v>20</v>
       </c>
+      <c r="J8" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -6702,6 +6907,9 @@
       <c r="I9" t="n">
         <v>33</v>
       </c>
+      <c r="J9" t="n">
+        <v>56</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -6735,6 +6943,9 @@
       <c r="I10" t="n">
         <v>19</v>
       </c>
+      <c r="J10" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -6768,6 +6979,9 @@
       <c r="I11" t="n">
         <v>14</v>
       </c>
+      <c r="J11" t="n">
+        <v>61</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -6801,6 +7015,9 @@
       <c r="I12" t="n">
         <v>42</v>
       </c>
+      <c r="J12" t="n">
+        <v>117</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -6834,6 +7051,9 @@
       <c r="I13" t="n">
         <v>48</v>
       </c>
+      <c r="J13" t="n">
+        <v>127</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -6867,6 +7087,9 @@
       <c r="I14" t="n">
         <v>34</v>
       </c>
+      <c r="J14" t="n">
+        <v>66</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -6900,6 +7123,9 @@
       <c r="I15" t="n">
         <v>153</v>
       </c>
+      <c r="J15" t="n">
+        <v>62</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -6933,6 +7159,9 @@
       <c r="I16" t="n">
         <v>25</v>
       </c>
+      <c r="J16" t="n">
+        <v>56</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -6966,6 +7195,9 @@
       <c r="I17" t="n">
         <v>21</v>
       </c>
+      <c r="J17" t="n">
+        <v>28</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -6999,6 +7231,9 @@
       <c r="I18" t="n">
         <v>14</v>
       </c>
+      <c r="J18" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -7031,6 +7266,9 @@
       </c>
       <c r="I19" t="n">
         <v>105</v>
+      </c>
+      <c r="J19" t="n">
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -7044,7 +7282,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP19"/>
+  <dimension ref="A1:BQ19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7120,6 +7358,7 @@
     <col width="12" customWidth="1" min="66" max="66"/>
     <col width="12" customWidth="1" min="67" max="67"/>
     <col width="12" customWidth="1" min="68" max="68"/>
+    <col width="12" customWidth="1" min="69" max="69"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -7331,6 +7570,9 @@
       <c r="BP1" s="1" t="n">
         <v>20251205</v>
       </c>
+      <c r="BQ1" s="1" t="n">
+        <v>20251208</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -7541,6 +7783,9 @@
       <c r="BP2" t="n">
         <v>16550</v>
       </c>
+      <c r="BQ2" t="n">
+        <v>15690</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -7751,6 +7996,9 @@
       <c r="BP3" t="n">
         <v>55985</v>
       </c>
+      <c r="BQ3" t="n">
+        <v>57500</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -7961,6 +8209,9 @@
       <c r="BP4" t="n">
         <v>18925</v>
       </c>
+      <c r="BQ4" t="n">
+        <v>18440</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -8171,6 +8422,9 @@
       <c r="BP5" t="n">
         <v>15775</v>
       </c>
+      <c r="BQ5" t="n">
+        <v>16230</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -8381,6 +8635,9 @@
       <c r="BP6" t="n">
         <v>16525</v>
       </c>
+      <c r="BQ6" t="n">
+        <v>16905</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -8591,6 +8848,9 @@
       <c r="BP7" t="n">
         <v>19075</v>
       </c>
+      <c r="BQ7" t="n">
+        <v>19605</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -8801,6 +9061,9 @@
       <c r="BP8" t="n">
         <v>18015</v>
       </c>
+      <c r="BQ8" t="n">
+        <v>18425</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -9011,6 +9274,9 @@
       <c r="BP9" t="n">
         <v>1465</v>
       </c>
+      <c r="BQ9" t="n">
+        <v>1550</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -9221,6 +9487,9 @@
       <c r="BP10" t="n">
         <v>16970</v>
       </c>
+      <c r="BQ10" t="n">
+        <v>17210</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -9431,6 +9700,9 @@
       <c r="BP11" t="n">
         <v>5225</v>
       </c>
+      <c r="BQ11" t="n">
+        <v>5395</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -9641,6 +9913,9 @@
       <c r="BP12" t="n">
         <v>5580</v>
       </c>
+      <c r="BQ12" t="n">
+        <v>5830</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -9851,6 +10126,9 @@
       <c r="BP13" t="n">
         <v>5560</v>
       </c>
+      <c r="BQ13" t="n">
+        <v>5805</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -10061,6 +10339,9 @@
       <c r="BP14" t="n">
         <v>1590</v>
       </c>
+      <c r="BQ14" t="n">
+        <v>1689</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -10271,6 +10552,9 @@
       <c r="BP15" t="n">
         <v>20450</v>
       </c>
+      <c r="BQ15" t="n">
+        <v>19660</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -10481,6 +10765,9 @@
       <c r="BP16" t="n">
         <v>10570</v>
       </c>
+      <c r="BQ16" t="n">
+        <v>11000</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -10691,6 +10978,9 @@
       <c r="BP17" t="n">
         <v>6280</v>
       </c>
+      <c r="BQ17" t="n">
+        <v>6490</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -10901,6 +11191,9 @@
       <c r="BP18" t="n">
         <v>17880</v>
       </c>
+      <c r="BQ18" t="n">
+        <v>18225</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -11110,6 +11403,9 @@
       </c>
       <c r="BP19" t="n">
         <v>16740</v>
+      </c>
+      <c r="BQ19" t="n">
+        <v>16200</v>
       </c>
     </row>
   </sheetData>
@@ -11123,7 +11419,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP19"/>
+  <dimension ref="A1:BQ19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11199,6 +11495,7 @@
     <col width="12" customWidth="1" min="66" max="66"/>
     <col width="12" customWidth="1" min="67" max="67"/>
     <col width="12" customWidth="1" min="68" max="68"/>
+    <col width="12" customWidth="1" min="69" max="69"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -11410,6 +11707,9 @@
       <c r="BP1" s="1" t="n">
         <v>20251205</v>
       </c>
+      <c r="BQ1" s="1" t="n">
+        <v>20251208</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -11620,6 +11920,9 @@
       <c r="BP2" t="n">
         <v>16575</v>
       </c>
+      <c r="BQ2" t="n">
+        <v>15700</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -11830,6 +12133,9 @@
       <c r="BP3" t="n">
         <v>57295</v>
       </c>
+      <c r="BQ3" t="n">
+        <v>58310</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -12040,6 +12346,9 @@
       <c r="BP4" t="n">
         <v>19060</v>
       </c>
+      <c r="BQ4" t="n">
+        <v>18490</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -12250,6 +12559,9 @@
       <c r="BP5" t="n">
         <v>16195</v>
       </c>
+      <c r="BQ5" t="n">
+        <v>16275</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -12460,6 +12772,9 @@
       <c r="BP6" t="n">
         <v>16885</v>
       </c>
+      <c r="BQ6" t="n">
+        <v>17260</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -12670,6 +12985,9 @@
       <c r="BP7" t="n">
         <v>19500</v>
       </c>
+      <c r="BQ7" t="n">
+        <v>19830</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -12880,6 +13198,9 @@
       <c r="BP8" t="n">
         <v>18340</v>
       </c>
+      <c r="BQ8" t="n">
+        <v>18785</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -13090,6 +13411,9 @@
       <c r="BP9" t="n">
         <v>1531</v>
       </c>
+      <c r="BQ9" t="n">
+        <v>1658</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -13300,6 +13624,9 @@
       <c r="BP10" t="n">
         <v>17160</v>
       </c>
+      <c r="BQ10" t="n">
+        <v>17360</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -13510,6 +13837,9 @@
       <c r="BP11" t="n">
         <v>5380</v>
       </c>
+      <c r="BQ11" t="n">
+        <v>5740</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -13720,6 +14050,9 @@
       <c r="BP12" t="n">
         <v>5805</v>
       </c>
+      <c r="BQ12" t="n">
+        <v>6250</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -13930,6 +14263,9 @@
       <c r="BP13" t="n">
         <v>5800</v>
       </c>
+      <c r="BQ13" t="n">
+        <v>6315</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -14140,6 +14476,9 @@
       <c r="BP14" t="n">
         <v>1672</v>
       </c>
+      <c r="BQ14" t="n">
+        <v>1818</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -14350,6 +14689,9 @@
       <c r="BP15" t="n">
         <v>20720</v>
       </c>
+      <c r="BQ15" t="n">
+        <v>19665</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -14560,6 +14902,9 @@
       <c r="BP16" t="n">
         <v>10935</v>
       </c>
+      <c r="BQ16" t="n">
+        <v>11600</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -14770,6 +15115,9 @@
       <c r="BP17" t="n">
         <v>6490</v>
       </c>
+      <c r="BQ17" t="n">
+        <v>6890</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -14980,6 +15328,9 @@
       <c r="BP18" t="n">
         <v>18240</v>
       </c>
+      <c r="BQ18" t="n">
+        <v>18430</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -15189,6 +15540,9 @@
       </c>
       <c r="BP19" t="n">
         <v>16900</v>
+      </c>
+      <c r="BQ19" t="n">
+        <v>16200</v>
       </c>
     </row>
   </sheetData>
@@ -15202,7 +15556,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP19"/>
+  <dimension ref="A1:BQ19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15278,6 +15632,7 @@
     <col width="12" customWidth="1" min="66" max="66"/>
     <col width="12" customWidth="1" min="67" max="67"/>
     <col width="12" customWidth="1" min="68" max="68"/>
+    <col width="12" customWidth="1" min="69" max="69"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -15489,6 +15844,9 @@
       <c r="BP1" s="1" t="n">
         <v>20251205</v>
       </c>
+      <c r="BQ1" s="1" t="n">
+        <v>20251208</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -15699,6 +16057,9 @@
       <c r="BP2" t="n">
         <v>15445</v>
       </c>
+      <c r="BQ2" t="n">
+        <v>14905</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -15909,6 +16270,9 @@
       <c r="BP3" t="n">
         <v>55735</v>
       </c>
+      <c r="BQ3" t="n">
+        <v>56625</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -16119,6 +16483,9 @@
       <c r="BP4" t="n">
         <v>17900</v>
       </c>
+      <c r="BQ4" t="n">
+        <v>17880</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -16329,6 +16696,9 @@
       <c r="BP5" t="n">
         <v>15630</v>
       </c>
+      <c r="BQ5" t="n">
+        <v>15950</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -16539,6 +16909,9 @@
       <c r="BP6" t="n">
         <v>16420</v>
       </c>
+      <c r="BQ6" t="n">
+        <v>16692</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -16749,6 +17122,9 @@
       <c r="BP7" t="n">
         <v>19005</v>
       </c>
+      <c r="BQ7" t="n">
+        <v>19335</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -16959,6 +17335,9 @@
       <c r="BP8" t="n">
         <v>17880</v>
       </c>
+      <c r="BQ8" t="n">
+        <v>18190</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -17169,6 +17548,9 @@
       <c r="BP9" t="n">
         <v>1458</v>
       </c>
+      <c r="BQ9" t="n">
+        <v>1527</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -17379,6 +17761,9 @@
       <c r="BP10" t="n">
         <v>16800</v>
       </c>
+      <c r="BQ10" t="n">
+        <v>17000</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -17589,6 +17974,9 @@
       <c r="BP11" t="n">
         <v>5225</v>
       </c>
+      <c r="BQ11" t="n">
+        <v>5385</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -17799,6 +18187,9 @@
       <c r="BP12" t="n">
         <v>5580</v>
       </c>
+      <c r="BQ12" t="n">
+        <v>5805</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -18009,6 +18400,9 @@
       <c r="BP13" t="n">
         <v>5560</v>
       </c>
+      <c r="BQ13" t="n">
+        <v>5800</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -18219,6 +18613,9 @@
       <c r="BP14" t="n">
         <v>1588</v>
       </c>
+      <c r="BQ14" t="n">
+        <v>1660</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -18429,6 +18826,9 @@
       <c r="BP15" t="n">
         <v>19185</v>
       </c>
+      <c r="BQ15" t="n">
+        <v>18730</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -18639,6 +19039,9 @@
       <c r="BP16" t="n">
         <v>10570</v>
       </c>
+      <c r="BQ16" t="n">
+        <v>10935</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -18849,6 +19252,9 @@
       <c r="BP17" t="n">
         <v>6280</v>
       </c>
+      <c r="BQ17" t="n">
+        <v>6485</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -19059,6 +19465,9 @@
       <c r="BP18" t="n">
         <v>17755</v>
       </c>
+      <c r="BQ18" t="n">
+        <v>17975</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -19268,6 +19677,9 @@
       </c>
       <c r="BP19" t="n">
         <v>15910</v>
+      </c>
+      <c r="BQ19" t="n">
+        <v>15840</v>
       </c>
     </row>
   </sheetData>
@@ -19281,7 +19693,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP19"/>
+  <dimension ref="A1:BQ19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19357,6 +19769,7 @@
     <col width="12" customWidth="1" min="66" max="66"/>
     <col width="12" customWidth="1" min="67" max="67"/>
     <col width="12" customWidth="1" min="68" max="68"/>
+    <col width="12" customWidth="1" min="69" max="69"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -19568,6 +19981,9 @@
       <c r="BP1" s="1" t="n">
         <v>20251205</v>
       </c>
+      <c r="BQ1" s="1" t="n">
+        <v>20251208</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -19778,6 +20194,9 @@
       <c r="BP2" t="n">
         <v>15560</v>
       </c>
+      <c r="BQ2" t="n">
+        <v>14985</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -19988,6 +20407,9 @@
       <c r="BP3" t="n">
         <v>57295</v>
       </c>
+      <c r="BQ3" t="n">
+        <v>58310</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -20198,6 +20620,9 @@
       <c r="BP4" t="n">
         <v>18360</v>
       </c>
+      <c r="BQ4" t="n">
+        <v>17975</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -20408,6 +20833,9 @@
       <c r="BP5" t="n">
         <v>16195</v>
       </c>
+      <c r="BQ5" t="n">
+        <v>16275</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -20618,6 +21046,9 @@
       <c r="BP6" t="n">
         <v>16885</v>
       </c>
+      <c r="BQ6" t="n">
+        <v>17260</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -20828,6 +21259,9 @@
       <c r="BP7" t="n">
         <v>19470</v>
       </c>
+      <c r="BQ7" t="n">
+        <v>19830</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -21038,6 +21472,9 @@
       <c r="BP8" t="n">
         <v>18315</v>
       </c>
+      <c r="BQ8" t="n">
+        <v>18775</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -21248,6 +21685,9 @@
       <c r="BP9" t="n">
         <v>1527</v>
       </c>
+      <c r="BQ9" t="n">
+        <v>1652</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -21458,6 +21898,9 @@
       <c r="BP10" t="n">
         <v>17160</v>
       </c>
+      <c r="BQ10" t="n">
+        <v>17315</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -21668,6 +22111,9 @@
       <c r="BP11" t="n">
         <v>5345</v>
       </c>
+      <c r="BQ11" t="n">
+        <v>5725</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -21878,6 +22324,9 @@
       <c r="BP12" t="n">
         <v>5750</v>
       </c>
+      <c r="BQ12" t="n">
+        <v>6240</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -22088,6 +22537,9 @@
       <c r="BP13" t="n">
         <v>5740</v>
       </c>
+      <c r="BQ13" t="n">
+        <v>6300</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -22298,6 +22750,9 @@
       <c r="BP14" t="n">
         <v>1655</v>
       </c>
+      <c r="BQ14" t="n">
+        <v>1818</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -22508,6 +22963,9 @@
       <c r="BP15" t="n">
         <v>19370</v>
       </c>
+      <c r="BQ15" t="n">
+        <v>18830</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -22718,6 +23176,9 @@
       <c r="BP16" t="n">
         <v>10860</v>
       </c>
+      <c r="BQ16" t="n">
+        <v>11570</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -22928,6 +23389,9 @@
       <c r="BP17" t="n">
         <v>6415</v>
       </c>
+      <c r="BQ17" t="n">
+        <v>6890</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -23138,6 +23602,9 @@
       <c r="BP18" t="n">
         <v>18240</v>
       </c>
+      <c r="BQ18" t="n">
+        <v>18420</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -23347,6 +23814,9 @@
       </c>
       <c r="BP19" t="n">
         <v>16130</v>
+      </c>
+      <c r="BQ19" t="n">
+        <v>15905</v>
       </c>
     </row>
   </sheetData>
@@ -23360,7 +23830,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP19"/>
+  <dimension ref="A1:BQ19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23436,6 +23906,7 @@
     <col width="12" customWidth="1" min="66" max="66"/>
     <col width="12" customWidth="1" min="67" max="67"/>
     <col width="12" customWidth="1" min="68" max="68"/>
+    <col width="12" customWidth="1" min="69" max="69"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -23647,6 +24118,9 @@
       <c r="BP1" s="1" t="n">
         <v>20251205</v>
       </c>
+      <c r="BQ1" s="1" t="n">
+        <v>20251208</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -23857,6 +24331,9 @@
       <c r="BP2" t="n">
         <v>425760</v>
       </c>
+      <c r="BQ2" t="n">
+        <v>294880</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -24067,6 +24544,9 @@
       <c r="BP3" t="n">
         <v>1073682</v>
       </c>
+      <c r="BQ3" t="n">
+        <v>1398294</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -24277,6 +24757,9 @@
       <c r="BP4" t="n">
         <v>497935</v>
       </c>
+      <c r="BQ4" t="n">
+        <v>166500</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -24487,6 +24970,9 @@
       <c r="BP5" t="n">
         <v>216347</v>
       </c>
+      <c r="BQ5" t="n">
+        <v>169911</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -24697,6 +25183,9 @@
       <c r="BP6" t="n">
         <v>1110461</v>
       </c>
+      <c r="BQ6" t="n">
+        <v>1261477</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -24907,6 +25396,9 @@
       <c r="BP7" t="n">
         <v>1080895</v>
       </c>
+      <c r="BQ7" t="n">
+        <v>2361249</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -25117,6 +25609,9 @@
       <c r="BP8" t="n">
         <v>2822743</v>
       </c>
+      <c r="BQ8" t="n">
+        <v>3598130</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -25327,6 +25822,9 @@
       <c r="BP9" t="n">
         <v>4734494</v>
       </c>
+      <c r="BQ9" t="n">
+        <v>8073534</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -25537,6 +26035,9 @@
       <c r="BP10" t="n">
         <v>574537</v>
       </c>
+      <c r="BQ10" t="n">
+        <v>600293</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -25747,6 +26248,9 @@
       <c r="BP11" t="n">
         <v>336970</v>
       </c>
+      <c r="BQ11" t="n">
+        <v>1503049</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -25957,6 +26461,9 @@
       <c r="BP12" t="n">
         <v>2167598</v>
       </c>
+      <c r="BQ12" t="n">
+        <v>6275949</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -26167,6 +26674,9 @@
       <c r="BP13" t="n">
         <v>5972903</v>
       </c>
+      <c r="BQ13" t="n">
+        <v>16200781</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -26377,6 +26887,9 @@
       <c r="BP14" t="n">
         <v>33864908</v>
       </c>
+      <c r="BQ14" t="n">
+        <v>66152109</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -26587,6 +27100,9 @@
       <c r="BP15" t="n">
         <v>4874076</v>
       </c>
+      <c r="BQ15" t="n">
+        <v>1995515</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -26797,6 +27313,9 @@
       <c r="BP16" t="n">
         <v>290496</v>
       </c>
+      <c r="BQ16" t="n">
+        <v>672002</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -27007,6 +27526,9 @@
       <c r="BP17" t="n">
         <v>98691</v>
       </c>
+      <c r="BQ17" t="n">
+        <v>135740</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -27217,6 +27739,9 @@
       <c r="BP18" t="n">
         <v>50547</v>
       </c>
+      <c r="BQ18" t="n">
+        <v>38888</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -27426,6 +27951,9 @@
       </c>
       <c r="BP19" t="n">
         <v>98362</v>
+      </c>
+      <c r="BQ19" t="n">
+        <v>54410</v>
       </c>
     </row>
   </sheetData>
@@ -27439,7 +27967,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AW19"/>
+  <dimension ref="A1:AX19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27496,6 +28024,7 @@
     <col width="10" customWidth="1" min="47" max="47"/>
     <col width="10" customWidth="1" min="48" max="48"/>
     <col width="10" customWidth="1" min="49" max="49"/>
+    <col width="10" customWidth="1" min="50" max="50"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -27650,6 +28179,9 @@
       <c r="AW1" s="1" t="n">
         <v>20251205</v>
       </c>
+      <c r="AX1" s="1" t="n">
+        <v>20251208</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -27803,6 +28335,9 @@
       <c r="AW2" t="n">
         <v>52</v>
       </c>
+      <c r="AX2" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -27956,6 +28491,9 @@
       <c r="AW3" t="n">
         <v>66</v>
       </c>
+      <c r="AX3" t="n">
+        <v>80</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -28109,6 +28647,9 @@
       <c r="AW4" t="n">
         <v>60</v>
       </c>
+      <c r="AX4" t="n">
+        <v>44</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -28262,6 +28803,9 @@
       <c r="AW5" t="n">
         <v>65</v>
       </c>
+      <c r="AX5" t="n">
+        <v>70</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -28415,6 +28959,9 @@
       <c r="AW6" t="n">
         <v>76</v>
       </c>
+      <c r="AX6" t="n">
+        <v>96</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -28568,6 +29115,9 @@
       <c r="AW7" t="n">
         <v>88</v>
       </c>
+      <c r="AX7" t="n">
+        <v>100</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -28721,6 +29271,9 @@
       <c r="AW8" t="n">
         <v>61</v>
       </c>
+      <c r="AX8" t="n">
+        <v>81</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -28874,6 +29427,9 @@
       <c r="AW9" t="n">
         <v>32</v>
       </c>
+      <c r="AX9" t="n">
+        <v>59</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -29027,6 +29583,9 @@
       <c r="AW10" t="n">
         <v>70</v>
       </c>
+      <c r="AX10" t="n">
+        <v>79</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -29180,6 +29739,9 @@
       <c r="AW11" t="n">
         <v>66</v>
       </c>
+      <c r="AX11" t="n">
+        <v>100</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -29333,6 +29895,9 @@
       <c r="AW12" t="n">
         <v>68</v>
       </c>
+      <c r="AX12" t="n">
+        <v>100</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -29486,6 +30051,9 @@
       <c r="AW13" t="n">
         <v>78</v>
       </c>
+      <c r="AX13" t="n">
+        <v>100</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -29639,6 +30207,9 @@
       <c r="AW14" t="n">
         <v>42</v>
       </c>
+      <c r="AX14" t="n">
+        <v>70</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -29792,6 +30363,9 @@
       <c r="AW15" t="n">
         <v>75</v>
       </c>
+      <c r="AX15" t="n">
+        <v>62</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -29945,6 +30519,9 @@
       <c r="AW16" t="n">
         <v>55</v>
       </c>
+      <c r="AX16" t="n">
+        <v>95</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -30098,6 +30675,9 @@
       <c r="AW17" t="n">
         <v>48</v>
       </c>
+      <c r="AX17" t="n">
+        <v>85</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -30251,6 +30831,9 @@
       <c r="AW18" t="n">
         <v>75</v>
       </c>
+      <c r="AX18" t="n">
+        <v>84</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -30403,6 +30986,9 @@
       </c>
       <c r="AW19" t="n">
         <v>79</v>
+      </c>
+      <c r="AX19" t="n">
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -30416,7 +31002,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I19"/>
+  <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -30433,6 +31019,7 @@
     <col width="10" customWidth="1" min="7" max="7"/>
     <col width="10" customWidth="1" min="8" max="8"/>
     <col width="10" customWidth="1" min="9" max="9"/>
+    <col width="10" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -30467,6 +31054,9 @@
       <c r="I1" s="1" t="n">
         <v>20251205</v>
       </c>
+      <c r="J1" s="1" t="n">
+        <v>20251208</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -30500,6 +31090,9 @@
       <c r="I2" t="n">
         <v>74</v>
       </c>
+      <c r="J2" t="n">
+        <v>60</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -30533,6 +31126,9 @@
       <c r="I3" t="n">
         <v>84</v>
       </c>
+      <c r="J3" t="n">
+        <v>87</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -30566,6 +31162,9 @@
       <c r="I4" t="n">
         <v>75</v>
       </c>
+      <c r="J4" t="n">
+        <v>65</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -30599,6 +31198,9 @@
       <c r="I5" t="n">
         <v>82</v>
       </c>
+      <c r="J5" t="n">
+        <v>83</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -30632,6 +31234,9 @@
       <c r="I6" t="n">
         <v>88</v>
       </c>
+      <c r="J6" t="n">
+        <v>93</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -30665,6 +31270,9 @@
       <c r="I7" t="n">
         <v>90</v>
       </c>
+      <c r="J7" t="n">
+        <v>94</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -30698,6 +31306,9 @@
       <c r="I8" t="n">
         <v>85</v>
       </c>
+      <c r="J8" t="n">
+        <v>91</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -30731,6 +31342,9 @@
       <c r="I9" t="n">
         <v>53</v>
       </c>
+      <c r="J9" t="n">
+        <v>66</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -30764,6 +31378,9 @@
       <c r="I10" t="n">
         <v>82</v>
       </c>
+      <c r="J10" t="n">
+        <v>85</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -30797,6 +31414,9 @@
       <c r="I11" t="n">
         <v>80</v>
       </c>
+      <c r="J11" t="n">
+        <v>99</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -30830,6 +31450,9 @@
       <c r="I12" t="n">
         <v>77</v>
       </c>
+      <c r="J12" t="n">
+        <v>98</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -30863,6 +31486,9 @@
       <c r="I13" t="n">
         <v>81</v>
       </c>
+      <c r="J13" t="n">
+        <v>100</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -30896,6 +31522,9 @@
       <c r="I14" t="n">
         <v>60</v>
       </c>
+      <c r="J14" t="n">
+        <v>75</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -30929,6 +31558,9 @@
       <c r="I15" t="n">
         <v>83</v>
       </c>
+      <c r="J15" t="n">
+        <v>74</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -30962,6 +31594,9 @@
       <c r="I16" t="n">
         <v>72</v>
       </c>
+      <c r="J16" t="n">
+        <v>90</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -30995,6 +31630,9 @@
       <c r="I17" t="n">
         <v>69</v>
       </c>
+      <c r="J17" t="n">
+        <v>87</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -31028,6 +31666,9 @@
       <c r="I18" t="n">
         <v>92</v>
       </c>
+      <c r="J18" t="n">
+        <v>95</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -31060,6 +31701,9 @@
       </c>
       <c r="I19" t="n">
         <v>85</v>
+      </c>
+      <c r="J19" t="n">
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -31073,7 +31717,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AW19"/>
+  <dimension ref="A1:AX19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -31130,6 +31774,7 @@
     <col width="10" customWidth="1" min="47" max="47"/>
     <col width="10" customWidth="1" min="48" max="48"/>
     <col width="10" customWidth="1" min="49" max="49"/>
+    <col width="10" customWidth="1" min="50" max="50"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -31284,6 +31929,9 @@
       <c r="AW1" s="1" t="n">
         <v>20251205</v>
       </c>
+      <c r="AX1" s="1" t="n">
+        <v>20251208</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -31437,6 +32085,9 @@
       <c r="AW2" t="n">
         <v>-28</v>
       </c>
+      <c r="AX2" t="n">
+        <v>-90</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -31590,6 +32241,9 @@
       <c r="AW3" t="n">
         <v>19</v>
       </c>
+      <c r="AX3" t="n">
+        <v>44</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -31743,6 +32397,9 @@
       <c r="AW4" t="n">
         <v>-15</v>
       </c>
+      <c r="AX4" t="n">
+        <v>-52</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -31896,6 +32553,9 @@
       <c r="AW5" t="n">
         <v>14</v>
       </c>
+      <c r="AX5" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -32049,6 +32709,9 @@
       <c r="AW6" t="n">
         <v>25</v>
       </c>
+      <c r="AX6" t="n">
+        <v>59</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -32202,6 +32865,9 @@
       <c r="AW7" t="n">
         <v>45</v>
       </c>
+      <c r="AX7" t="n">
+        <v>69</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -32355,6 +33021,9 @@
       <c r="AW8" t="n">
         <v>11</v>
       </c>
+      <c r="AX8" t="n">
+        <v>46</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -32508,6 +33177,9 @@
       <c r="AW9" t="n">
         <v>-14</v>
       </c>
+      <c r="AX9" t="n">
+        <v>37</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -32661,6 +33333,9 @@
       <c r="AW10" t="n">
         <v>6</v>
       </c>
+      <c r="AX10" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -32814,6 +33489,9 @@
       <c r="AW11" t="n">
         <v>30</v>
       </c>
+      <c r="AX11" t="n">
+        <v>103</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -32967,6 +33645,9 @@
       <c r="AW12" t="n">
         <v>32</v>
       </c>
+      <c r="AX12" t="n">
+        <v>110</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -33120,6 +33801,9 @@
       <c r="AW13" t="n">
         <v>42</v>
       </c>
+      <c r="AX13" t="n">
+        <v>120</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -33273,6 +33957,9 @@
       <c r="AW14" t="n">
         <v>-3</v>
       </c>
+      <c r="AX14" t="n">
+        <v>53</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -33426,6 +34113,9 @@
       <c r="AW15" t="n">
         <v>15</v>
       </c>
+      <c r="AX15" t="n">
+        <v>-16</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -33579,6 +34269,9 @@
       <c r="AW16" t="n">
         <v>14</v>
       </c>
+      <c r="AX16" t="n">
+        <v>86</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -33732,6 +34425,9 @@
       <c r="AW17" t="n">
         <v>4</v>
       </c>
+      <c r="AX17" t="n">
+        <v>76</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -33885,6 +34581,9 @@
       <c r="AW18" t="n">
         <v>25</v>
       </c>
+      <c r="AX18" t="n">
+        <v>37</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -34037,6 +34736,9 @@
       </c>
       <c r="AW19" t="n">
         <v>23</v>
+      </c>
+      <c r="AX19" t="n">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/KR_Stocks_ETF.xlsx
+++ b/KR_Stocks_ETF.xlsx
@@ -714,7 +714,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J19"/>
+  <dimension ref="A1:K19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -732,6 +732,7 @@
     <col width="10" customWidth="1" min="8" max="8"/>
     <col width="10" customWidth="1" min="9" max="9"/>
     <col width="10" customWidth="1" min="10" max="10"/>
+    <col width="10" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -769,6 +770,9 @@
       <c r="J1" s="1" t="n">
         <v>20251208</v>
       </c>
+      <c r="K1" s="1" t="n">
+        <v>20251209</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -805,6 +809,9 @@
       <c r="J2" t="n">
         <v>29</v>
       </c>
+      <c r="K2" t="n">
+        <v>34</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -841,6 +848,9 @@
       <c r="J3" t="n">
         <v>46</v>
       </c>
+      <c r="K3" t="n">
+        <v>39</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -877,6 +887,9 @@
       <c r="J4" t="n">
         <v>33</v>
       </c>
+      <c r="K4" t="n">
+        <v>38</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -913,6 +926,9 @@
       <c r="J5" t="n">
         <v>33</v>
       </c>
+      <c r="K5" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -949,6 +965,9 @@
       <c r="J6" t="n">
         <v>54</v>
       </c>
+      <c r="K6" t="n">
+        <v>50</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -985,6 +1004,9 @@
       <c r="J7" t="n">
         <v>58</v>
       </c>
+      <c r="K7" t="n">
+        <v>56</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1021,6 +1043,9 @@
       <c r="J8" t="n">
         <v>48</v>
       </c>
+      <c r="K8" t="n">
+        <v>43</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1057,6 +1082,9 @@
       <c r="J9" t="n">
         <v>40</v>
       </c>
+      <c r="K9" t="n">
+        <v>36</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1093,6 +1121,9 @@
       <c r="J10" t="n">
         <v>41</v>
       </c>
+      <c r="K10" t="n">
+        <v>43</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1129,6 +1160,9 @@
       <c r="J11" t="n">
         <v>69</v>
       </c>
+      <c r="K11" t="n">
+        <v>71</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1165,6 +1199,9 @@
       <c r="J12" t="n">
         <v>70</v>
       </c>
+      <c r="K12" t="n">
+        <v>70</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1201,6 +1238,9 @@
       <c r="J13" t="n">
         <v>78</v>
       </c>
+      <c r="K13" t="n">
+        <v>78</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1237,6 +1277,9 @@
       <c r="J14" t="n">
         <v>49</v>
       </c>
+      <c r="K14" t="n">
+        <v>47</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1273,6 +1316,9 @@
       <c r="J15" t="n">
         <v>57</v>
       </c>
+      <c r="K15" t="n">
+        <v>60</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1309,6 +1355,9 @@
       <c r="J16" t="n">
         <v>60</v>
       </c>
+      <c r="K16" t="n">
+        <v>60</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1345,6 +1394,9 @@
       <c r="J17" t="n">
         <v>57</v>
       </c>
+      <c r="K17" t="n">
+        <v>58</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1381,6 +1433,9 @@
       <c r="J18" t="n">
         <v>59</v>
       </c>
+      <c r="K18" t="n">
+        <v>58</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1416,6 +1471,9 @@
       </c>
       <c r="J19" t="n">
         <v>66</v>
+      </c>
+      <c r="K19" t="n">
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -1429,7 +1487,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AX19"/>
+  <dimension ref="A1:AY19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1487,6 +1545,7 @@
     <col width="12" customWidth="1" min="48" max="48"/>
     <col width="12" customWidth="1" min="49" max="49"/>
     <col width="12" customWidth="1" min="50" max="50"/>
+    <col width="12" customWidth="1" min="51" max="51"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1740,6 +1799,11 @@
           <t>20251208</t>
         </is>
       </c>
+      <c r="AY1" s="1" t="inlineStr">
+        <is>
+          <t>20251209</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1896,6 +1960,9 @@
       <c r="AX2" t="n">
         <v>94</v>
       </c>
+      <c r="AY2" t="n">
+        <v>95</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -2052,6 +2119,9 @@
       <c r="AX3" t="n">
         <v>103</v>
       </c>
+      <c r="AY3" t="n">
+        <v>102</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -2208,6 +2278,9 @@
       <c r="AX4" t="n">
         <v>97</v>
       </c>
+      <c r="AY4" t="n">
+        <v>97</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -2364,6 +2437,9 @@
       <c r="AX5" t="n">
         <v>101</v>
       </c>
+      <c r="AY5" t="n">
+        <v>101</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -2520,6 +2596,9 @@
       <c r="AX6" t="n">
         <v>104</v>
       </c>
+      <c r="AY6" t="n">
+        <v>103</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -2676,6 +2755,9 @@
       <c r="AX7" t="n">
         <v>105</v>
       </c>
+      <c r="AY7" t="n">
+        <v>105</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2832,6 +2914,9 @@
       <c r="AX8" t="n">
         <v>103</v>
       </c>
+      <c r="AY8" t="n">
+        <v>103</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2988,6 +3073,9 @@
       <c r="AX9" t="n">
         <v>106</v>
       </c>
+      <c r="AY9" t="n">
+        <v>105</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -3144,6 +3232,9 @@
       <c r="AX10" t="n">
         <v>101</v>
       </c>
+      <c r="AY10" t="n">
+        <v>102</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -3300,6 +3391,9 @@
       <c r="AX11" t="n">
         <v>109</v>
       </c>
+      <c r="AY11" t="n">
+        <v>110</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -3456,6 +3550,9 @@
       <c r="AX12" t="n">
         <v>111</v>
       </c>
+      <c r="AY12" t="n">
+        <v>111</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3612,6 +3709,9 @@
       <c r="AX13" t="n">
         <v>113</v>
       </c>
+      <c r="AY13" t="n">
+        <v>114</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -3768,6 +3868,9 @@
       <c r="AX14" t="n">
         <v>109</v>
       </c>
+      <c r="AY14" t="n">
+        <v>109</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -3924,6 +4027,9 @@
       <c r="AX15" t="n">
         <v>98</v>
       </c>
+      <c r="AY15" t="n">
+        <v>99</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -4080,6 +4186,9 @@
       <c r="AX16" t="n">
         <v>107</v>
       </c>
+      <c r="AY16" t="n">
+        <v>108</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -4236,6 +4345,9 @@
       <c r="AX17" t="n">
         <v>108</v>
       </c>
+      <c r="AY17" t="n">
+        <v>108</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -4392,6 +4504,9 @@
       <c r="AX18" t="n">
         <v>102</v>
       </c>
+      <c r="AY18" t="n">
+        <v>102</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -4546,6 +4661,9 @@
         <v>102</v>
       </c>
       <c r="AX19" t="n">
+        <v>100</v>
+      </c>
+      <c r="AY19" t="n">
         <v>100</v>
       </c>
     </row>
@@ -4560,7 +4678,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AE19"/>
+  <dimension ref="A1:AF19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4599,6 +4717,7 @@
     <col width="12" customWidth="1" min="29" max="29"/>
     <col width="12" customWidth="1" min="30" max="30"/>
     <col width="12" customWidth="1" min="31" max="31"/>
+    <col width="12" customWidth="1" min="32" max="32"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -4757,6 +4876,11 @@
           <t>20251208</t>
         </is>
       </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>20251209</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -4856,6 +4980,9 @@
       <c r="AE2" t="n">
         <v>-36.33</v>
       </c>
+      <c r="AF2" t="n">
+        <v>-46.6</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -4955,6 +5082,9 @@
       <c r="AE3" t="n">
         <v>-1.88</v>
       </c>
+      <c r="AF3" t="n">
+        <v>-7.09</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -5054,6 +5184,9 @@
       <c r="AE4" t="n">
         <v>-28.52</v>
       </c>
+      <c r="AF4" t="n">
+        <v>-43.96</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -5153,6 +5286,9 @@
       <c r="AE5" t="n">
         <v>-2.87</v>
       </c>
+      <c r="AF5" t="n">
+        <v>-7.96</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -5252,6 +5388,9 @@
       <c r="AE6" t="n">
         <v>-11.06</v>
       </c>
+      <c r="AF6" t="n">
+        <v>-10.4</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -5351,6 +5490,9 @@
       <c r="AE7" t="n">
         <v>-4.77</v>
       </c>
+      <c r="AF7" t="n">
+        <v>-2.41</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -5450,6 +5592,9 @@
       <c r="AE8" t="n">
         <v>-0.04</v>
       </c>
+      <c r="AF8" t="n">
+        <v>-4.54</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -5549,6 +5694,9 @@
       <c r="AE9" t="n">
         <v>-9.279999999999999</v>
       </c>
+      <c r="AF9" t="n">
+        <v>-8.18</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -5648,6 +5796,9 @@
       <c r="AE10" t="n">
         <v>-3.89</v>
       </c>
+      <c r="AF10" t="n">
+        <v>-3.71</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -5747,6 +5898,9 @@
       <c r="AE11" t="n">
         <v>3.31</v>
       </c>
+      <c r="AF11" t="n">
+        <v>19.82</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -5846,6 +6000,9 @@
       <c r="AE12" t="n">
         <v>1.5</v>
       </c>
+      <c r="AF12" t="n">
+        <v>18.41</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -5945,6 +6102,9 @@
       <c r="AE13" t="n">
         <v>10.44</v>
       </c>
+      <c r="AF13" t="n">
+        <v>29.93</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -6044,6 +6204,9 @@
       <c r="AE14" t="n">
         <v>-8.85</v>
       </c>
+      <c r="AF14" t="n">
+        <v>-6.09</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -6143,6 +6306,9 @@
       <c r="AE15" t="n">
         <v>-26.63</v>
       </c>
+      <c r="AF15" t="n">
+        <v>-48.79</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -6242,6 +6408,9 @@
       <c r="AE16" t="n">
         <v>-6.98</v>
       </c>
+      <c r="AF16" t="n">
+        <v>2.83</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -6341,6 +6510,9 @@
       <c r="AE17" t="n">
         <v>-2.85</v>
       </c>
+      <c r="AF17" t="n">
+        <v>5.47</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -6440,6 +6612,9 @@
       <c r="AE18" t="n">
         <v>-4.83</v>
       </c>
+      <c r="AF18" t="n">
+        <v>-3.13</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -6538,6 +6713,9 @@
       </c>
       <c r="AE19" t="n">
         <v>-25.68</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>-49.11</v>
       </c>
     </row>
   </sheetData>
@@ -6551,7 +6729,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J19"/>
+  <dimension ref="A1:K19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6569,6 +6747,7 @@
     <col width="12" customWidth="1" min="8" max="8"/>
     <col width="12" customWidth="1" min="9" max="9"/>
     <col width="12" customWidth="1" min="10" max="10"/>
+    <col width="12" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -6622,6 +6801,11 @@
           <t>20251208</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>20251209</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -6658,6 +6842,9 @@
       <c r="J2" t="n">
         <v>142</v>
       </c>
+      <c r="K2" t="n">
+        <v>90</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -6694,6 +6881,9 @@
       <c r="J3" t="n">
         <v>30</v>
       </c>
+      <c r="K3" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -6730,6 +6920,9 @@
       <c r="J4" t="n">
         <v>55</v>
       </c>
+      <c r="K4" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -6766,6 +6959,9 @@
       <c r="J5" t="n">
         <v>10</v>
       </c>
+      <c r="K5" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -6802,6 +6998,9 @@
       <c r="J6" t="n">
         <v>32</v>
       </c>
+      <c r="K6" t="n">
+        <v>28</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -6838,6 +7037,9 @@
       <c r="J7" t="n">
         <v>31</v>
       </c>
+      <c r="K7" t="n">
+        <v>37</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -6874,6 +7076,9 @@
       <c r="J8" t="n">
         <v>25</v>
       </c>
+      <c r="K8" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -6910,6 +7115,9 @@
       <c r="J9" t="n">
         <v>56</v>
       </c>
+      <c r="K9" t="n">
+        <v>38</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -6946,6 +7154,9 @@
       <c r="J10" t="n">
         <v>20</v>
       </c>
+      <c r="K10" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -6982,6 +7193,9 @@
       <c r="J11" t="n">
         <v>61</v>
       </c>
+      <c r="K11" t="n">
+        <v>47</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -7018,6 +7232,9 @@
       <c r="J12" t="n">
         <v>117</v>
       </c>
+      <c r="K12" t="n">
+        <v>81</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -7054,6 +7271,9 @@
       <c r="J13" t="n">
         <v>127</v>
       </c>
+      <c r="K13" t="n">
+        <v>89</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -7090,6 +7310,9 @@
       <c r="J14" t="n">
         <v>66</v>
       </c>
+      <c r="K14" t="n">
+        <v>43</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -7126,6 +7349,9 @@
       <c r="J15" t="n">
         <v>62</v>
       </c>
+      <c r="K15" t="n">
+        <v>42</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -7162,6 +7388,9 @@
       <c r="J16" t="n">
         <v>56</v>
       </c>
+      <c r="K16" t="n">
+        <v>47</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -7198,6 +7427,9 @@
       <c r="J17" t="n">
         <v>28</v>
       </c>
+      <c r="K17" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -7234,6 +7466,9 @@
       <c r="J18" t="n">
         <v>11</v>
       </c>
+      <c r="K18" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -7268,6 +7503,9 @@
         <v>105</v>
       </c>
       <c r="J19" t="n">
+        <v>57</v>
+      </c>
+      <c r="K19" t="n">
         <v>57</v>
       </c>
     </row>
@@ -7282,7 +7520,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BQ19"/>
+  <dimension ref="A1:BR19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7359,6 +7597,7 @@
     <col width="12" customWidth="1" min="67" max="67"/>
     <col width="12" customWidth="1" min="68" max="68"/>
     <col width="12" customWidth="1" min="69" max="69"/>
+    <col width="12" customWidth="1" min="70" max="70"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -7573,6 +7812,9 @@
       <c r="BQ1" s="1" t="n">
         <v>20251208</v>
       </c>
+      <c r="BR1" s="1" t="n">
+        <v>20251209</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -7786,6 +8028,9 @@
       <c r="BQ2" t="n">
         <v>15690</v>
       </c>
+      <c r="BR2" t="n">
+        <v>15205</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -7999,6 +8244,9 @@
       <c r="BQ3" t="n">
         <v>57500</v>
       </c>
+      <c r="BR3" t="n">
+        <v>57845</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -8212,6 +8460,9 @@
       <c r="BQ4" t="n">
         <v>18440</v>
       </c>
+      <c r="BR4" t="n">
+        <v>18185</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -8425,6 +8676,9 @@
       <c r="BQ5" t="n">
         <v>16230</v>
       </c>
+      <c r="BR5" t="n">
+        <v>16265</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -8638,6 +8892,9 @@
       <c r="BQ6" t="n">
         <v>16905</v>
       </c>
+      <c r="BR6" t="n">
+        <v>17110</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -8851,6 +9108,9 @@
       <c r="BQ7" t="n">
         <v>19605</v>
       </c>
+      <c r="BR7" t="n">
+        <v>19790</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -9064,6 +9324,9 @@
       <c r="BQ8" t="n">
         <v>18425</v>
       </c>
+      <c r="BR8" t="n">
+        <v>18755</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -9277,6 +9540,9 @@
       <c r="BQ9" t="n">
         <v>1550</v>
       </c>
+      <c r="BR9" t="n">
+        <v>1618</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -9490,6 +9756,9 @@
       <c r="BQ10" t="n">
         <v>17210</v>
       </c>
+      <c r="BR10" t="n">
+        <v>17340</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -9703,6 +9972,9 @@
       <c r="BQ11" t="n">
         <v>5395</v>
       </c>
+      <c r="BR11" t="n">
+        <v>5635</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -9916,6 +10188,9 @@
       <c r="BQ12" t="n">
         <v>5830</v>
       </c>
+      <c r="BR12" t="n">
+        <v>6105</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -10129,6 +10404,9 @@
       <c r="BQ13" t="n">
         <v>5805</v>
       </c>
+      <c r="BR13" t="n">
+        <v>6205</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -10342,6 +10620,9 @@
       <c r="BQ14" t="n">
         <v>1689</v>
       </c>
+      <c r="BR14" t="n">
+        <v>1780</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -10555,6 +10836,9 @@
       <c r="BQ15" t="n">
         <v>19660</v>
       </c>
+      <c r="BR15" t="n">
+        <v>19145</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -10768,6 +11052,9 @@
       <c r="BQ16" t="n">
         <v>11000</v>
       </c>
+      <c r="BR16" t="n">
+        <v>11450</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -10981,6 +11268,9 @@
       <c r="BQ17" t="n">
         <v>6490</v>
       </c>
+      <c r="BR17" t="n">
+        <v>6805</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -11194,6 +11484,9 @@
       <c r="BQ18" t="n">
         <v>18225</v>
       </c>
+      <c r="BR18" t="n">
+        <v>18250</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -11406,6 +11699,9 @@
       </c>
       <c r="BQ19" t="n">
         <v>16200</v>
+      </c>
+      <c r="BR19" t="n">
+        <v>16255</v>
       </c>
     </row>
   </sheetData>
@@ -11419,7 +11715,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BQ19"/>
+  <dimension ref="A1:BR19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11496,6 +11792,7 @@
     <col width="12" customWidth="1" min="67" max="67"/>
     <col width="12" customWidth="1" min="68" max="68"/>
     <col width="12" customWidth="1" min="69" max="69"/>
+    <col width="12" customWidth="1" min="70" max="70"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -11710,6 +12007,9 @@
       <c r="BQ1" s="1" t="n">
         <v>20251208</v>
       </c>
+      <c r="BR1" s="1" t="n">
+        <v>20251209</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -11923,6 +12223,9 @@
       <c r="BQ2" t="n">
         <v>15700</v>
       </c>
+      <c r="BR2" t="n">
+        <v>15215</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -12136,6 +12439,9 @@
       <c r="BQ3" t="n">
         <v>58310</v>
       </c>
+      <c r="BR3" t="n">
+        <v>58200</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -12349,6 +12655,9 @@
       <c r="BQ4" t="n">
         <v>18490</v>
       </c>
+      <c r="BR4" t="n">
+        <v>18240</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -12562,6 +12871,9 @@
       <c r="BQ5" t="n">
         <v>16275</v>
       </c>
+      <c r="BR5" t="n">
+        <v>16275</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -12775,6 +13087,9 @@
       <c r="BQ6" t="n">
         <v>17260</v>
       </c>
+      <c r="BR6" t="n">
+        <v>17260</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -12988,6 +13303,9 @@
       <c r="BQ7" t="n">
         <v>19830</v>
       </c>
+      <c r="BR7" t="n">
+        <v>19955</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -13201,6 +13519,9 @@
       <c r="BQ8" t="n">
         <v>18785</v>
       </c>
+      <c r="BR8" t="n">
+        <v>18795</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -13414,6 +13735,9 @@
       <c r="BQ9" t="n">
         <v>1658</v>
       </c>
+      <c r="BR9" t="n">
+        <v>1673</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -13627,6 +13951,9 @@
       <c r="BQ10" t="n">
         <v>17360</v>
       </c>
+      <c r="BR10" t="n">
+        <v>17425</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -13840,6 +14167,9 @@
       <c r="BQ11" t="n">
         <v>5740</v>
       </c>
+      <c r="BR11" t="n">
+        <v>5850</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -14053,6 +14383,9 @@
       <c r="BQ12" t="n">
         <v>6250</v>
       </c>
+      <c r="BR12" t="n">
+        <v>6370</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -14266,6 +14599,9 @@
       <c r="BQ13" t="n">
         <v>6315</v>
       </c>
+      <c r="BR13" t="n">
+        <v>6465</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -14479,6 +14815,9 @@
       <c r="BQ14" t="n">
         <v>1818</v>
       </c>
+      <c r="BR14" t="n">
+        <v>1854</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -14692,6 +15031,9 @@
       <c r="BQ15" t="n">
         <v>19665</v>
       </c>
+      <c r="BR15" t="n">
+        <v>19175</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -14905,6 +15247,9 @@
       <c r="BQ16" t="n">
         <v>11600</v>
       </c>
+      <c r="BR16" t="n">
+        <v>11775</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -15118,6 +15463,9 @@
       <c r="BQ17" t="n">
         <v>6890</v>
       </c>
+      <c r="BR17" t="n">
+        <v>7010</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -15331,6 +15679,9 @@
       <c r="BQ18" t="n">
         <v>18430</v>
       </c>
+      <c r="BR18" t="n">
+        <v>18535</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -15543,6 +15894,9 @@
       </c>
       <c r="BQ19" t="n">
         <v>16200</v>
+      </c>
+      <c r="BR19" t="n">
+        <v>16255</v>
       </c>
     </row>
   </sheetData>
@@ -15556,7 +15910,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BQ19"/>
+  <dimension ref="A1:BR19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15633,6 +15987,7 @@
     <col width="12" customWidth="1" min="67" max="67"/>
     <col width="12" customWidth="1" min="68" max="68"/>
     <col width="12" customWidth="1" min="69" max="69"/>
+    <col width="12" customWidth="1" min="70" max="70"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -15847,6 +16202,9 @@
       <c r="BQ1" s="1" t="n">
         <v>20251208</v>
       </c>
+      <c r="BR1" s="1" t="n">
+        <v>20251209</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -16060,6 +16418,9 @@
       <c r="BQ2" t="n">
         <v>14905</v>
       </c>
+      <c r="BR2" t="n">
+        <v>14900</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -16273,6 +16634,9 @@
       <c r="BQ3" t="n">
         <v>56625</v>
       </c>
+      <c r="BR3" t="n">
+        <v>57405</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -16486,6 +16850,9 @@
       <c r="BQ4" t="n">
         <v>17880</v>
       </c>
+      <c r="BR4" t="n">
+        <v>17885</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -16699,6 +17066,9 @@
       <c r="BQ5" t="n">
         <v>15950</v>
       </c>
+      <c r="BR5" t="n">
+        <v>16045</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -16912,6 +17282,9 @@
       <c r="BQ6" t="n">
         <v>16692</v>
       </c>
+      <c r="BR6" t="n">
+        <v>17060</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -17125,6 +17498,9 @@
       <c r="BQ7" t="n">
         <v>19335</v>
       </c>
+      <c r="BR7" t="n">
+        <v>19645</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -17338,6 +17714,9 @@
       <c r="BQ8" t="n">
         <v>18190</v>
       </c>
+      <c r="BR8" t="n">
+        <v>18515</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -17551,6 +17930,9 @@
       <c r="BQ9" t="n">
         <v>1527</v>
       </c>
+      <c r="BR9" t="n">
+        <v>1607</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -17764,6 +18146,9 @@
       <c r="BQ10" t="n">
         <v>17000</v>
       </c>
+      <c r="BR10" t="n">
+        <v>17185</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -17977,6 +18362,9 @@
       <c r="BQ11" t="n">
         <v>5385</v>
       </c>
+      <c r="BR11" t="n">
+        <v>5620</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -18190,6 +18578,9 @@
       <c r="BQ12" t="n">
         <v>5805</v>
       </c>
+      <c r="BR12" t="n">
+        <v>6090</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -18403,6 +18794,9 @@
       <c r="BQ13" t="n">
         <v>5800</v>
       </c>
+      <c r="BR13" t="n">
+        <v>6150</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -18616,6 +19010,9 @@
       <c r="BQ14" t="n">
         <v>1660</v>
       </c>
+      <c r="BR14" t="n">
+        <v>1763</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -18829,6 +19226,9 @@
       <c r="BQ15" t="n">
         <v>18730</v>
       </c>
+      <c r="BR15" t="n">
+        <v>18800</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -19042,6 +19442,9 @@
       <c r="BQ16" t="n">
         <v>10935</v>
       </c>
+      <c r="BR16" t="n">
+        <v>11380</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -19255,6 +19658,9 @@
       <c r="BQ17" t="n">
         <v>6485</v>
       </c>
+      <c r="BR17" t="n">
+        <v>6770</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -19468,6 +19874,9 @@
       <c r="BQ18" t="n">
         <v>17975</v>
       </c>
+      <c r="BR18" t="n">
+        <v>18250</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -19680,6 +20089,9 @@
       </c>
       <c r="BQ19" t="n">
         <v>15840</v>
+      </c>
+      <c r="BR19" t="n">
+        <v>15970</v>
       </c>
     </row>
   </sheetData>
@@ -19693,7 +20105,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BQ19"/>
+  <dimension ref="A1:BR19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19770,6 +20182,7 @@
     <col width="12" customWidth="1" min="67" max="67"/>
     <col width="12" customWidth="1" min="68" max="68"/>
     <col width="12" customWidth="1" min="69" max="69"/>
+    <col width="12" customWidth="1" min="70" max="70"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -19984,6 +20397,9 @@
       <c r="BQ1" s="1" t="n">
         <v>20251208</v>
       </c>
+      <c r="BR1" s="1" t="n">
+        <v>20251209</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -20197,6 +20613,9 @@
       <c r="BQ2" t="n">
         <v>14985</v>
       </c>
+      <c r="BR2" t="n">
+        <v>15155</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -20410,6 +20829,9 @@
       <c r="BQ3" t="n">
         <v>58310</v>
       </c>
+      <c r="BR3" t="n">
+        <v>57600</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -20623,6 +21045,9 @@
       <c r="BQ4" t="n">
         <v>17975</v>
       </c>
+      <c r="BR4" t="n">
+        <v>18120</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -20836,6 +21261,9 @@
       <c r="BQ5" t="n">
         <v>16275</v>
       </c>
+      <c r="BR5" t="n">
+        <v>16115</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -21049,6 +21477,9 @@
       <c r="BQ6" t="n">
         <v>17260</v>
       </c>
+      <c r="BR6" t="n">
+        <v>17145</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -21262,6 +21693,9 @@
       <c r="BQ7" t="n">
         <v>19830</v>
       </c>
+      <c r="BR7" t="n">
+        <v>19790</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -21475,6 +21909,9 @@
       <c r="BQ8" t="n">
         <v>18775</v>
       </c>
+      <c r="BR8" t="n">
+        <v>18610</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -21688,6 +22125,9 @@
       <c r="BQ9" t="n">
         <v>1652</v>
       </c>
+      <c r="BR9" t="n">
+        <v>1637</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -21901,6 +22341,9 @@
       <c r="BQ10" t="n">
         <v>17315</v>
       </c>
+      <c r="BR10" t="n">
+        <v>17400</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -22114,6 +22557,9 @@
       <c r="BQ11" t="n">
         <v>5725</v>
       </c>
+      <c r="BR11" t="n">
+        <v>5785</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -22327,6 +22773,9 @@
       <c r="BQ12" t="n">
         <v>6240</v>
       </c>
+      <c r="BR12" t="n">
+        <v>6290</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -22540,6 +22989,9 @@
       <c r="BQ13" t="n">
         <v>6300</v>
       </c>
+      <c r="BR13" t="n">
+        <v>6360</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -22753,6 +23205,9 @@
       <c r="BQ14" t="n">
         <v>1818</v>
       </c>
+      <c r="BR14" t="n">
+        <v>1814</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -22966,6 +23421,9 @@
       <c r="BQ15" t="n">
         <v>18830</v>
       </c>
+      <c r="BR15" t="n">
+        <v>19050</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -23179,6 +23637,9 @@
       <c r="BQ16" t="n">
         <v>11570</v>
       </c>
+      <c r="BR16" t="n">
+        <v>11645</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -23392,6 +23853,9 @@
       <c r="BQ17" t="n">
         <v>6890</v>
       </c>
+      <c r="BR17" t="n">
+        <v>6935</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -23605,6 +24069,9 @@
       <c r="BQ18" t="n">
         <v>18420</v>
       </c>
+      <c r="BR18" t="n">
+        <v>18415</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -23817,6 +24284,9 @@
       </c>
       <c r="BQ19" t="n">
         <v>15905</v>
+      </c>
+      <c r="BR19" t="n">
+        <v>16040</v>
       </c>
     </row>
   </sheetData>
@@ -23830,7 +24300,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BQ19"/>
+  <dimension ref="A1:BR19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23907,6 +24377,7 @@
     <col width="12" customWidth="1" min="67" max="67"/>
     <col width="12" customWidth="1" min="68" max="68"/>
     <col width="12" customWidth="1" min="69" max="69"/>
+    <col width="12" customWidth="1" min="70" max="70"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -24121,6 +24592,9 @@
       <c r="BQ1" s="1" t="n">
         <v>20251208</v>
       </c>
+      <c r="BR1" s="1" t="n">
+        <v>20251209</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -24334,6 +24808,9 @@
       <c r="BQ2" t="n">
         <v>294880</v>
       </c>
+      <c r="BR2" t="n">
+        <v>191632</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -24547,6 +25024,9 @@
       <c r="BQ3" t="n">
         <v>1398294</v>
       </c>
+      <c r="BR3" t="n">
+        <v>1203651</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -24760,6 +25240,9 @@
       <c r="BQ4" t="n">
         <v>166500</v>
       </c>
+      <c r="BR4" t="n">
+        <v>122375</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -24973,6 +25456,9 @@
       <c r="BQ5" t="n">
         <v>169911</v>
       </c>
+      <c r="BR5" t="n">
+        <v>113962</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -25186,6 +25672,9 @@
       <c r="BQ6" t="n">
         <v>1261477</v>
       </c>
+      <c r="BR6" t="n">
+        <v>1117997</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -25399,6 +25888,9 @@
       <c r="BQ7" t="n">
         <v>2361249</v>
       </c>
+      <c r="BR7" t="n">
+        <v>2845145</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -25612,6 +26104,9 @@
       <c r="BQ8" t="n">
         <v>3598130</v>
       </c>
+      <c r="BR8" t="n">
+        <v>2675787</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -25825,6 +26320,9 @@
       <c r="BQ9" t="n">
         <v>8073534</v>
       </c>
+      <c r="BR9" t="n">
+        <v>5439163</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -26038,6 +26536,9 @@
       <c r="BQ10" t="n">
         <v>600293</v>
       </c>
+      <c r="BR10" t="n">
+        <v>321572</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -26251,6 +26752,9 @@
       <c r="BQ11" t="n">
         <v>1503049</v>
       </c>
+      <c r="BR11" t="n">
+        <v>1168004</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -26464,6 +26968,9 @@
       <c r="BQ12" t="n">
         <v>6275949</v>
       </c>
+      <c r="BR12" t="n">
+        <v>4429980</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -26677,6 +27184,9 @@
       <c r="BQ13" t="n">
         <v>16200781</v>
       </c>
+      <c r="BR13" t="n">
+        <v>11622331</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -26890,6 +27400,9 @@
       <c r="BQ14" t="n">
         <v>66152109</v>
       </c>
+      <c r="BR14" t="n">
+        <v>43206720</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -27103,6 +27616,9 @@
       <c r="BQ15" t="n">
         <v>1995515</v>
       </c>
+      <c r="BR15" t="n">
+        <v>1361571</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -27316,6 +27832,9 @@
       <c r="BQ16" t="n">
         <v>672002</v>
       </c>
+      <c r="BR16" t="n">
+        <v>569720</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -27529,6 +28048,9 @@
       <c r="BQ17" t="n">
         <v>135740</v>
       </c>
+      <c r="BR17" t="n">
+        <v>76967</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -27742,6 +28264,9 @@
       <c r="BQ18" t="n">
         <v>38888</v>
       </c>
+      <c r="BR18" t="n">
+        <v>61685</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -27954,6 +28479,9 @@
       </c>
       <c r="BQ19" t="n">
         <v>54410</v>
+      </c>
+      <c r="BR19" t="n">
+        <v>54276</v>
       </c>
     </row>
   </sheetData>
@@ -27967,7 +28495,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AX19"/>
+  <dimension ref="A1:AY19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28025,6 +28553,7 @@
     <col width="10" customWidth="1" min="48" max="48"/>
     <col width="10" customWidth="1" min="49" max="49"/>
     <col width="10" customWidth="1" min="50" max="50"/>
+    <col width="10" customWidth="1" min="51" max="51"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -28182,6 +28711,9 @@
       <c r="AX1" s="1" t="n">
         <v>20251208</v>
       </c>
+      <c r="AY1" s="1" t="n">
+        <v>20251209</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -28338,6 +28870,9 @@
       <c r="AX2" t="n">
         <v>25</v>
       </c>
+      <c r="AY2" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -28494,6 +29029,9 @@
       <c r="AX3" t="n">
         <v>80</v>
       </c>
+      <c r="AY3" t="n">
+        <v>71</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -28650,6 +29188,9 @@
       <c r="AX4" t="n">
         <v>44</v>
       </c>
+      <c r="AY4" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -28806,6 +29347,9 @@
       <c r="AX5" t="n">
         <v>70</v>
       </c>
+      <c r="AY5" t="n">
+        <v>61</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -28962,6 +29506,9 @@
       <c r="AX6" t="n">
         <v>96</v>
       </c>
+      <c r="AY6" t="n">
+        <v>90</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -29118,6 +29665,9 @@
       <c r="AX7" t="n">
         <v>100</v>
       </c>
+      <c r="AY7" t="n">
+        <v>98</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -29274,6 +29824,9 @@
       <c r="AX8" t="n">
         <v>81</v>
       </c>
+      <c r="AY8" t="n">
+        <v>74</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -29430,6 +29983,9 @@
       <c r="AX9" t="n">
         <v>59</v>
       </c>
+      <c r="AY9" t="n">
+        <v>56</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -29586,6 +30142,9 @@
       <c r="AX10" t="n">
         <v>79</v>
       </c>
+      <c r="AY10" t="n">
+        <v>84</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -29742,6 +30301,9 @@
       <c r="AX11" t="n">
         <v>100</v>
       </c>
+      <c r="AY11" t="n">
+        <v>100</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -29898,6 +30460,9 @@
       <c r="AX12" t="n">
         <v>100</v>
       </c>
+      <c r="AY12" t="n">
+        <v>100</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -30054,6 +30619,9 @@
       <c r="AX13" t="n">
         <v>100</v>
       </c>
+      <c r="AY13" t="n">
+        <v>100</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -30210,6 +30778,9 @@
       <c r="AX14" t="n">
         <v>70</v>
       </c>
+      <c r="AY14" t="n">
+        <v>70</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -30366,6 +30937,9 @@
       <c r="AX15" t="n">
         <v>62</v>
       </c>
+      <c r="AY15" t="n">
+        <v>39</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -30522,6 +31096,9 @@
       <c r="AX16" t="n">
         <v>95</v>
       </c>
+      <c r="AY16" t="n">
+        <v>99</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -30678,6 +31255,9 @@
       <c r="AX17" t="n">
         <v>85</v>
       </c>
+      <c r="AY17" t="n">
+        <v>89</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -30834,6 +31414,9 @@
       <c r="AX18" t="n">
         <v>84</v>
       </c>
+      <c r="AY18" t="n">
+        <v>84</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -30989,6 +31572,9 @@
       </c>
       <c r="AX19" t="n">
         <v>72</v>
+      </c>
+      <c r="AY19" t="n">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -31002,7 +31588,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J19"/>
+  <dimension ref="A1:K19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -31020,6 +31606,7 @@
     <col width="10" customWidth="1" min="8" max="8"/>
     <col width="10" customWidth="1" min="9" max="9"/>
     <col width="10" customWidth="1" min="10" max="10"/>
+    <col width="10" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -31057,6 +31644,9 @@
       <c r="J1" s="1" t="n">
         <v>20251208</v>
       </c>
+      <c r="K1" s="1" t="n">
+        <v>20251209</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -31093,6 +31683,9 @@
       <c r="J2" t="n">
         <v>60</v>
       </c>
+      <c r="K2" t="n">
+        <v>64</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -31129,6 +31722,9 @@
       <c r="J3" t="n">
         <v>87</v>
       </c>
+      <c r="K3" t="n">
+        <v>83</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -31165,6 +31761,9 @@
       <c r="J4" t="n">
         <v>65</v>
       </c>
+      <c r="K4" t="n">
+        <v>69</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -31201,6 +31800,9 @@
       <c r="J5" t="n">
         <v>83</v>
       </c>
+      <c r="K5" t="n">
+        <v>78</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -31237,6 +31839,9 @@
       <c r="J6" t="n">
         <v>93</v>
       </c>
+      <c r="K6" t="n">
+        <v>91</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -31273,6 +31878,9 @@
       <c r="J7" t="n">
         <v>94</v>
       </c>
+      <c r="K7" t="n">
+        <v>93</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -31309,6 +31917,9 @@
       <c r="J8" t="n">
         <v>91</v>
       </c>
+      <c r="K8" t="n">
+        <v>88</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -31345,6 +31956,9 @@
       <c r="J9" t="n">
         <v>66</v>
       </c>
+      <c r="K9" t="n">
+        <v>64</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -31381,6 +31995,9 @@
       <c r="J10" t="n">
         <v>85</v>
       </c>
+      <c r="K10" t="n">
+        <v>85</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -31417,6 +32034,9 @@
       <c r="J11" t="n">
         <v>99</v>
       </c>
+      <c r="K11" t="n">
+        <v>100</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -31453,6 +32073,9 @@
       <c r="J12" t="n">
         <v>98</v>
       </c>
+      <c r="K12" t="n">
+        <v>100</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -31489,6 +32112,9 @@
       <c r="J13" t="n">
         <v>100</v>
       </c>
+      <c r="K13" t="n">
+        <v>100</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -31525,6 +32151,9 @@
       <c r="J14" t="n">
         <v>75</v>
       </c>
+      <c r="K14" t="n">
+        <v>74</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -31561,6 +32190,9 @@
       <c r="J15" t="n">
         <v>74</v>
       </c>
+      <c r="K15" t="n">
+        <v>78</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -31597,6 +32229,9 @@
       <c r="J16" t="n">
         <v>90</v>
       </c>
+      <c r="K16" t="n">
+        <v>92</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -31633,6 +32268,9 @@
       <c r="J17" t="n">
         <v>87</v>
       </c>
+      <c r="K17" t="n">
+        <v>89</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -31669,6 +32307,9 @@
       <c r="J18" t="n">
         <v>95</v>
       </c>
+      <c r="K18" t="n">
+        <v>95</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -31704,6 +32345,9 @@
       </c>
       <c r="J19" t="n">
         <v>80</v>
+      </c>
+      <c r="K19" t="n">
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -31717,7 +32361,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AX19"/>
+  <dimension ref="A1:AY19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -31775,6 +32419,7 @@
     <col width="10" customWidth="1" min="48" max="48"/>
     <col width="10" customWidth="1" min="49" max="49"/>
     <col width="10" customWidth="1" min="50" max="50"/>
+    <col width="10" customWidth="1" min="51" max="51"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -31932,6 +32577,9 @@
       <c r="AX1" s="1" t="n">
         <v>20251208</v>
       </c>
+      <c r="AY1" s="1" t="n">
+        <v>20251209</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -32088,6 +32736,9 @@
       <c r="AX2" t="n">
         <v>-90</v>
       </c>
+      <c r="AY2" t="n">
+        <v>-93</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -32244,6 +32895,9 @@
       <c r="AX3" t="n">
         <v>44</v>
       </c>
+      <c r="AY3" t="n">
+        <v>31</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -32400,6 +33054,9 @@
       <c r="AX4" t="n">
         <v>-52</v>
       </c>
+      <c r="AY4" t="n">
+        <v>-58</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -32556,6 +33213,9 @@
       <c r="AX5" t="n">
         <v>24</v>
       </c>
+      <c r="AY5" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -32712,6 +33372,9 @@
       <c r="AX6" t="n">
         <v>59</v>
       </c>
+      <c r="AY6" t="n">
+        <v>49</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -32868,6 +33531,9 @@
       <c r="AX7" t="n">
         <v>69</v>
       </c>
+      <c r="AY7" t="n">
+        <v>65</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -33024,6 +33690,9 @@
       <c r="AX8" t="n">
         <v>46</v>
       </c>
+      <c r="AY8" t="n">
+        <v>37</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -33180,6 +33849,9 @@
       <c r="AX9" t="n">
         <v>37</v>
       </c>
+      <c r="AY9" t="n">
+        <v>32</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -33336,6 +34008,9 @@
       <c r="AX10" t="n">
         <v>22</v>
       </c>
+      <c r="AY10" t="n">
+        <v>31</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -33492,6 +34167,9 @@
       <c r="AX11" t="n">
         <v>103</v>
       </c>
+      <c r="AY11" t="n">
+        <v>99</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -33648,6 +34326,9 @@
       <c r="AX12" t="n">
         <v>110</v>
       </c>
+      <c r="AY12" t="n">
+        <v>101</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -33804,6 +34485,9 @@
       <c r="AX13" t="n">
         <v>120</v>
       </c>
+      <c r="AY13" t="n">
+        <v>108</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -33960,6 +34644,9 @@
       <c r="AX14" t="n">
         <v>53</v>
       </c>
+      <c r="AY14" t="n">
+        <v>52</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -34116,6 +34803,9 @@
       <c r="AX15" t="n">
         <v>-16</v>
       </c>
+      <c r="AY15" t="n">
+        <v>-18</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -34272,6 +34962,9 @@
       <c r="AX16" t="n">
         <v>86</v>
       </c>
+      <c r="AY16" t="n">
+        <v>85</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -34428,6 +35121,9 @@
       <c r="AX17" t="n">
         <v>76</v>
       </c>
+      <c r="AY17" t="n">
+        <v>77</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -34584,6 +35280,9 @@
       <c r="AX18" t="n">
         <v>37</v>
       </c>
+      <c r="AY18" t="n">
+        <v>33</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -34739,6 +35438,9 @@
       </c>
       <c r="AX19" t="n">
         <v>4</v>
+      </c>
+      <c r="AY19" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/KR_Stocks_ETF.xlsx
+++ b/KR_Stocks_ETF.xlsx
@@ -714,7 +714,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:L19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -733,6 +733,7 @@
     <col width="10" customWidth="1" min="9" max="9"/>
     <col width="10" customWidth="1" min="10" max="10"/>
     <col width="10" customWidth="1" min="11" max="11"/>
+    <col width="10" customWidth="1" min="12" max="12"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -773,6 +774,9 @@
       <c r="K1" s="1" t="n">
         <v>20251209</v>
       </c>
+      <c r="L1" s="1" t="n">
+        <v>20251210</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -812,6 +816,9 @@
       <c r="K2" t="n">
         <v>34</v>
       </c>
+      <c r="L2" t="n">
+        <v>46</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -851,6 +858,9 @@
       <c r="K3" t="n">
         <v>39</v>
       </c>
+      <c r="L3" t="n">
+        <v>42</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -890,6 +900,9 @@
       <c r="K4" t="n">
         <v>38</v>
       </c>
+      <c r="L4" t="n">
+        <v>50</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -929,6 +942,9 @@
       <c r="K5" t="n">
         <v>26</v>
       </c>
+      <c r="L5" t="n">
+        <v>28</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -968,6 +984,9 @@
       <c r="K6" t="n">
         <v>50</v>
       </c>
+      <c r="L6" t="n">
+        <v>53</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1007,6 +1026,9 @@
       <c r="K7" t="n">
         <v>56</v>
       </c>
+      <c r="L7" t="n">
+        <v>57</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1046,6 +1068,9 @@
       <c r="K8" t="n">
         <v>43</v>
       </c>
+      <c r="L8" t="n">
+        <v>45</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1085,6 +1110,9 @@
       <c r="K9" t="n">
         <v>36</v>
       </c>
+      <c r="L9" t="n">
+        <v>33</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1124,6 +1152,9 @@
       <c r="K10" t="n">
         <v>43</v>
       </c>
+      <c r="L10" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1163,6 +1194,9 @@
       <c r="K11" t="n">
         <v>71</v>
       </c>
+      <c r="L11" t="n">
+        <v>64</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1202,6 +1236,9 @@
       <c r="K12" t="n">
         <v>70</v>
       </c>
+      <c r="L12" t="n">
+        <v>63</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1241,6 +1278,9 @@
       <c r="K13" t="n">
         <v>78</v>
       </c>
+      <c r="L13" t="n">
+        <v>72</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1280,6 +1320,9 @@
       <c r="K14" t="n">
         <v>47</v>
       </c>
+      <c r="L14" t="n">
+        <v>43</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1319,6 +1362,9 @@
       <c r="K15" t="n">
         <v>60</v>
       </c>
+      <c r="L15" t="n">
+        <v>70</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1358,6 +1404,9 @@
       <c r="K16" t="n">
         <v>60</v>
       </c>
+      <c r="L16" t="n">
+        <v>55</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1397,6 +1446,9 @@
       <c r="K17" t="n">
         <v>58</v>
       </c>
+      <c r="L17" t="n">
+        <v>52</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1436,6 +1488,9 @@
       <c r="K18" t="n">
         <v>58</v>
       </c>
+      <c r="L18" t="n">
+        <v>58</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1474,6 +1529,9 @@
       </c>
       <c r="K19" t="n">
         <v>68</v>
+      </c>
+      <c r="L19" t="n">
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -1487,7 +1545,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY19"/>
+  <dimension ref="A1:AZ19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1546,6 +1604,7 @@
     <col width="12" customWidth="1" min="49" max="49"/>
     <col width="12" customWidth="1" min="50" max="50"/>
     <col width="12" customWidth="1" min="51" max="51"/>
+    <col width="12" customWidth="1" min="52" max="52"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1804,6 +1863,11 @@
           <t>20251209</t>
         </is>
       </c>
+      <c r="AZ1" s="1" t="inlineStr">
+        <is>
+          <t>20251210</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1963,6 +2027,9 @@
       <c r="AY2" t="n">
         <v>95</v>
       </c>
+      <c r="AZ2" t="n">
+        <v>98</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -2122,6 +2189,9 @@
       <c r="AY3" t="n">
         <v>102</v>
       </c>
+      <c r="AZ3" t="n">
+        <v>103</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -2281,6 +2351,9 @@
       <c r="AY4" t="n">
         <v>97</v>
       </c>
+      <c r="AZ4" t="n">
+        <v>99</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -2440,6 +2513,9 @@
       <c r="AY5" t="n">
         <v>101</v>
       </c>
+      <c r="AZ5" t="n">
+        <v>101</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -2599,6 +2675,9 @@
       <c r="AY6" t="n">
         <v>103</v>
       </c>
+      <c r="AZ6" t="n">
+        <v>104</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -2758,6 +2837,9 @@
       <c r="AY7" t="n">
         <v>105</v>
       </c>
+      <c r="AZ7" t="n">
+        <v>105</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2917,6 +2999,9 @@
       <c r="AY8" t="n">
         <v>103</v>
       </c>
+      <c r="AZ8" t="n">
+        <v>103</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -3076,6 +3161,9 @@
       <c r="AY9" t="n">
         <v>105</v>
       </c>
+      <c r="AZ9" t="n">
+        <v>105</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -3235,6 +3323,9 @@
       <c r="AY10" t="n">
         <v>102</v>
       </c>
+      <c r="AZ10" t="n">
+        <v>101</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -3394,6 +3485,9 @@
       <c r="AY11" t="n">
         <v>110</v>
       </c>
+      <c r="AZ11" t="n">
+        <v>108</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -3553,6 +3647,9 @@
       <c r="AY12" t="n">
         <v>111</v>
       </c>
+      <c r="AZ12" t="n">
+        <v>109</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3712,6 +3809,9 @@
       <c r="AY13" t="n">
         <v>114</v>
       </c>
+      <c r="AZ13" t="n">
+        <v>112</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -3871,6 +3971,9 @@
       <c r="AY14" t="n">
         <v>109</v>
       </c>
+      <c r="AZ14" t="n">
+        <v>108</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -4030,6 +4133,9 @@
       <c r="AY15" t="n">
         <v>99</v>
       </c>
+      <c r="AZ15" t="n">
+        <v>101</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -4189,6 +4295,9 @@
       <c r="AY16" t="n">
         <v>108</v>
       </c>
+      <c r="AZ16" t="n">
+        <v>107</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -4348,6 +4457,9 @@
       <c r="AY17" t="n">
         <v>108</v>
       </c>
+      <c r="AZ17" t="n">
+        <v>107</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -4507,6 +4619,9 @@
       <c r="AY18" t="n">
         <v>102</v>
       </c>
+      <c r="AZ18" t="n">
+        <v>102</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -4665,6 +4780,9 @@
       </c>
       <c r="AY19" t="n">
         <v>100</v>
+      </c>
+      <c r="AZ19" t="n">
+        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -4678,7 +4796,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AF19"/>
+  <dimension ref="A1:AG19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4718,6 +4836,7 @@
     <col width="12" customWidth="1" min="30" max="30"/>
     <col width="12" customWidth="1" min="31" max="31"/>
     <col width="12" customWidth="1" min="32" max="32"/>
+    <col width="12" customWidth="1" min="33" max="33"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -4881,6 +5000,11 @@
           <t>20251209</t>
         </is>
       </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>20251210</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -4983,6 +5107,9 @@
       <c r="AF2" t="n">
         <v>-46.6</v>
       </c>
+      <c r="AG2" t="n">
+        <v>-46.09</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -5085,6 +5212,9 @@
       <c r="AF3" t="n">
         <v>-7.09</v>
       </c>
+      <c r="AG3" t="n">
+        <v>-11.87</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -5187,6 +5317,9 @@
       <c r="AF4" t="n">
         <v>-43.96</v>
       </c>
+      <c r="AG4" t="n">
+        <v>-42.86</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -5289,6 +5422,9 @@
       <c r="AF5" t="n">
         <v>-7.96</v>
       </c>
+      <c r="AG5" t="n">
+        <v>-15.64</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -5391,6 +5527,9 @@
       <c r="AF6" t="n">
         <v>-10.4</v>
       </c>
+      <c r="AG6" t="n">
+        <v>-8.91</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -5493,6 +5632,9 @@
       <c r="AF7" t="n">
         <v>-2.41</v>
       </c>
+      <c r="AG7" t="n">
+        <v>1.72</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -5595,6 +5737,9 @@
       <c r="AF8" t="n">
         <v>-4.54</v>
       </c>
+      <c r="AG8" t="n">
+        <v>-8.48</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -5697,6 +5842,9 @@
       <c r="AF9" t="n">
         <v>-8.18</v>
       </c>
+      <c r="AG9" t="n">
+        <v>-12.9</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -5799,6 +5947,9 @@
       <c r="AF10" t="n">
         <v>-3.71</v>
       </c>
+      <c r="AG10" t="n">
+        <v>-4.42</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -5901,6 +6052,9 @@
       <c r="AF11" t="n">
         <v>19.82</v>
       </c>
+      <c r="AG11" t="n">
+        <v>28.35</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -6003,6 +6157,9 @@
       <c r="AF12" t="n">
         <v>18.41</v>
       </c>
+      <c r="AG12" t="n">
+        <v>27.25</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -6105,6 +6262,9 @@
       <c r="AF13" t="n">
         <v>29.93</v>
       </c>
+      <c r="AG13" t="n">
+        <v>40.71</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -6207,6 +6367,9 @@
       <c r="AF14" t="n">
         <v>-6.09</v>
       </c>
+      <c r="AG14" t="n">
+        <v>-7.15</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -6309,6 +6472,9 @@
       <c r="AF15" t="n">
         <v>-48.79</v>
       </c>
+      <c r="AG15" t="n">
+        <v>-51.85</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -6411,6 +6577,9 @@
       <c r="AF16" t="n">
         <v>2.83</v>
       </c>
+      <c r="AG16" t="n">
+        <v>6.83</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -6513,6 +6682,9 @@
       <c r="AF17" t="n">
         <v>5.47</v>
       </c>
+      <c r="AG17" t="n">
+        <v>8.24</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -6615,6 +6787,9 @@
       <c r="AF18" t="n">
         <v>-3.13</v>
       </c>
+      <c r="AG18" t="n">
+        <v>-1.15</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -6716,6 +6891,9 @@
       </c>
       <c r="AF19" t="n">
         <v>-49.11</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>-50.31</v>
       </c>
     </row>
   </sheetData>
@@ -6729,7 +6907,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:L19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6748,6 +6926,7 @@
     <col width="12" customWidth="1" min="9" max="9"/>
     <col width="12" customWidth="1" min="10" max="10"/>
     <col width="12" customWidth="1" min="11" max="11"/>
+    <col width="12" customWidth="1" min="12" max="12"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -6806,6 +6985,11 @@
           <t>20251209</t>
         </is>
       </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>20251210</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -6845,6 +7029,9 @@
       <c r="K2" t="n">
         <v>90</v>
       </c>
+      <c r="L2" t="n">
+        <v>96</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -6884,6 +7071,9 @@
       <c r="K3" t="n">
         <v>26</v>
       </c>
+      <c r="L3" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -6923,6 +7113,9 @@
       <c r="K4" t="n">
         <v>40</v>
       </c>
+      <c r="L4" t="n">
+        <v>55</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -6962,6 +7155,9 @@
       <c r="K5" t="n">
         <v>7</v>
       </c>
+      <c r="L5" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -7001,6 +7197,9 @@
       <c r="K6" t="n">
         <v>28</v>
       </c>
+      <c r="L6" t="n">
+        <v>39</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -7040,6 +7239,9 @@
       <c r="K7" t="n">
         <v>37</v>
       </c>
+      <c r="L7" t="n">
+        <v>34</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -7079,6 +7281,9 @@
       <c r="K8" t="n">
         <v>19</v>
       </c>
+      <c r="L8" t="n">
+        <v>31</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -7118,6 +7323,9 @@
       <c r="K9" t="n">
         <v>38</v>
       </c>
+      <c r="L9" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -7157,6 +7365,9 @@
       <c r="K10" t="n">
         <v>11</v>
       </c>
+      <c r="L10" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -7196,6 +7407,9 @@
       <c r="K11" t="n">
         <v>47</v>
       </c>
+      <c r="L11" t="n">
+        <v>31</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -7235,6 +7449,9 @@
       <c r="K12" t="n">
         <v>81</v>
       </c>
+      <c r="L12" t="n">
+        <v>51</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -7274,6 +7491,9 @@
       <c r="K13" t="n">
         <v>89</v>
       </c>
+      <c r="L13" t="n">
+        <v>57</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -7313,6 +7533,9 @@
       <c r="K14" t="n">
         <v>43</v>
       </c>
+      <c r="L14" t="n">
+        <v>36</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -7352,6 +7575,9 @@
       <c r="K15" t="n">
         <v>42</v>
       </c>
+      <c r="L15" t="n">
+        <v>48</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -7391,6 +7617,9 @@
       <c r="K16" t="n">
         <v>47</v>
       </c>
+      <c r="L16" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -7430,6 +7659,9 @@
       <c r="K17" t="n">
         <v>16</v>
       </c>
+      <c r="L17" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -7469,6 +7701,9 @@
       <c r="K18" t="n">
         <v>17</v>
       </c>
+      <c r="L18" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -7507,6 +7742,9 @@
       </c>
       <c r="K19" t="n">
         <v>57</v>
+      </c>
+      <c r="L19" t="n">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -7520,7 +7758,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BR19"/>
+  <dimension ref="A1:BS19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7598,6 +7836,7 @@
     <col width="12" customWidth="1" min="68" max="68"/>
     <col width="12" customWidth="1" min="69" max="69"/>
     <col width="12" customWidth="1" min="70" max="70"/>
+    <col width="12" customWidth="1" min="71" max="71"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -7815,6 +8054,9 @@
       <c r="BR1" s="1" t="n">
         <v>20251209</v>
       </c>
+      <c r="BS1" s="1" t="n">
+        <v>20251210</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -8031,6 +8273,9 @@
       <c r="BR2" t="n">
         <v>15205</v>
       </c>
+      <c r="BS2" t="n">
+        <v>15155</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -8247,6 +8492,9 @@
       <c r="BR3" t="n">
         <v>57845</v>
       </c>
+      <c r="BS3" t="n">
+        <v>57600</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -8463,6 +8711,9 @@
       <c r="BR4" t="n">
         <v>18185</v>
       </c>
+      <c r="BS4" t="n">
+        <v>17945</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -8679,6 +8930,9 @@
       <c r="BR5" t="n">
         <v>16265</v>
       </c>
+      <c r="BS5" t="n">
+        <v>16180</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -8895,6 +9149,9 @@
       <c r="BR6" t="n">
         <v>17110</v>
       </c>
+      <c r="BS6" t="n">
+        <v>17145</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -9111,6 +9368,9 @@
       <c r="BR7" t="n">
         <v>19790</v>
       </c>
+      <c r="BS7" t="n">
+        <v>19860</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -9327,6 +9587,9 @@
       <c r="BR8" t="n">
         <v>18755</v>
       </c>
+      <c r="BS8" t="n">
+        <v>18610</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -9543,6 +9806,9 @@
       <c r="BR9" t="n">
         <v>1618</v>
       </c>
+      <c r="BS9" t="n">
+        <v>1696</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -9759,6 +10025,9 @@
       <c r="BR10" t="n">
         <v>17340</v>
       </c>
+      <c r="BS10" t="n">
+        <v>17405</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -9975,6 +10244,9 @@
       <c r="BR11" t="n">
         <v>5635</v>
       </c>
+      <c r="BS11" t="n">
+        <v>5855</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -10191,6 +10463,9 @@
       <c r="BR12" t="n">
         <v>6105</v>
       </c>
+      <c r="BS12" t="n">
+        <v>6420</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -10407,6 +10682,9 @@
       <c r="BR13" t="n">
         <v>6205</v>
       </c>
+      <c r="BS13" t="n">
+        <v>6470</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -10623,6 +10901,9 @@
       <c r="BR14" t="n">
         <v>1780</v>
       </c>
+      <c r="BS14" t="n">
+        <v>1862</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -10839,6 +11120,9 @@
       <c r="BR15" t="n">
         <v>19145</v>
       </c>
+      <c r="BS15" t="n">
+        <v>19035</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -11055,6 +11339,9 @@
       <c r="BR16" t="n">
         <v>11450</v>
       </c>
+      <c r="BS16" t="n">
+        <v>11800</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -11271,6 +11558,9 @@
       <c r="BR17" t="n">
         <v>6805</v>
       </c>
+      <c r="BS17" t="n">
+        <v>7100</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -11487,6 +11777,9 @@
       <c r="BR18" t="n">
         <v>18250</v>
       </c>
+      <c r="BS18" t="n">
+        <v>18400</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -11702,6 +11995,9 @@
       </c>
       <c r="BR19" t="n">
         <v>16255</v>
+      </c>
+      <c r="BS19" t="n">
+        <v>15900</v>
       </c>
     </row>
   </sheetData>
@@ -11715,7 +12011,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BR19"/>
+  <dimension ref="A1:BS19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11793,6 +12089,7 @@
     <col width="12" customWidth="1" min="68" max="68"/>
     <col width="12" customWidth="1" min="69" max="69"/>
     <col width="12" customWidth="1" min="70" max="70"/>
+    <col width="12" customWidth="1" min="71" max="71"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -12010,6 +12307,9 @@
       <c r="BR1" s="1" t="n">
         <v>20251209</v>
       </c>
+      <c r="BS1" s="1" t="n">
+        <v>20251210</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -12226,6 +12526,9 @@
       <c r="BR2" t="n">
         <v>15215</v>
       </c>
+      <c r="BS2" t="n">
+        <v>15635</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -12442,6 +12745,9 @@
       <c r="BR3" t="n">
         <v>58200</v>
       </c>
+      <c r="BS3" t="n">
+        <v>58695</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -12658,6 +12964,9 @@
       <c r="BR4" t="n">
         <v>18240</v>
       </c>
+      <c r="BS4" t="n">
+        <v>18500</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -12874,6 +13183,9 @@
       <c r="BR5" t="n">
         <v>16275</v>
       </c>
+      <c r="BS5" t="n">
+        <v>16460</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -13090,6 +13402,9 @@
       <c r="BR6" t="n">
         <v>17260</v>
       </c>
+      <c r="BS6" t="n">
+        <v>17480</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -13306,6 +13621,9 @@
       <c r="BR7" t="n">
         <v>19955</v>
       </c>
+      <c r="BS7" t="n">
+        <v>20200</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -13522,6 +13840,9 @@
       <c r="BR8" t="n">
         <v>18795</v>
       </c>
+      <c r="BS8" t="n">
+        <v>18965</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -13738,6 +14059,9 @@
       <c r="BR9" t="n">
         <v>1673</v>
       </c>
+      <c r="BS9" t="n">
+        <v>1720</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -13954,6 +14278,9 @@
       <c r="BR10" t="n">
         <v>17425</v>
       </c>
+      <c r="BS10" t="n">
+        <v>17625</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -14170,6 +14497,9 @@
       <c r="BR11" t="n">
         <v>5850</v>
       </c>
+      <c r="BS11" t="n">
+        <v>5910</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -14386,6 +14716,9 @@
       <c r="BR12" t="n">
         <v>6370</v>
       </c>
+      <c r="BS12" t="n">
+        <v>6440</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -14602,6 +14935,9 @@
       <c r="BR13" t="n">
         <v>6465</v>
       </c>
+      <c r="BS13" t="n">
+        <v>6515</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -14818,6 +15154,9 @@
       <c r="BR14" t="n">
         <v>1854</v>
       </c>
+      <c r="BS14" t="n">
+        <v>1897</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -15034,6 +15373,9 @@
       <c r="BR15" t="n">
         <v>19175</v>
       </c>
+      <c r="BS15" t="n">
+        <v>19745</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -15250,6 +15592,9 @@
       <c r="BR16" t="n">
         <v>11775</v>
       </c>
+      <c r="BS16" t="n">
+        <v>11935</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -15466,6 +15811,9 @@
       <c r="BR17" t="n">
         <v>7010</v>
       </c>
+      <c r="BS17" t="n">
+        <v>7150</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -15682,6 +16030,9 @@
       <c r="BR18" t="n">
         <v>18535</v>
       </c>
+      <c r="BS18" t="n">
+        <v>18735</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -15897,6 +16248,9 @@
       </c>
       <c r="BR19" t="n">
         <v>16255</v>
+      </c>
+      <c r="BS19" t="n">
+        <v>16485</v>
       </c>
     </row>
   </sheetData>
@@ -15910,7 +16264,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BR19"/>
+  <dimension ref="A1:BS19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15988,6 +16342,7 @@
     <col width="12" customWidth="1" min="68" max="68"/>
     <col width="12" customWidth="1" min="69" max="69"/>
     <col width="12" customWidth="1" min="70" max="70"/>
+    <col width="12" customWidth="1" min="71" max="71"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -16205,6 +16560,9 @@
       <c r="BR1" s="1" t="n">
         <v>20251209</v>
       </c>
+      <c r="BS1" s="1" t="n">
+        <v>20251210</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -16421,6 +16779,9 @@
       <c r="BR2" t="n">
         <v>14900</v>
       </c>
+      <c r="BS2" t="n">
+        <v>15000</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -16637,6 +16998,9 @@
       <c r="BR3" t="n">
         <v>57405</v>
       </c>
+      <c r="BS3" t="n">
+        <v>57600</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -16853,6 +17217,9 @@
       <c r="BR4" t="n">
         <v>17885</v>
       </c>
+      <c r="BS4" t="n">
+        <v>17880</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -17069,6 +17436,9 @@
       <c r="BR5" t="n">
         <v>16045</v>
       </c>
+      <c r="BS5" t="n">
+        <v>16140</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -17285,6 +17655,9 @@
       <c r="BR6" t="n">
         <v>17060</v>
       </c>
+      <c r="BS6" t="n">
+        <v>17145</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -17501,6 +17874,9 @@
       <c r="BR7" t="n">
         <v>19645</v>
       </c>
+      <c r="BS7" t="n">
+        <v>19800</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -17717,6 +18093,9 @@
       <c r="BR8" t="n">
         <v>18515</v>
       </c>
+      <c r="BS8" t="n">
+        <v>18610</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -17933,6 +18312,9 @@
       <c r="BR9" t="n">
         <v>1607</v>
       </c>
+      <c r="BS9" t="n">
+        <v>1612</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -18149,6 +18531,9 @@
       <c r="BR10" t="n">
         <v>17185</v>
       </c>
+      <c r="BS10" t="n">
+        <v>17325</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -18365,6 +18750,9 @@
       <c r="BR11" t="n">
         <v>5620</v>
       </c>
+      <c r="BS11" t="n">
+        <v>5685</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -18581,6 +18969,9 @@
       <c r="BR12" t="n">
         <v>6090</v>
       </c>
+      <c r="BS12" t="n">
+        <v>6160</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -18797,6 +19188,9 @@
       <c r="BR13" t="n">
         <v>6150</v>
       </c>
+      <c r="BS13" t="n">
+        <v>6250</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -19013,6 +19407,9 @@
       <c r="BR14" t="n">
         <v>1763</v>
       </c>
+      <c r="BS14" t="n">
+        <v>1783</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -19229,6 +19626,9 @@
       <c r="BR15" t="n">
         <v>18800</v>
       </c>
+      <c r="BS15" t="n">
+        <v>18835</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -19445,6 +19845,9 @@
       <c r="BR16" t="n">
         <v>11380</v>
       </c>
+      <c r="BS16" t="n">
+        <v>11505</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -19661,6 +20064,9 @@
       <c r="BR17" t="n">
         <v>6770</v>
       </c>
+      <c r="BS17" t="n">
+        <v>6805</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -19877,6 +20283,9 @@
       <c r="BR18" t="n">
         <v>18250</v>
       </c>
+      <c r="BS18" t="n">
+        <v>18365</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -20092,6 +20501,9 @@
       </c>
       <c r="BR19" t="n">
         <v>15970</v>
+      </c>
+      <c r="BS19" t="n">
+        <v>15845</v>
       </c>
     </row>
   </sheetData>
@@ -20105,7 +20517,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BR19"/>
+  <dimension ref="A1:BS19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20183,6 +20595,7 @@
     <col width="12" customWidth="1" min="68" max="68"/>
     <col width="12" customWidth="1" min="69" max="69"/>
     <col width="12" customWidth="1" min="70" max="70"/>
+    <col width="12" customWidth="1" min="71" max="71"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -20400,6 +20813,9 @@
       <c r="BR1" s="1" t="n">
         <v>20251209</v>
       </c>
+      <c r="BS1" s="1" t="n">
+        <v>20251210</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -20616,6 +21032,9 @@
       <c r="BR2" t="n">
         <v>15155</v>
       </c>
+      <c r="BS2" t="n">
+        <v>15530</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -20832,6 +21251,9 @@
       <c r="BR3" t="n">
         <v>57600</v>
       </c>
+      <c r="BS3" t="n">
+        <v>58020</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -21048,6 +21470,9 @@
       <c r="BR4" t="n">
         <v>18120</v>
       </c>
+      <c r="BS4" t="n">
+        <v>18430</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -21264,6 +21689,9 @@
       <c r="BR5" t="n">
         <v>16115</v>
       </c>
+      <c r="BS5" t="n">
+        <v>16185</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -21480,6 +21908,9 @@
       <c r="BR6" t="n">
         <v>17145</v>
       </c>
+      <c r="BS6" t="n">
+        <v>17300</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -21696,6 +22127,9 @@
       <c r="BR7" t="n">
         <v>19790</v>
       </c>
+      <c r="BS7" t="n">
+        <v>19905</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -21912,6 +22346,9 @@
       <c r="BR8" t="n">
         <v>18610</v>
       </c>
+      <c r="BS8" t="n">
+        <v>18735</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -22128,6 +22565,9 @@
       <c r="BR9" t="n">
         <v>1637</v>
       </c>
+      <c r="BS9" t="n">
+        <v>1629</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -22344,6 +22784,9 @@
       <c r="BR10" t="n">
         <v>17400</v>
       </c>
+      <c r="BS10" t="n">
+        <v>17355</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -22560,6 +23003,9 @@
       <c r="BR11" t="n">
         <v>5785</v>
       </c>
+      <c r="BS11" t="n">
+        <v>5720</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -22776,6 +23222,9 @@
       <c r="BR12" t="n">
         <v>6290</v>
       </c>
+      <c r="BS12" t="n">
+        <v>6200</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -22992,6 +23441,9 @@
       <c r="BR13" t="n">
         <v>6360</v>
       </c>
+      <c r="BS13" t="n">
+        <v>6300</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -23208,6 +23660,9 @@
       <c r="BR14" t="n">
         <v>1814</v>
       </c>
+      <c r="BS14" t="n">
+        <v>1798</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -23424,6 +23879,9 @@
       <c r="BR15" t="n">
         <v>19050</v>
       </c>
+      <c r="BS15" t="n">
+        <v>19570</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -23640,6 +24098,9 @@
       <c r="BR16" t="n">
         <v>11645</v>
       </c>
+      <c r="BS16" t="n">
+        <v>11550</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -23856,6 +24317,9 @@
       <c r="BR17" t="n">
         <v>6935</v>
       </c>
+      <c r="BS17" t="n">
+        <v>6855</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -24072,6 +24536,9 @@
       <c r="BR18" t="n">
         <v>18415</v>
       </c>
+      <c r="BS18" t="n">
+        <v>18470</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -24287,6 +24754,9 @@
       </c>
       <c r="BR19" t="n">
         <v>16040</v>
+      </c>
+      <c r="BS19" t="n">
+        <v>16430</v>
       </c>
     </row>
   </sheetData>
@@ -24300,7 +24770,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BR19"/>
+  <dimension ref="A1:BS19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24378,6 +24848,7 @@
     <col width="12" customWidth="1" min="68" max="68"/>
     <col width="12" customWidth="1" min="69" max="69"/>
     <col width="12" customWidth="1" min="70" max="70"/>
+    <col width="12" customWidth="1" min="71" max="71"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -24595,6 +25066,9 @@
       <c r="BR1" s="1" t="n">
         <v>20251209</v>
       </c>
+      <c r="BS1" s="1" t="n">
+        <v>20251210</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -24811,6 +25285,9 @@
       <c r="BR2" t="n">
         <v>191632</v>
       </c>
+      <c r="BS2" t="n">
+        <v>209389</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -25027,6 +25504,9 @@
       <c r="BR3" t="n">
         <v>1203651</v>
       </c>
+      <c r="BS3" t="n">
+        <v>1184252</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -25243,6 +25723,9 @@
       <c r="BR4" t="n">
         <v>122375</v>
       </c>
+      <c r="BS4" t="n">
+        <v>169980</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -25459,6 +25942,9 @@
       <c r="BR5" t="n">
         <v>113962</v>
       </c>
+      <c r="BS5" t="n">
+        <v>265737</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -25675,6 +26161,9 @@
       <c r="BR6" t="n">
         <v>1117997</v>
       </c>
+      <c r="BS6" t="n">
+        <v>1541472</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -25891,6 +26380,9 @@
       <c r="BR7" t="n">
         <v>2845145</v>
       </c>
+      <c r="BS7" t="n">
+        <v>2670215</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -26107,6 +26599,9 @@
       <c r="BR8" t="n">
         <v>2675787</v>
       </c>
+      <c r="BS8" t="n">
+        <v>4461068</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -26323,6 +26818,9 @@
       <c r="BR9" t="n">
         <v>5439163</v>
       </c>
+      <c r="BS9" t="n">
+        <v>3647698</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -26539,6 +27037,9 @@
       <c r="BR10" t="n">
         <v>321572</v>
       </c>
+      <c r="BS10" t="n">
+        <v>407905</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -26755,6 +27256,9 @@
       <c r="BR11" t="n">
         <v>1168004</v>
       </c>
+      <c r="BS11" t="n">
+        <v>783515</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -26971,6 +27475,9 @@
       <c r="BR12" t="n">
         <v>4429980</v>
       </c>
+      <c r="BS12" t="n">
+        <v>2822679</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -27187,6 +27694,9 @@
       <c r="BR13" t="n">
         <v>11622331</v>
       </c>
+      <c r="BS13" t="n">
+        <v>7567101</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -27403,6 +27913,9 @@
       <c r="BR14" t="n">
         <v>43206720</v>
       </c>
+      <c r="BS14" t="n">
+        <v>36559194</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -27619,6 +28132,9 @@
       <c r="BR15" t="n">
         <v>1361571</v>
       </c>
+      <c r="BS15" t="n">
+        <v>1574234</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -27835,6 +28351,9 @@
       <c r="BR16" t="n">
         <v>569720</v>
       </c>
+      <c r="BS16" t="n">
+        <v>217304</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -28051,6 +28570,9 @@
       <c r="BR17" t="n">
         <v>76967</v>
       </c>
+      <c r="BS17" t="n">
+        <v>91666</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -28267,6 +28789,9 @@
       <c r="BR18" t="n">
         <v>61685</v>
       </c>
+      <c r="BS18" t="n">
+        <v>89013</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -28482,6 +29007,9 @@
       </c>
       <c r="BR19" t="n">
         <v>54276</v>
+      </c>
+      <c r="BS19" t="n">
+        <v>33851</v>
       </c>
     </row>
   </sheetData>
@@ -28495,7 +29023,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY19"/>
+  <dimension ref="A1:AZ19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28554,6 +29082,7 @@
     <col width="10" customWidth="1" min="49" max="49"/>
     <col width="10" customWidth="1" min="50" max="50"/>
     <col width="10" customWidth="1" min="51" max="51"/>
+    <col width="10" customWidth="1" min="52" max="52"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -28714,6 +29243,9 @@
       <c r="AY1" s="1" t="n">
         <v>20251209</v>
       </c>
+      <c r="AZ1" s="1" t="n">
+        <v>20251210</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -28873,6 +29405,9 @@
       <c r="AY2" t="n">
         <v>11</v>
       </c>
+      <c r="AZ2" t="n">
+        <v>34</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -29032,6 +29567,9 @@
       <c r="AY3" t="n">
         <v>71</v>
       </c>
+      <c r="AZ3" t="n">
+        <v>79</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -29191,6 +29729,9 @@
       <c r="AY4" t="n">
         <v>11</v>
       </c>
+      <c r="AZ4" t="n">
+        <v>33</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -29350,6 +29891,9 @@
       <c r="AY5" t="n">
         <v>61</v>
       </c>
+      <c r="AZ5" t="n">
+        <v>66</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -29509,6 +30053,9 @@
       <c r="AY6" t="n">
         <v>90</v>
       </c>
+      <c r="AZ6" t="n">
+        <v>100</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -29668,6 +30215,9 @@
       <c r="AY7" t="n">
         <v>98</v>
       </c>
+      <c r="AZ7" t="n">
+        <v>100</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -29827,6 +30377,9 @@
       <c r="AY8" t="n">
         <v>74</v>
       </c>
+      <c r="AZ8" t="n">
+        <v>79</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -29986,6 +30539,9 @@
       <c r="AY9" t="n">
         <v>56</v>
       </c>
+      <c r="AZ9" t="n">
+        <v>54</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -30145,6 +30701,9 @@
       <c r="AY10" t="n">
         <v>84</v>
       </c>
+      <c r="AZ10" t="n">
+        <v>81</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -30304,6 +30863,9 @@
       <c r="AY11" t="n">
         <v>100</v>
       </c>
+      <c r="AZ11" t="n">
+        <v>94</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -30463,6 +31025,9 @@
       <c r="AY12" t="n">
         <v>100</v>
       </c>
+      <c r="AZ12" t="n">
+        <v>92</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -30622,6 +31187,9 @@
       <c r="AY13" t="n">
         <v>100</v>
       </c>
+      <c r="AZ13" t="n">
+        <v>96</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -30781,6 +31349,9 @@
       <c r="AY14" t="n">
         <v>70</v>
       </c>
+      <c r="AZ14" t="n">
+        <v>67</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -30940,6 +31511,9 @@
       <c r="AY15" t="n">
         <v>39</v>
       </c>
+      <c r="AZ15" t="n">
+        <v>55</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -31099,6 +31673,9 @@
       <c r="AY16" t="n">
         <v>99</v>
       </c>
+      <c r="AZ16" t="n">
+        <v>94</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -31258,6 +31835,9 @@
       <c r="AY17" t="n">
         <v>89</v>
       </c>
+      <c r="AZ17" t="n">
+        <v>82</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -31417,6 +31997,9 @@
       <c r="AY18" t="n">
         <v>84</v>
       </c>
+      <c r="AZ18" t="n">
+        <v>87</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -31575,6 +32158,9 @@
       </c>
       <c r="AY19" t="n">
         <v>55</v>
+      </c>
+      <c r="AZ19" t="n">
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -31588,7 +32174,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:L19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -31607,6 +32193,7 @@
     <col width="10" customWidth="1" min="9" max="9"/>
     <col width="10" customWidth="1" min="10" max="10"/>
     <col width="10" customWidth="1" min="11" max="11"/>
+    <col width="10" customWidth="1" min="12" max="12"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -31647,6 +32234,9 @@
       <c r="K1" s="1" t="n">
         <v>20251209</v>
       </c>
+      <c r="L1" s="1" t="n">
+        <v>20251210</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -31686,6 +32276,9 @@
       <c r="K2" t="n">
         <v>64</v>
       </c>
+      <c r="L2" t="n">
+        <v>74</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -31725,6 +32318,9 @@
       <c r="K3" t="n">
         <v>83</v>
       </c>
+      <c r="L3" t="n">
+        <v>85</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -31764,6 +32360,9 @@
       <c r="K4" t="n">
         <v>69</v>
       </c>
+      <c r="L4" t="n">
+        <v>77</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -31803,6 +32402,9 @@
       <c r="K5" t="n">
         <v>78</v>
       </c>
+      <c r="L5" t="n">
+        <v>79</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -31842,6 +32444,9 @@
       <c r="K6" t="n">
         <v>91</v>
       </c>
+      <c r="L6" t="n">
+        <v>93</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -31881,6 +32486,9 @@
       <c r="K7" t="n">
         <v>93</v>
       </c>
+      <c r="L7" t="n">
+        <v>95</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -31920,6 +32528,9 @@
       <c r="K8" t="n">
         <v>88</v>
       </c>
+      <c r="L8" t="n">
+        <v>89</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -31959,6 +32570,9 @@
       <c r="K9" t="n">
         <v>64</v>
       </c>
+      <c r="L9" t="n">
+        <v>63</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -31998,6 +32612,9 @@
       <c r="K10" t="n">
         <v>85</v>
       </c>
+      <c r="L10" t="n">
+        <v>84</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -32037,6 +32654,9 @@
       <c r="K11" t="n">
         <v>100</v>
       </c>
+      <c r="L11" t="n">
+        <v>97</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -32076,6 +32696,9 @@
       <c r="K12" t="n">
         <v>100</v>
       </c>
+      <c r="L12" t="n">
+        <v>96</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -32115,6 +32738,9 @@
       <c r="K13" t="n">
         <v>100</v>
       </c>
+      <c r="L13" t="n">
+        <v>98</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -32154,6 +32780,9 @@
       <c r="K14" t="n">
         <v>74</v>
       </c>
+      <c r="L14" t="n">
+        <v>73</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -32193,6 +32822,9 @@
       <c r="K15" t="n">
         <v>78</v>
       </c>
+      <c r="L15" t="n">
+        <v>86</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -32232,6 +32864,9 @@
       <c r="K16" t="n">
         <v>92</v>
       </c>
+      <c r="L16" t="n">
+        <v>89</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -32271,6 +32906,9 @@
       <c r="K17" t="n">
         <v>89</v>
       </c>
+      <c r="L17" t="n">
+        <v>86</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -32310,6 +32948,9 @@
       <c r="K18" t="n">
         <v>95</v>
       </c>
+      <c r="L18" t="n">
+        <v>95</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -32348,6 +32989,9 @@
       </c>
       <c r="K19" t="n">
         <v>83</v>
+      </c>
+      <c r="L19" t="n">
+        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -32361,7 +33005,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY19"/>
+  <dimension ref="A1:AZ19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -32420,6 +33064,7 @@
     <col width="10" customWidth="1" min="49" max="49"/>
     <col width="10" customWidth="1" min="50" max="50"/>
     <col width="10" customWidth="1" min="51" max="51"/>
+    <col width="10" customWidth="1" min="52" max="52"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -32580,6 +33225,9 @@
       <c r="AY1" s="1" t="n">
         <v>20251209</v>
       </c>
+      <c r="AZ1" s="1" t="n">
+        <v>20251210</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -32739,6 +33387,9 @@
       <c r="AY2" t="n">
         <v>-93</v>
       </c>
+      <c r="AZ2" t="n">
+        <v>-49</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -32898,6 +33549,9 @@
       <c r="AY3" t="n">
         <v>31</v>
       </c>
+      <c r="AZ3" t="n">
+        <v>47</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -33057,6 +33711,9 @@
       <c r="AY4" t="n">
         <v>-58</v>
       </c>
+      <c r="AZ4" t="n">
+        <v>-25</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -33216,6 +33873,9 @@
       <c r="AY5" t="n">
         <v>11</v>
       </c>
+      <c r="AZ5" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -33375,6 +34035,9 @@
       <c r="AY6" t="n">
         <v>49</v>
       </c>
+      <c r="AZ6" t="n">
+        <v>65</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -33534,6 +34197,9 @@
       <c r="AY7" t="n">
         <v>65</v>
       </c>
+      <c r="AZ7" t="n">
+        <v>71</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -33693,6 +34359,9 @@
       <c r="AY8" t="n">
         <v>37</v>
       </c>
+      <c r="AZ8" t="n">
+        <v>51</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -33852,6 +34521,9 @@
       <c r="AY9" t="n">
         <v>32</v>
       </c>
+      <c r="AZ9" t="n">
+        <v>34</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -34011,6 +34683,9 @@
       <c r="AY10" t="n">
         <v>31</v>
       </c>
+      <c r="AZ10" t="n">
+        <v>27</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -34170,6 +34845,9 @@
       <c r="AY11" t="n">
         <v>99</v>
       </c>
+      <c r="AZ11" t="n">
+        <v>79</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -34329,6 +35007,9 @@
       <c r="AY12" t="n">
         <v>101</v>
       </c>
+      <c r="AZ12" t="n">
+        <v>79</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -34488,6 +35169,9 @@
       <c r="AY13" t="n">
         <v>108</v>
       </c>
+      <c r="AZ13" t="n">
+        <v>88</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -34647,6 +35331,9 @@
       <c r="AY14" t="n">
         <v>52</v>
       </c>
+      <c r="AZ14" t="n">
+        <v>49</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -34806,6 +35493,9 @@
       <c r="AY15" t="n">
         <v>-18</v>
       </c>
+      <c r="AZ15" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -34965,6 +35655,9 @@
       <c r="AY16" t="n">
         <v>85</v>
       </c>
+      <c r="AZ16" t="n">
+        <v>73</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -35124,6 +35817,9 @@
       <c r="AY17" t="n">
         <v>77</v>
       </c>
+      <c r="AZ17" t="n">
+        <v>63</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -35283,6 +35979,9 @@
       <c r="AY18" t="n">
         <v>33</v>
       </c>
+      <c r="AZ18" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -35441,6 +36140,9 @@
       </c>
       <c r="AY19" t="n">
         <v>8</v>
+      </c>
+      <c r="AZ19" t="n">
+        <v>46</v>
       </c>
     </row>
   </sheetData>

--- a/KR_Stocks_ETF.xlsx
+++ b/KR_Stocks_ETF.xlsx
@@ -714,7 +714,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L19"/>
+  <dimension ref="A1:M19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -734,6 +734,7 @@
     <col width="10" customWidth="1" min="10" max="10"/>
     <col width="10" customWidth="1" min="11" max="11"/>
     <col width="10" customWidth="1" min="12" max="12"/>
+    <col width="10" customWidth="1" min="13" max="13"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -777,6 +778,9 @@
       <c r="L1" s="1" t="n">
         <v>20251210</v>
       </c>
+      <c r="M1" s="1" t="n">
+        <v>20251211</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -819,6 +823,9 @@
       <c r="L2" t="n">
         <v>46</v>
       </c>
+      <c r="M2" t="n">
+        <v>46</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -861,6 +868,9 @@
       <c r="L3" t="n">
         <v>42</v>
       </c>
+      <c r="M3" t="n">
+        <v>36</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -903,6 +913,9 @@
       <c r="L4" t="n">
         <v>50</v>
       </c>
+      <c r="M4" t="n">
+        <v>43</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -945,6 +958,9 @@
       <c r="L5" t="n">
         <v>28</v>
       </c>
+      <c r="M5" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -987,6 +1003,9 @@
       <c r="L6" t="n">
         <v>53</v>
       </c>
+      <c r="M6" t="n">
+        <v>47</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1029,6 +1048,9 @@
       <c r="L7" t="n">
         <v>57</v>
       </c>
+      <c r="M7" t="n">
+        <v>51</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1071,6 +1093,9 @@
       <c r="L8" t="n">
         <v>45</v>
       </c>
+      <c r="M8" t="n">
+        <v>39</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1113,6 +1138,9 @@
       <c r="L9" t="n">
         <v>33</v>
       </c>
+      <c r="M9" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1155,6 +1183,9 @@
       <c r="L10" t="n">
         <v>40</v>
       </c>
+      <c r="M10" t="n">
+        <v>33</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1197,6 +1228,9 @@
       <c r="L11" t="n">
         <v>64</v>
       </c>
+      <c r="M11" t="n">
+        <v>54</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1239,6 +1273,9 @@
       <c r="L12" t="n">
         <v>63</v>
       </c>
+      <c r="M12" t="n">
+        <v>55</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1281,6 +1318,9 @@
       <c r="L13" t="n">
         <v>72</v>
       </c>
+      <c r="M13" t="n">
+        <v>63</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1323,6 +1363,9 @@
       <c r="L14" t="n">
         <v>43</v>
       </c>
+      <c r="M14" t="n">
+        <v>36</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1365,6 +1408,9 @@
       <c r="L15" t="n">
         <v>70</v>
       </c>
+      <c r="M15" t="n">
+        <v>69</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1407,6 +1453,9 @@
       <c r="L16" t="n">
         <v>55</v>
       </c>
+      <c r="M16" t="n">
+        <v>46</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1449,6 +1498,9 @@
       <c r="L17" t="n">
         <v>52</v>
       </c>
+      <c r="M17" t="n">
+        <v>42</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1491,6 +1543,9 @@
       <c r="L18" t="n">
         <v>58</v>
       </c>
+      <c r="M18" t="n">
+        <v>54</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1532,6 +1587,9 @@
       </c>
       <c r="L19" t="n">
         <v>79</v>
+      </c>
+      <c r="M19" t="n">
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -1545,7 +1603,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AZ19"/>
+  <dimension ref="A1:BA19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1605,6 +1663,7 @@
     <col width="12" customWidth="1" min="50" max="50"/>
     <col width="12" customWidth="1" min="51" max="51"/>
     <col width="12" customWidth="1" min="52" max="52"/>
+    <col width="12" customWidth="1" min="53" max="53"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1868,6 +1927,11 @@
           <t>20251210</t>
         </is>
       </c>
+      <c r="BA1" s="1" t="inlineStr">
+        <is>
+          <t>20251211</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -2030,6 +2094,9 @@
       <c r="AZ2" t="n">
         <v>98</v>
       </c>
+      <c r="BA2" t="n">
+        <v>98</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -2192,6 +2259,9 @@
       <c r="AZ3" t="n">
         <v>103</v>
       </c>
+      <c r="BA3" t="n">
+        <v>102</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -2354,6 +2424,9 @@
       <c r="AZ4" t="n">
         <v>99</v>
       </c>
+      <c r="BA4" t="n">
+        <v>98</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -2516,6 +2589,9 @@
       <c r="AZ5" t="n">
         <v>101</v>
       </c>
+      <c r="BA5" t="n">
+        <v>100</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -2678,6 +2754,9 @@
       <c r="AZ6" t="n">
         <v>104</v>
       </c>
+      <c r="BA6" t="n">
+        <v>103</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -2840,6 +2919,9 @@
       <c r="AZ7" t="n">
         <v>105</v>
       </c>
+      <c r="BA7" t="n">
+        <v>104</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -3002,6 +3084,9 @@
       <c r="AZ8" t="n">
         <v>103</v>
       </c>
+      <c r="BA8" t="n">
+        <v>103</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -3164,6 +3249,9 @@
       <c r="AZ9" t="n">
         <v>105</v>
       </c>
+      <c r="BA9" t="n">
+        <v>102</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -3326,6 +3414,9 @@
       <c r="AZ10" t="n">
         <v>101</v>
       </c>
+      <c r="BA10" t="n">
+        <v>101</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -3488,6 +3579,9 @@
       <c r="AZ11" t="n">
         <v>108</v>
       </c>
+      <c r="BA11" t="n">
+        <v>106</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -3650,6 +3744,9 @@
       <c r="AZ12" t="n">
         <v>109</v>
       </c>
+      <c r="BA12" t="n">
+        <v>107</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3812,6 +3909,9 @@
       <c r="AZ13" t="n">
         <v>112</v>
       </c>
+      <c r="BA13" t="n">
+        <v>110</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -3974,6 +4074,9 @@
       <c r="AZ14" t="n">
         <v>108</v>
       </c>
+      <c r="BA14" t="n">
+        <v>106</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -4136,6 +4239,9 @@
       <c r="AZ15" t="n">
         <v>101</v>
       </c>
+      <c r="BA15" t="n">
+        <v>101</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -4298,6 +4404,9 @@
       <c r="AZ16" t="n">
         <v>107</v>
       </c>
+      <c r="BA16" t="n">
+        <v>105</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -4460,6 +4569,9 @@
       <c r="AZ17" t="n">
         <v>107</v>
       </c>
+      <c r="BA17" t="n">
+        <v>105</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -4622,6 +4734,9 @@
       <c r="AZ18" t="n">
         <v>102</v>
       </c>
+      <c r="BA18" t="n">
+        <v>102</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -4783,6 +4898,9 @@
       </c>
       <c r="AZ19" t="n">
         <v>103</v>
+      </c>
+      <c r="BA19" t="n">
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -4796,7 +4914,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AG19"/>
+  <dimension ref="A1:AH19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4837,6 +4955,7 @@
     <col width="12" customWidth="1" min="31" max="31"/>
     <col width="12" customWidth="1" min="32" max="32"/>
     <col width="12" customWidth="1" min="33" max="33"/>
+    <col width="12" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -5005,6 +5124,11 @@
           <t>20251210</t>
         </is>
       </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>20251211</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -5110,6 +5234,9 @@
       <c r="AG2" t="n">
         <v>-46.09</v>
       </c>
+      <c r="AH2" t="n">
+        <v>-43.49</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -5215,6 +5342,9 @@
       <c r="AG3" t="n">
         <v>-11.87</v>
       </c>
+      <c r="AH3" t="n">
+        <v>-17.88</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -5320,6 +5450,9 @@
       <c r="AG4" t="n">
         <v>-42.86</v>
       </c>
+      <c r="AH4" t="n">
+        <v>-40.58</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -5425,6 +5558,9 @@
       <c r="AG5" t="n">
         <v>-15.64</v>
       </c>
+      <c r="AH5" t="n">
+        <v>-23.13</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -5530,6 +5666,9 @@
       <c r="AG6" t="n">
         <v>-8.91</v>
       </c>
+      <c r="AH6" t="n">
+        <v>-8.470000000000001</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -5635,6 +5774,9 @@
       <c r="AG7" t="n">
         <v>1.72</v>
       </c>
+      <c r="AH7" t="n">
+        <v>3.3</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -5740,6 +5882,9 @@
       <c r="AG8" t="n">
         <v>-8.48</v>
       </c>
+      <c r="AH8" t="n">
+        <v>-15.14</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -5845,6 +5990,9 @@
       <c r="AG9" t="n">
         <v>-12.9</v>
       </c>
+      <c r="AH9" t="n">
+        <v>-28.81</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -5950,6 +6098,9 @@
       <c r="AG10" t="n">
         <v>-4.42</v>
       </c>
+      <c r="AH10" t="n">
+        <v>-6.46</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -6055,6 +6206,9 @@
       <c r="AG11" t="n">
         <v>28.35</v>
       </c>
+      <c r="AH11" t="n">
+        <v>26.52</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -6160,6 +6314,9 @@
       <c r="AG12" t="n">
         <v>27.25</v>
       </c>
+      <c r="AH12" t="n">
+        <v>26.85</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -6265,6 +6422,9 @@
       <c r="AG13" t="n">
         <v>40.71</v>
       </c>
+      <c r="AH13" t="n">
+        <v>42.4</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -6370,6 +6530,9 @@
       <c r="AG14" t="n">
         <v>-7.15</v>
       </c>
+      <c r="AH14" t="n">
+        <v>-19.44</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -6475,6 +6638,9 @@
       <c r="AG15" t="n">
         <v>-51.85</v>
       </c>
+      <c r="AH15" t="n">
+        <v>-52.74</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -6580,6 +6746,9 @@
       <c r="AG16" t="n">
         <v>6.83</v>
       </c>
+      <c r="AH16" t="n">
+        <v>2.25</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -6685,6 +6854,9 @@
       <c r="AG17" t="n">
         <v>8.24</v>
       </c>
+      <c r="AH17" t="n">
+        <v>-0.53</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -6790,6 +6962,9 @@
       <c r="AG18" t="n">
         <v>-1.15</v>
       </c>
+      <c r="AH18" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -6894,6 +7069,9 @@
       </c>
       <c r="AG19" t="n">
         <v>-50.31</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>-49.87</v>
       </c>
     </row>
   </sheetData>
@@ -6907,7 +7085,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L19"/>
+  <dimension ref="A1:M19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6927,6 +7105,7 @@
     <col width="12" customWidth="1" min="10" max="10"/>
     <col width="12" customWidth="1" min="11" max="11"/>
     <col width="12" customWidth="1" min="12" max="12"/>
+    <col width="12" customWidth="1" min="13" max="13"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -6990,6 +7169,11 @@
           <t>20251210</t>
         </is>
       </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>20251211</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -7032,6 +7216,9 @@
       <c r="L2" t="n">
         <v>96</v>
       </c>
+      <c r="M2" t="n">
+        <v>80</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -7074,6 +7261,9 @@
       <c r="L3" t="n">
         <v>25</v>
       </c>
+      <c r="M3" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -7116,6 +7306,9 @@
       <c r="L4" t="n">
         <v>55</v>
       </c>
+      <c r="M4" t="n">
+        <v>37</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -7158,6 +7351,9 @@
       <c r="L5" t="n">
         <v>16</v>
       </c>
+      <c r="M5" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -7200,6 +7396,9 @@
       <c r="L6" t="n">
         <v>39</v>
       </c>
+      <c r="M6" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -7242,6 +7441,9 @@
       <c r="L7" t="n">
         <v>34</v>
       </c>
+      <c r="M7" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -7284,6 +7486,9 @@
       <c r="L8" t="n">
         <v>31</v>
       </c>
+      <c r="M8" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -7326,6 +7531,9 @@
       <c r="L9" t="n">
         <v>25</v>
       </c>
+      <c r="M9" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -7368,6 +7576,9 @@
       <c r="L10" t="n">
         <v>14</v>
       </c>
+      <c r="M10" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -7410,6 +7621,9 @@
       <c r="L11" t="n">
         <v>31</v>
       </c>
+      <c r="M11" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -7452,6 +7666,9 @@
       <c r="L12" t="n">
         <v>51</v>
       </c>
+      <c r="M12" t="n">
+        <v>33</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -7494,6 +7711,9 @@
       <c r="L13" t="n">
         <v>57</v>
       </c>
+      <c r="M13" t="n">
+        <v>36</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -7536,6 +7756,9 @@
       <c r="L14" t="n">
         <v>36</v>
       </c>
+      <c r="M14" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -7578,6 +7801,9 @@
       <c r="L15" t="n">
         <v>48</v>
       </c>
+      <c r="M15" t="n">
+        <v>42</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -7620,6 +7846,9 @@
       <c r="L16" t="n">
         <v>18</v>
       </c>
+      <c r="M16" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -7662,6 +7891,9 @@
       <c r="L17" t="n">
         <v>19</v>
       </c>
+      <c r="M17" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -7704,6 +7936,9 @@
       <c r="L18" t="n">
         <v>25</v>
       </c>
+      <c r="M18" t="n">
+        <v>32</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -7745,6 +7980,9 @@
       </c>
       <c r="L19" t="n">
         <v>35</v>
+      </c>
+      <c r="M19" t="n">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -7758,7 +7996,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BS19"/>
+  <dimension ref="A1:BT19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7837,6 +8075,7 @@
     <col width="12" customWidth="1" min="69" max="69"/>
     <col width="12" customWidth="1" min="70" max="70"/>
     <col width="12" customWidth="1" min="71" max="71"/>
+    <col width="12" customWidth="1" min="72" max="72"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -8057,6 +8296,9 @@
       <c r="BS1" s="1" t="n">
         <v>20251210</v>
       </c>
+      <c r="BT1" s="1" t="n">
+        <v>20251211</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -8276,6 +8518,9 @@
       <c r="BS2" t="n">
         <v>15155</v>
       </c>
+      <c r="BT2" t="n">
+        <v>15765</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -8495,6 +8740,9 @@
       <c r="BS3" t="n">
         <v>57600</v>
       </c>
+      <c r="BT3" t="n">
+        <v>58315</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -8714,6 +8962,9 @@
       <c r="BS4" t="n">
         <v>17945</v>
       </c>
+      <c r="BT4" t="n">
+        <v>18570</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -8933,6 +9184,9 @@
       <c r="BS5" t="n">
         <v>16180</v>
       </c>
+      <c r="BT5" t="n">
+        <v>16315</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -9152,6 +9406,9 @@
       <c r="BS6" t="n">
         <v>17145</v>
       </c>
+      <c r="BT6" t="n">
+        <v>17410</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -9371,6 +9628,9 @@
       <c r="BS7" t="n">
         <v>19860</v>
       </c>
+      <c r="BT7" t="n">
+        <v>20010</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -9590,6 +9850,9 @@
       <c r="BS8" t="n">
         <v>18610</v>
       </c>
+      <c r="BT8" t="n">
+        <v>18820</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -9809,6 +10072,9 @@
       <c r="BS9" t="n">
         <v>1696</v>
       </c>
+      <c r="BT9" t="n">
+        <v>1654</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -10028,6 +10294,9 @@
       <c r="BS10" t="n">
         <v>17405</v>
       </c>
+      <c r="BT10" t="n">
+        <v>17495</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -10247,6 +10516,9 @@
       <c r="BS11" t="n">
         <v>5855</v>
       </c>
+      <c r="BT11" t="n">
+        <v>5755</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -10466,6 +10738,9 @@
       <c r="BS12" t="n">
         <v>6420</v>
       </c>
+      <c r="BT12" t="n">
+        <v>6250</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -10685,6 +10960,9 @@
       <c r="BS13" t="n">
         <v>6470</v>
       </c>
+      <c r="BT13" t="n">
+        <v>6370</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -10904,6 +11182,9 @@
       <c r="BS14" t="n">
         <v>1862</v>
       </c>
+      <c r="BT14" t="n">
+        <v>1843</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -11123,6 +11404,9 @@
       <c r="BS15" t="n">
         <v>19035</v>
       </c>
+      <c r="BT15" t="n">
+        <v>19835</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -11342,6 +11626,9 @@
       <c r="BS16" t="n">
         <v>11800</v>
       </c>
+      <c r="BT16" t="n">
+        <v>11670</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -11561,6 +11848,9 @@
       <c r="BS17" t="n">
         <v>7100</v>
       </c>
+      <c r="BT17" t="n">
+        <v>6905</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -11780,6 +12070,9 @@
       <c r="BS18" t="n">
         <v>18400</v>
       </c>
+      <c r="BT18" t="n">
+        <v>18680</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -11998,6 +12291,9 @@
       </c>
       <c r="BS19" t="n">
         <v>15900</v>
+      </c>
+      <c r="BT19" t="n">
+        <v>16590</v>
       </c>
     </row>
   </sheetData>
@@ -12011,7 +12307,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BS19"/>
+  <dimension ref="A1:BT19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12090,6 +12386,7 @@
     <col width="12" customWidth="1" min="69" max="69"/>
     <col width="12" customWidth="1" min="70" max="70"/>
     <col width="12" customWidth="1" min="71" max="71"/>
+    <col width="12" customWidth="1" min="72" max="72"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -12310,6 +12607,9 @@
       <c r="BS1" s="1" t="n">
         <v>20251210</v>
       </c>
+      <c r="BT1" s="1" t="n">
+        <v>20251211</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -12529,6 +12829,9 @@
       <c r="BS2" t="n">
         <v>15635</v>
       </c>
+      <c r="BT2" t="n">
+        <v>15880</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -12748,6 +13051,9 @@
       <c r="BS3" t="n">
         <v>58695</v>
       </c>
+      <c r="BT3" t="n">
+        <v>58710</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -12967,6 +13273,9 @@
       <c r="BS4" t="n">
         <v>18500</v>
       </c>
+      <c r="BT4" t="n">
+        <v>18582</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -13186,6 +13495,9 @@
       <c r="BS5" t="n">
         <v>16460</v>
       </c>
+      <c r="BT5" t="n">
+        <v>16495</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -13405,6 +13717,9 @@
       <c r="BS6" t="n">
         <v>17480</v>
       </c>
+      <c r="BT6" t="n">
+        <v>17560</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -13624,6 +13939,9 @@
       <c r="BS7" t="n">
         <v>20200</v>
       </c>
+      <c r="BT7" t="n">
+        <v>20240</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -13843,6 +14161,9 @@
       <c r="BS8" t="n">
         <v>18965</v>
       </c>
+      <c r="BT8" t="n">
+        <v>18995</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -14062,6 +14383,9 @@
       <c r="BS9" t="n">
         <v>1720</v>
       </c>
+      <c r="BT9" t="n">
+        <v>1654</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -14281,6 +14605,9 @@
       <c r="BS10" t="n">
         <v>17625</v>
       </c>
+      <c r="BT10" t="n">
+        <v>17755</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -14500,6 +14827,9 @@
       <c r="BS11" t="n">
         <v>5910</v>
       </c>
+      <c r="BT11" t="n">
+        <v>5760</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -14719,6 +15049,9 @@
       <c r="BS12" t="n">
         <v>6440</v>
       </c>
+      <c r="BT12" t="n">
+        <v>6250</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -14938,6 +15271,9 @@
       <c r="BS13" t="n">
         <v>6515</v>
       </c>
+      <c r="BT13" t="n">
+        <v>6370</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -15157,6 +15493,9 @@
       <c r="BS14" t="n">
         <v>1897</v>
       </c>
+      <c r="BT14" t="n">
+        <v>1843</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -15376,6 +15715,9 @@
       <c r="BS15" t="n">
         <v>19745</v>
       </c>
+      <c r="BT15" t="n">
+        <v>19995</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -15595,6 +15937,9 @@
       <c r="BS16" t="n">
         <v>11935</v>
       </c>
+      <c r="BT16" t="n">
+        <v>11670</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -15814,6 +16159,9 @@
       <c r="BS17" t="n">
         <v>7150</v>
       </c>
+      <c r="BT17" t="n">
+        <v>6905</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -16033,6 +16381,9 @@
       <c r="BS18" t="n">
         <v>18735</v>
       </c>
+      <c r="BT18" t="n">
+        <v>18955</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -16251,6 +16602,9 @@
       </c>
       <c r="BS19" t="n">
         <v>16485</v>
+      </c>
+      <c r="BT19" t="n">
+        <v>16685</v>
       </c>
     </row>
   </sheetData>
@@ -16264,7 +16618,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BS19"/>
+  <dimension ref="A1:BT19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16343,6 +16697,7 @@
     <col width="12" customWidth="1" min="69" max="69"/>
     <col width="12" customWidth="1" min="70" max="70"/>
     <col width="12" customWidth="1" min="71" max="71"/>
+    <col width="12" customWidth="1" min="72" max="72"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -16563,6 +16918,9 @@
       <c r="BS1" s="1" t="n">
         <v>20251210</v>
       </c>
+      <c r="BT1" s="1" t="n">
+        <v>20251211</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -16782,6 +17140,9 @@
       <c r="BS2" t="n">
         <v>15000</v>
       </c>
+      <c r="BT2" t="n">
+        <v>15500</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -17001,6 +17362,9 @@
       <c r="BS3" t="n">
         <v>57600</v>
       </c>
+      <c r="BT3" t="n">
+        <v>57225</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -17220,6 +17584,9 @@
       <c r="BS4" t="n">
         <v>17880</v>
       </c>
+      <c r="BT4" t="n">
+        <v>18190</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -17439,6 +17806,9 @@
       <c r="BS5" t="n">
         <v>16140</v>
       </c>
+      <c r="BT5" t="n">
+        <v>15930</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -17658,6 +18028,9 @@
       <c r="BS6" t="n">
         <v>17145</v>
       </c>
+      <c r="BT6" t="n">
+        <v>17085</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -17877,6 +18250,9 @@
       <c r="BS7" t="n">
         <v>19800</v>
       </c>
+      <c r="BT7" t="n">
+        <v>19700</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -18096,6 +18472,9 @@
       <c r="BS8" t="n">
         <v>18610</v>
       </c>
+      <c r="BT8" t="n">
+        <v>18475</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -18315,6 +18694,9 @@
       <c r="BS9" t="n">
         <v>1612</v>
       </c>
+      <c r="BT9" t="n">
+        <v>1556</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -18534,6 +18916,9 @@
       <c r="BS10" t="n">
         <v>17325</v>
       </c>
+      <c r="BT10" t="n">
+        <v>17200</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -18753,6 +19138,9 @@
       <c r="BS11" t="n">
         <v>5685</v>
       </c>
+      <c r="BT11" t="n">
+        <v>5585</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -18972,6 +19360,9 @@
       <c r="BS12" t="n">
         <v>6160</v>
       </c>
+      <c r="BT12" t="n">
+        <v>6050</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -19191,6 +19582,9 @@
       <c r="BS13" t="n">
         <v>6250</v>
       </c>
+      <c r="BT13" t="n">
+        <v>6130</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -19410,6 +19804,9 @@
       <c r="BS14" t="n">
         <v>1783</v>
       </c>
+      <c r="BT14" t="n">
+        <v>1728</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -19629,6 +20026,9 @@
       <c r="BS15" t="n">
         <v>18835</v>
       </c>
+      <c r="BT15" t="n">
+        <v>19555</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -19848,6 +20248,9 @@
       <c r="BS16" t="n">
         <v>11505</v>
       </c>
+      <c r="BT16" t="n">
+        <v>11285</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -20067,6 +20470,9 @@
       <c r="BS17" t="n">
         <v>6805</v>
       </c>
+      <c r="BT17" t="n">
+        <v>6680</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -20286,6 +20692,9 @@
       <c r="BS18" t="n">
         <v>18365</v>
       </c>
+      <c r="BT18" t="n">
+        <v>18305</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -20504,6 +20913,9 @@
       </c>
       <c r="BS19" t="n">
         <v>15845</v>
+      </c>
+      <c r="BT19" t="n">
+        <v>16390</v>
       </c>
     </row>
   </sheetData>
@@ -20517,7 +20929,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BS19"/>
+  <dimension ref="A1:BT19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20596,6 +21008,7 @@
     <col width="12" customWidth="1" min="69" max="69"/>
     <col width="12" customWidth="1" min="70" max="70"/>
     <col width="12" customWidth="1" min="71" max="71"/>
+    <col width="12" customWidth="1" min="72" max="72"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -20816,6 +21229,9 @@
       <c r="BS1" s="1" t="n">
         <v>20251210</v>
       </c>
+      <c r="BT1" s="1" t="n">
+        <v>20251211</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -21035,6 +21451,9 @@
       <c r="BS2" t="n">
         <v>15530</v>
       </c>
+      <c r="BT2" t="n">
+        <v>15570</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -21254,6 +21673,9 @@
       <c r="BS3" t="n">
         <v>58020</v>
       </c>
+      <c r="BT3" t="n">
+        <v>57435</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -21473,6 +21895,9 @@
       <c r="BS4" t="n">
         <v>18430</v>
       </c>
+      <c r="BT4" t="n">
+        <v>18315</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -21692,6 +22117,9 @@
       <c r="BS5" t="n">
         <v>16185</v>
       </c>
+      <c r="BT5" t="n">
+        <v>15975</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -21911,6 +22339,9 @@
       <c r="BS6" t="n">
         <v>17300</v>
       </c>
+      <c r="BT6" t="n">
+        <v>17120</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -22130,6 +22561,9 @@
       <c r="BS7" t="n">
         <v>19905</v>
       </c>
+      <c r="BT7" t="n">
+        <v>19700</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -22349,6 +22783,9 @@
       <c r="BS8" t="n">
         <v>18735</v>
       </c>
+      <c r="BT8" t="n">
+        <v>18565</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -22568,6 +23005,9 @@
       <c r="BS9" t="n">
         <v>1629</v>
       </c>
+      <c r="BT9" t="n">
+        <v>1576</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -22787,6 +23227,9 @@
       <c r="BS10" t="n">
         <v>17355</v>
       </c>
+      <c r="BT10" t="n">
+        <v>17210</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -23006,6 +23449,9 @@
       <c r="BS11" t="n">
         <v>5720</v>
       </c>
+      <c r="BT11" t="n">
+        <v>5610</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -23225,6 +23671,9 @@
       <c r="BS12" t="n">
         <v>6200</v>
       </c>
+      <c r="BT12" t="n">
+        <v>6090</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -23444,6 +23893,9 @@
       <c r="BS13" t="n">
         <v>6300</v>
       </c>
+      <c r="BT13" t="n">
+        <v>6175</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -23663,6 +24115,9 @@
       <c r="BS14" t="n">
         <v>1798</v>
       </c>
+      <c r="BT14" t="n">
+        <v>1756</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -23882,6 +24337,9 @@
       <c r="BS15" t="n">
         <v>19570</v>
       </c>
+      <c r="BT15" t="n">
+        <v>19635</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -24101,6 +24559,9 @@
       <c r="BS16" t="n">
         <v>11550</v>
       </c>
+      <c r="BT16" t="n">
+        <v>11330</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -24320,6 +24781,9 @@
       <c r="BS17" t="n">
         <v>6855</v>
       </c>
+      <c r="BT17" t="n">
+        <v>6710</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -24539,6 +25003,9 @@
       <c r="BS18" t="n">
         <v>18470</v>
       </c>
+      <c r="BT18" t="n">
+        <v>18360</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -24757,6 +25224,9 @@
       </c>
       <c r="BS19" t="n">
         <v>16430</v>
+      </c>
+      <c r="BT19" t="n">
+        <v>16440</v>
       </c>
     </row>
   </sheetData>
@@ -24770,7 +25240,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BS19"/>
+  <dimension ref="A1:BT19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24849,6 +25319,7 @@
     <col width="12" customWidth="1" min="69" max="69"/>
     <col width="12" customWidth="1" min="70" max="70"/>
     <col width="12" customWidth="1" min="71" max="71"/>
+    <col width="12" customWidth="1" min="72" max="72"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -25069,6 +25540,9 @@
       <c r="BS1" s="1" t="n">
         <v>20251210</v>
       </c>
+      <c r="BT1" s="1" t="n">
+        <v>20251211</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -25288,6 +25762,9 @@
       <c r="BS2" t="n">
         <v>209389</v>
       </c>
+      <c r="BT2" t="n">
+        <v>178407</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -25507,6 +25984,9 @@
       <c r="BS3" t="n">
         <v>1184252</v>
       </c>
+      <c r="BT3" t="n">
+        <v>1029069</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -25726,6 +26206,9 @@
       <c r="BS4" t="n">
         <v>169980</v>
       </c>
+      <c r="BT4" t="n">
+        <v>114011</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -25945,6 +26428,9 @@
       <c r="BS5" t="n">
         <v>265737</v>
       </c>
+      <c r="BT5" t="n">
+        <v>197748</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -26164,6 +26650,9 @@
       <c r="BS6" t="n">
         <v>1541472</v>
       </c>
+      <c r="BT6" t="n">
+        <v>1398543</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -26383,6 +26872,9 @@
       <c r="BS7" t="n">
         <v>2670215</v>
       </c>
+      <c r="BT7" t="n">
+        <v>2029521</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -26602,6 +27094,9 @@
       <c r="BS8" t="n">
         <v>4461068</v>
       </c>
+      <c r="BT8" t="n">
+        <v>4268992</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -26821,6 +27316,9 @@
       <c r="BS9" t="n">
         <v>3647698</v>
       </c>
+      <c r="BT9" t="n">
+        <v>3790031</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -27040,6 +27538,9 @@
       <c r="BS10" t="n">
         <v>407905</v>
       </c>
+      <c r="BT10" t="n">
+        <v>718608</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -27259,6 +27760,9 @@
       <c r="BS11" t="n">
         <v>783515</v>
       </c>
+      <c r="BT11" t="n">
+        <v>645681</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -27478,6 +27982,9 @@
       <c r="BS12" t="n">
         <v>2822679</v>
       </c>
+      <c r="BT12" t="n">
+        <v>1842530</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -27697,6 +28204,9 @@
       <c r="BS13" t="n">
         <v>7567101</v>
       </c>
+      <c r="BT13" t="n">
+        <v>4800813</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -27916,6 +28426,9 @@
       <c r="BS14" t="n">
         <v>36559194</v>
       </c>
+      <c r="BT14" t="n">
+        <v>23149528</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -28135,6 +28648,9 @@
       <c r="BS15" t="n">
         <v>1574234</v>
       </c>
+      <c r="BT15" t="n">
+        <v>1390633</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -28354,6 +28870,9 @@
       <c r="BS16" t="n">
         <v>217304</v>
       </c>
+      <c r="BT16" t="n">
+        <v>301204</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -28573,6 +29092,9 @@
       <c r="BS17" t="n">
         <v>91666</v>
       </c>
+      <c r="BT17" t="n">
+        <v>46584</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -28792,6 +29314,9 @@
       <c r="BS18" t="n">
         <v>89013</v>
       </c>
+      <c r="BT18" t="n">
+        <v>117658</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -29010,6 +29535,9 @@
       </c>
       <c r="BS19" t="n">
         <v>33851</v>
+      </c>
+      <c r="BT19" t="n">
+        <v>27455</v>
       </c>
     </row>
   </sheetData>
@@ -29023,7 +29551,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AZ19"/>
+  <dimension ref="A1:BA19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -29083,6 +29611,7 @@
     <col width="10" customWidth="1" min="50" max="50"/>
     <col width="10" customWidth="1" min="51" max="51"/>
     <col width="10" customWidth="1" min="52" max="52"/>
+    <col width="10" customWidth="1" min="53" max="53"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -29246,6 +29775,9 @@
       <c r="AZ1" s="1" t="n">
         <v>20251210</v>
       </c>
+      <c r="BA1" s="1" t="n">
+        <v>20251211</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -29408,6 +29940,9 @@
       <c r="AZ2" t="n">
         <v>34</v>
       </c>
+      <c r="BA2" t="n">
+        <v>37</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -29570,6 +30105,9 @@
       <c r="AZ3" t="n">
         <v>79</v>
       </c>
+      <c r="BA3" t="n">
+        <v>80</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -29732,6 +30270,9 @@
       <c r="AZ4" t="n">
         <v>33</v>
       </c>
+      <c r="BA4" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -29894,6 +30435,9 @@
       <c r="AZ5" t="n">
         <v>66</v>
       </c>
+      <c r="BA5" t="n">
+        <v>54</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -30056,6 +30600,9 @@
       <c r="AZ6" t="n">
         <v>100</v>
       </c>
+      <c r="BA6" t="n">
+        <v>90</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -30218,6 +30765,9 @@
       <c r="AZ7" t="n">
         <v>100</v>
       </c>
+      <c r="BA7" t="n">
+        <v>91</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -30380,6 +30930,9 @@
       <c r="AZ8" t="n">
         <v>79</v>
       </c>
+      <c r="BA8" t="n">
+        <v>84</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -30542,6 +31095,9 @@
       <c r="AZ9" t="n">
         <v>54</v>
       </c>
+      <c r="BA9" t="n">
+        <v>64</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -30704,6 +31260,9 @@
       <c r="AZ10" t="n">
         <v>81</v>
       </c>
+      <c r="BA10" t="n">
+        <v>73</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -30866,6 +31425,9 @@
       <c r="AZ11" t="n">
         <v>94</v>
       </c>
+      <c r="BA11" t="n">
+        <v>83</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -31028,6 +31590,9 @@
       <c r="AZ12" t="n">
         <v>92</v>
       </c>
+      <c r="BA12" t="n">
+        <v>83</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -31190,6 +31755,9 @@
       <c r="AZ13" t="n">
         <v>96</v>
       </c>
+      <c r="BA13" t="n">
+        <v>86</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -31352,6 +31920,9 @@
       <c r="AZ14" t="n">
         <v>67</v>
       </c>
+      <c r="BA14" t="n">
+        <v>85</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -31514,6 +32085,9 @@
       <c r="AZ15" t="n">
         <v>55</v>
       </c>
+      <c r="BA15" t="n">
+        <v>59</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -31676,6 +32250,9 @@
       <c r="AZ16" t="n">
         <v>94</v>
       </c>
+      <c r="BA16" t="n">
+        <v>82</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -31838,6 +32415,9 @@
       <c r="AZ17" t="n">
         <v>82</v>
       </c>
+      <c r="BA17" t="n">
+        <v>80</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -32000,6 +32580,9 @@
       <c r="AZ18" t="n">
         <v>87</v>
       </c>
+      <c r="BA18" t="n">
+        <v>81</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -32160,6 +32743,9 @@
         <v>55</v>
       </c>
       <c r="AZ19" t="n">
+        <v>80</v>
+      </c>
+      <c r="BA19" t="n">
         <v>80</v>
       </c>
     </row>
@@ -32174,7 +32760,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L19"/>
+  <dimension ref="A1:M19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -32194,6 +32780,7 @@
     <col width="10" customWidth="1" min="10" max="10"/>
     <col width="10" customWidth="1" min="11" max="11"/>
     <col width="10" customWidth="1" min="12" max="12"/>
+    <col width="10" customWidth="1" min="13" max="13"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -32237,6 +32824,9 @@
       <c r="L1" s="1" t="n">
         <v>20251210</v>
       </c>
+      <c r="M1" s="1" t="n">
+        <v>20251211</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -32279,6 +32869,9 @@
       <c r="L2" t="n">
         <v>74</v>
       </c>
+      <c r="M2" t="n">
+        <v>75</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -32321,6 +32914,9 @@
       <c r="L3" t="n">
         <v>85</v>
       </c>
+      <c r="M3" t="n">
+        <v>81</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -32363,6 +32959,9 @@
       <c r="L4" t="n">
         <v>77</v>
       </c>
+      <c r="M4" t="n">
+        <v>74</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -32405,6 +33004,9 @@
       <c r="L5" t="n">
         <v>79</v>
       </c>
+      <c r="M5" t="n">
+        <v>74</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -32447,6 +33049,9 @@
       <c r="L6" t="n">
         <v>93</v>
       </c>
+      <c r="M6" t="n">
+        <v>89</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -32489,6 +33094,9 @@
       <c r="L7" t="n">
         <v>95</v>
       </c>
+      <c r="M7" t="n">
+        <v>91</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -32531,6 +33139,9 @@
       <c r="L8" t="n">
         <v>89</v>
       </c>
+      <c r="M8" t="n">
+        <v>86</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -32573,6 +33184,9 @@
       <c r="L9" t="n">
         <v>63</v>
       </c>
+      <c r="M9" t="n">
+        <v>58</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -32615,6 +33229,9 @@
       <c r="L10" t="n">
         <v>84</v>
       </c>
+      <c r="M10" t="n">
+        <v>80</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -32657,6 +33274,9 @@
       <c r="L11" t="n">
         <v>97</v>
       </c>
+      <c r="M11" t="n">
+        <v>91</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -32699,6 +33319,9 @@
       <c r="L12" t="n">
         <v>96</v>
       </c>
+      <c r="M12" t="n">
+        <v>92</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -32741,6 +33364,9 @@
       <c r="L13" t="n">
         <v>98</v>
       </c>
+      <c r="M13" t="n">
+        <v>93</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -32783,6 +33409,9 @@
       <c r="L14" t="n">
         <v>73</v>
       </c>
+      <c r="M14" t="n">
+        <v>69</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -32825,6 +33454,9 @@
       <c r="L15" t="n">
         <v>86</v>
       </c>
+      <c r="M15" t="n">
+        <v>87</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -32867,6 +33499,9 @@
       <c r="L16" t="n">
         <v>89</v>
       </c>
+      <c r="M16" t="n">
+        <v>84</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -32909,6 +33544,9 @@
       <c r="L17" t="n">
         <v>86</v>
       </c>
+      <c r="M17" t="n">
+        <v>80</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -32951,6 +33589,9 @@
       <c r="L18" t="n">
         <v>95</v>
       </c>
+      <c r="M18" t="n">
+        <v>93</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -32992,6 +33633,9 @@
       </c>
       <c r="L19" t="n">
         <v>92</v>
+      </c>
+      <c r="M19" t="n">
+        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -33005,7 +33649,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AZ19"/>
+  <dimension ref="A1:BA19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -33065,6 +33709,7 @@
     <col width="10" customWidth="1" min="50" max="50"/>
     <col width="10" customWidth="1" min="51" max="51"/>
     <col width="10" customWidth="1" min="52" max="52"/>
+    <col width="10" customWidth="1" min="53" max="53"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -33228,6 +33873,9 @@
       <c r="AZ1" s="1" t="n">
         <v>20251210</v>
       </c>
+      <c r="BA1" s="1" t="n">
+        <v>20251211</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -33390,6 +34038,9 @@
       <c r="AZ2" t="n">
         <v>-49</v>
       </c>
+      <c r="BA2" t="n">
+        <v>-42</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -33552,6 +34203,9 @@
       <c r="AZ3" t="n">
         <v>47</v>
       </c>
+      <c r="BA3" t="n">
+        <v>37</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -33714,6 +34368,9 @@
       <c r="AZ4" t="n">
         <v>-25</v>
       </c>
+      <c r="BA4" t="n">
+        <v>-35</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -33876,6 +34533,9 @@
       <c r="AZ5" t="n">
         <v>24</v>
       </c>
+      <c r="BA5" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -34038,6 +34698,9 @@
       <c r="AZ6" t="n">
         <v>65</v>
       </c>
+      <c r="BA6" t="n">
+        <v>48</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -34200,6 +34863,9 @@
       <c r="AZ7" t="n">
         <v>71</v>
       </c>
+      <c r="BA7" t="n">
+        <v>55</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -34362,6 +35028,9 @@
       <c r="AZ8" t="n">
         <v>51</v>
       </c>
+      <c r="BA8" t="n">
+        <v>43</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -34524,6 +35193,9 @@
       <c r="AZ9" t="n">
         <v>34</v>
       </c>
+      <c r="BA9" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -34686,6 +35358,9 @@
       <c r="AZ10" t="n">
         <v>27</v>
       </c>
+      <c r="BA10" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -34848,6 +35523,9 @@
       <c r="AZ11" t="n">
         <v>79</v>
       </c>
+      <c r="BA11" t="n">
+        <v>60</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -35010,6 +35688,9 @@
       <c r="AZ12" t="n">
         <v>79</v>
       </c>
+      <c r="BA12" t="n">
+        <v>62</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -35172,6 +35853,9 @@
       <c r="AZ13" t="n">
         <v>88</v>
       </c>
+      <c r="BA13" t="n">
+        <v>68</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -35334,6 +36018,9 @@
       <c r="AZ14" t="n">
         <v>49</v>
       </c>
+      <c r="BA14" t="n">
+        <v>45</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -35496,6 +36183,9 @@
       <c r="AZ15" t="n">
         <v>17</v>
       </c>
+      <c r="BA15" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -35658,6 +36348,9 @@
       <c r="AZ16" t="n">
         <v>73</v>
       </c>
+      <c r="BA16" t="n">
+        <v>56</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -35820,6 +36513,9 @@
       <c r="AZ17" t="n">
         <v>63</v>
       </c>
+      <c r="BA17" t="n">
+        <v>48</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -35982,6 +36678,9 @@
       <c r="AZ18" t="n">
         <v>35</v>
       </c>
+      <c r="BA18" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -36143,6 +36842,9 @@
       </c>
       <c r="AZ19" t="n">
         <v>46</v>
+      </c>
+      <c r="BA19" t="n">
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/KR_Stocks_ETF.xlsx
+++ b/KR_Stocks_ETF.xlsx
@@ -714,7 +714,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M19"/>
+  <dimension ref="A1:N19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -735,6 +735,7 @@
     <col width="10" customWidth="1" min="11" max="11"/>
     <col width="10" customWidth="1" min="12" max="12"/>
     <col width="10" customWidth="1" min="13" max="13"/>
+    <col width="10" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -781,6 +782,9 @@
       <c r="M1" s="1" t="n">
         <v>20251211</v>
       </c>
+      <c r="N1" s="1" t="n">
+        <v>20251212</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -826,6 +830,9 @@
       <c r="M2" t="n">
         <v>46</v>
       </c>
+      <c r="N2" t="n">
+        <v>41</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -871,6 +878,9 @@
       <c r="M3" t="n">
         <v>36</v>
       </c>
+      <c r="N3" t="n">
+        <v>34</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -916,6 +926,9 @@
       <c r="M4" t="n">
         <v>43</v>
       </c>
+      <c r="N4" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -961,6 +974,9 @@
       <c r="M5" t="n">
         <v>18</v>
       </c>
+      <c r="N5" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1006,6 +1022,9 @@
       <c r="M6" t="n">
         <v>47</v>
       </c>
+      <c r="N6" t="n">
+        <v>42</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1051,6 +1070,9 @@
       <c r="M7" t="n">
         <v>51</v>
       </c>
+      <c r="N7" t="n">
+        <v>53</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1096,6 +1118,9 @@
       <c r="M8" t="n">
         <v>39</v>
       </c>
+      <c r="N8" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1141,6 +1166,9 @@
       <c r="M9" t="n">
         <v>23</v>
       </c>
+      <c r="N9" t="n">
+        <v>27</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1186,6 +1214,9 @@
       <c r="M10" t="n">
         <v>33</v>
       </c>
+      <c r="N10" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1231,6 +1262,9 @@
       <c r="M11" t="n">
         <v>54</v>
       </c>
+      <c r="N11" t="n">
+        <v>55</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1276,6 +1310,9 @@
       <c r="M12" t="n">
         <v>55</v>
       </c>
+      <c r="N12" t="n">
+        <v>56</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1321,6 +1358,9 @@
       <c r="M13" t="n">
         <v>63</v>
       </c>
+      <c r="N13" t="n">
+        <v>62</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1366,6 +1406,9 @@
       <c r="M14" t="n">
         <v>36</v>
       </c>
+      <c r="N14" t="n">
+        <v>36</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1411,6 +1454,9 @@
       <c r="M15" t="n">
         <v>69</v>
       </c>
+      <c r="N15" t="n">
+        <v>58</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1456,6 +1502,9 @@
       <c r="M16" t="n">
         <v>46</v>
       </c>
+      <c r="N16" t="n">
+        <v>48</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1501,6 +1550,9 @@
       <c r="M17" t="n">
         <v>42</v>
       </c>
+      <c r="N17" t="n">
+        <v>44</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1546,6 +1598,9 @@
       <c r="M18" t="n">
         <v>54</v>
       </c>
+      <c r="N18" t="n">
+        <v>38</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1590,6 +1645,9 @@
       </c>
       <c r="M19" t="n">
         <v>77</v>
+      </c>
+      <c r="N19" t="n">
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -1603,7 +1661,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BA19"/>
+  <dimension ref="A1:BB19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1664,6 +1722,7 @@
     <col width="12" customWidth="1" min="51" max="51"/>
     <col width="12" customWidth="1" min="52" max="52"/>
     <col width="12" customWidth="1" min="53" max="53"/>
+    <col width="12" customWidth="1" min="54" max="54"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1932,6 +1991,11 @@
           <t>20251211</t>
         </is>
       </c>
+      <c r="BB1" s="1" t="inlineStr">
+        <is>
+          <t>20251212</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -2097,6 +2161,9 @@
       <c r="BA2" t="n">
         <v>98</v>
       </c>
+      <c r="BB2" t="n">
+        <v>97</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -2262,6 +2329,9 @@
       <c r="BA3" t="n">
         <v>102</v>
       </c>
+      <c r="BB3" t="n">
+        <v>102</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -2427,6 +2497,9 @@
       <c r="BA4" t="n">
         <v>98</v>
       </c>
+      <c r="BB4" t="n">
+        <v>96</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -2592,6 +2665,9 @@
       <c r="BA5" t="n">
         <v>100</v>
       </c>
+      <c r="BB5" t="n">
+        <v>100</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -2757,6 +2833,9 @@
       <c r="BA6" t="n">
         <v>103</v>
       </c>
+      <c r="BB6" t="n">
+        <v>102</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -2922,6 +3001,9 @@
       <c r="BA7" t="n">
         <v>104</v>
       </c>
+      <c r="BB7" t="n">
+        <v>104</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -3087,6 +3169,9 @@
       <c r="BA8" t="n">
         <v>103</v>
       </c>
+      <c r="BB8" t="n">
+        <v>103</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -3252,6 +3337,9 @@
       <c r="BA9" t="n">
         <v>102</v>
       </c>
+      <c r="BB9" t="n">
+        <v>105</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -3417,6 +3505,9 @@
       <c r="BA10" t="n">
         <v>101</v>
       </c>
+      <c r="BB10" t="n">
+        <v>99</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -3582,6 +3673,9 @@
       <c r="BA11" t="n">
         <v>106</v>
       </c>
+      <c r="BB11" t="n">
+        <v>107</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -3747,6 +3841,9 @@
       <c r="BA12" t="n">
         <v>107</v>
       </c>
+      <c r="BB12" t="n">
+        <v>108</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3912,6 +4009,9 @@
       <c r="BA13" t="n">
         <v>110</v>
       </c>
+      <c r="BB13" t="n">
+        <v>110</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -4077,6 +4177,9 @@
       <c r="BA14" t="n">
         <v>106</v>
       </c>
+      <c r="BB14" t="n">
+        <v>107</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -4242,6 +4345,9 @@
       <c r="BA15" t="n">
         <v>101</v>
       </c>
+      <c r="BB15" t="n">
+        <v>99</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -4407,6 +4513,9 @@
       <c r="BA16" t="n">
         <v>105</v>
       </c>
+      <c r="BB16" t="n">
+        <v>106</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -4572,6 +4681,9 @@
       <c r="BA17" t="n">
         <v>105</v>
       </c>
+      <c r="BB17" t="n">
+        <v>106</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -4737,6 +4849,9 @@
       <c r="BA18" t="n">
         <v>102</v>
       </c>
+      <c r="BB18" t="n">
+        <v>98</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -4901,6 +5016,9 @@
       </c>
       <c r="BA19" t="n">
         <v>102</v>
+      </c>
+      <c r="BB19" t="n">
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -4914,7 +5032,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH19"/>
+  <dimension ref="A1:AI19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4956,6 +5074,7 @@
     <col width="12" customWidth="1" min="32" max="32"/>
     <col width="12" customWidth="1" min="33" max="33"/>
     <col width="12" customWidth="1" min="34" max="34"/>
+    <col width="12" customWidth="1" min="35" max="35"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -5129,6 +5248,11 @@
           <t>20251211</t>
         </is>
       </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>20251212</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -5237,6 +5361,9 @@
       <c r="AH2" t="n">
         <v>-43.49</v>
       </c>
+      <c r="AI2" t="n">
+        <v>-40.21</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -5345,6 +5472,9 @@
       <c r="AH3" t="n">
         <v>-17.88</v>
       </c>
+      <c r="AI3" t="n">
+        <v>-16.48</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -5453,6 +5583,9 @@
       <c r="AH4" t="n">
         <v>-40.58</v>
       </c>
+      <c r="AI4" t="n">
+        <v>-34.52</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -5561,6 +5694,9 @@
       <c r="AH5" t="n">
         <v>-23.13</v>
       </c>
+      <c r="AI5" t="n">
+        <v>-22.99</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -5669,6 +5805,9 @@
       <c r="AH6" t="n">
         <v>-8.470000000000001</v>
       </c>
+      <c r="AI6" t="n">
+        <v>-7.11</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -5777,6 +5916,9 @@
       <c r="AH7" t="n">
         <v>3.3</v>
       </c>
+      <c r="AI7" t="n">
+        <v>5.44</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -5885,6 +6027,9 @@
       <c r="AH8" t="n">
         <v>-15.14</v>
       </c>
+      <c r="AI8" t="n">
+        <v>-12.85</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -5993,6 +6138,9 @@
       <c r="AH9" t="n">
         <v>-28.81</v>
       </c>
+      <c r="AI9" t="n">
+        <v>-31.82</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -6101,6 +6249,9 @@
       <c r="AH10" t="n">
         <v>-6.46</v>
       </c>
+      <c r="AI10" t="n">
+        <v>-7.66</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -6209,6 +6360,9 @@
       <c r="AH11" t="n">
         <v>26.52</v>
       </c>
+      <c r="AI11" t="n">
+        <v>29.61</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -6317,6 +6471,9 @@
       <c r="AH12" t="n">
         <v>26.85</v>
       </c>
+      <c r="AI12" t="n">
+        <v>30.31</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -6425,6 +6582,9 @@
       <c r="AH13" t="n">
         <v>42.4</v>
       </c>
+      <c r="AI13" t="n">
+        <v>45.15</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -6533,6 +6693,9 @@
       <c r="AH14" t="n">
         <v>-19.44</v>
       </c>
+      <c r="AI14" t="n">
+        <v>-19.86</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -6641,6 +6804,9 @@
       <c r="AH15" t="n">
         <v>-52.74</v>
       </c>
+      <c r="AI15" t="n">
+        <v>-52.09</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -6749,6 +6915,9 @@
       <c r="AH16" t="n">
         <v>2.25</v>
       </c>
+      <c r="AI16" t="n">
+        <v>5.77</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -6857,6 +7026,9 @@
       <c r="AH17" t="n">
         <v>-0.53</v>
       </c>
+      <c r="AI17" t="n">
+        <v>0.71</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -6965,6 +7137,9 @@
       <c r="AH18" t="n">
         <v>0</v>
       </c>
+      <c r="AI18" t="n">
+        <v>-9.880000000000001</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -7072,6 +7247,9 @@
       </c>
       <c r="AH19" t="n">
         <v>-49.87</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>-48.54</v>
       </c>
     </row>
   </sheetData>
@@ -7085,7 +7263,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M19"/>
+  <dimension ref="A1:N19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7106,6 +7284,7 @@
     <col width="12" customWidth="1" min="11" max="11"/>
     <col width="12" customWidth="1" min="12" max="12"/>
     <col width="12" customWidth="1" min="13" max="13"/>
+    <col width="12" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -7174,6 +7353,11 @@
           <t>20251211</t>
         </is>
       </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>20251212</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -7219,6 +7403,9 @@
       <c r="M2" t="n">
         <v>80</v>
       </c>
+      <c r="N2" t="n">
+        <v>53</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -7264,6 +7451,9 @@
       <c r="M3" t="n">
         <v>22</v>
       </c>
+      <c r="N3" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -7309,6 +7499,9 @@
       <c r="M4" t="n">
         <v>37</v>
       </c>
+      <c r="N4" t="n">
+        <v>68</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -7354,6 +7547,9 @@
       <c r="M5" t="n">
         <v>12</v>
       </c>
+      <c r="N5" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -7399,6 +7595,9 @@
       <c r="M6" t="n">
         <v>35</v>
       </c>
+      <c r="N6" t="n">
+        <v>43</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -7444,6 +7643,9 @@
       <c r="M7" t="n">
         <v>26</v>
       </c>
+      <c r="N7" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -7489,6 +7691,9 @@
       <c r="M8" t="n">
         <v>30</v>
       </c>
+      <c r="N8" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -7534,6 +7739,9 @@
       <c r="M9" t="n">
         <v>26</v>
       </c>
+      <c r="N9" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -7579,6 +7787,9 @@
       <c r="M10" t="n">
         <v>24</v>
       </c>
+      <c r="N10" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -7624,6 +7835,9 @@
       <c r="M11" t="n">
         <v>25</v>
       </c>
+      <c r="N11" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -7669,6 +7883,9 @@
       <c r="M12" t="n">
         <v>33</v>
       </c>
+      <c r="N12" t="n">
+        <v>33</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -7714,6 +7931,9 @@
       <c r="M13" t="n">
         <v>36</v>
       </c>
+      <c r="N13" t="n">
+        <v>38</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -7759,6 +7979,9 @@
       <c r="M14" t="n">
         <v>23</v>
       </c>
+      <c r="N14" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -7804,6 +8027,9 @@
       <c r="M15" t="n">
         <v>42</v>
       </c>
+      <c r="N15" t="n">
+        <v>42</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -7849,6 +8075,9 @@
       <c r="M16" t="n">
         <v>25</v>
       </c>
+      <c r="N16" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -7894,6 +8123,9 @@
       <c r="M17" t="n">
         <v>10</v>
       </c>
+      <c r="N17" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -7939,6 +8171,9 @@
       <c r="M18" t="n">
         <v>32</v>
       </c>
+      <c r="N18" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -7983,6 +8218,9 @@
       </c>
       <c r="M19" t="n">
         <v>28</v>
+      </c>
+      <c r="N19" t="n">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -7996,7 +8234,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BT19"/>
+  <dimension ref="A1:BU19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8076,6 +8314,7 @@
     <col width="12" customWidth="1" min="70" max="70"/>
     <col width="12" customWidth="1" min="71" max="71"/>
     <col width="12" customWidth="1" min="72" max="72"/>
+    <col width="12" customWidth="1" min="73" max="73"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -8299,6 +8538,9 @@
       <c r="BT1" s="1" t="n">
         <v>20251211</v>
       </c>
+      <c r="BU1" s="1" t="n">
+        <v>20251212</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -8521,6 +8763,9 @@
       <c r="BT2" t="n">
         <v>15765</v>
       </c>
+      <c r="BU2" t="n">
+        <v>15510</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -8743,6 +8988,9 @@
       <c r="BT3" t="n">
         <v>58315</v>
       </c>
+      <c r="BU3" t="n">
+        <v>57435</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -8965,6 +9213,9 @@
       <c r="BT4" t="n">
         <v>18570</v>
       </c>
+      <c r="BU4" t="n">
+        <v>18170</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -9187,6 +9438,9 @@
       <c r="BT5" t="n">
         <v>16315</v>
       </c>
+      <c r="BU5" t="n">
+        <v>15960</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -9409,6 +9663,9 @@
       <c r="BT6" t="n">
         <v>17410</v>
       </c>
+      <c r="BU6" t="n">
+        <v>17125</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -9631,6 +9888,9 @@
       <c r="BT7" t="n">
         <v>20010</v>
       </c>
+      <c r="BU7" t="n">
+        <v>19730</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -9853,6 +10113,9 @@
       <c r="BT8" t="n">
         <v>18820</v>
       </c>
+      <c r="BU8" t="n">
+        <v>18520</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -10075,6 +10338,9 @@
       <c r="BT9" t="n">
         <v>1654</v>
       </c>
+      <c r="BU9" t="n">
+        <v>1581</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -10297,6 +10563,9 @@
       <c r="BT10" t="n">
         <v>17495</v>
       </c>
+      <c r="BU10" t="n">
+        <v>17215</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -10519,6 +10788,9 @@
       <c r="BT11" t="n">
         <v>5755</v>
       </c>
+      <c r="BU11" t="n">
+        <v>5620</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -10741,6 +11013,9 @@
       <c r="BT12" t="n">
         <v>6250</v>
       </c>
+      <c r="BU12" t="n">
+        <v>6120</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -10963,6 +11238,9 @@
       <c r="BT13" t="n">
         <v>6370</v>
       </c>
+      <c r="BU13" t="n">
+        <v>6200</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -11185,6 +11463,9 @@
       <c r="BT14" t="n">
         <v>1843</v>
       </c>
+      <c r="BU14" t="n">
+        <v>1761</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -11407,6 +11688,9 @@
       <c r="BT15" t="n">
         <v>19835</v>
       </c>
+      <c r="BU15" t="n">
+        <v>19505</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -11629,6 +11913,9 @@
       <c r="BT16" t="n">
         <v>11670</v>
       </c>
+      <c r="BU16" t="n">
+        <v>11355</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -11851,6 +12138,9 @@
       <c r="BT17" t="n">
         <v>6905</v>
       </c>
+      <c r="BU17" t="n">
+        <v>6740</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -12073,6 +12363,9 @@
       <c r="BT18" t="n">
         <v>18680</v>
       </c>
+      <c r="BU18" t="n">
+        <v>18295</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -12294,6 +12587,9 @@
       </c>
       <c r="BT19" t="n">
         <v>16590</v>
+      </c>
+      <c r="BU19" t="n">
+        <v>16285</v>
       </c>
     </row>
   </sheetData>
@@ -12307,7 +12603,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BT19"/>
+  <dimension ref="A1:BU19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12387,6 +12683,7 @@
     <col width="12" customWidth="1" min="70" max="70"/>
     <col width="12" customWidth="1" min="71" max="71"/>
     <col width="12" customWidth="1" min="72" max="72"/>
+    <col width="12" customWidth="1" min="73" max="73"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -12610,6 +12907,9 @@
       <c r="BT1" s="1" t="n">
         <v>20251211</v>
       </c>
+      <c r="BU1" s="1" t="n">
+        <v>20251212</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -12832,6 +13132,9 @@
       <c r="BT2" t="n">
         <v>15880</v>
       </c>
+      <c r="BU2" t="n">
+        <v>15930</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -13054,6 +13357,9 @@
       <c r="BT3" t="n">
         <v>58710</v>
       </c>
+      <c r="BU3" t="n">
+        <v>57640</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -13276,6 +13582,9 @@
       <c r="BT4" t="n">
         <v>18582</v>
       </c>
+      <c r="BU4" t="n">
+        <v>18315</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -13498,6 +13807,9 @@
       <c r="BT5" t="n">
         <v>16495</v>
       </c>
+      <c r="BU5" t="n">
+        <v>15960</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -13720,6 +14032,9 @@
       <c r="BT6" t="n">
         <v>17560</v>
       </c>
+      <c r="BU6" t="n">
+        <v>17125</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -13942,6 +14257,9 @@
       <c r="BT7" t="n">
         <v>20240</v>
       </c>
+      <c r="BU7" t="n">
+        <v>19855</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -14164,6 +14482,9 @@
       <c r="BT8" t="n">
         <v>18995</v>
       </c>
+      <c r="BU8" t="n">
+        <v>18655</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -14386,6 +14707,9 @@
       <c r="BT9" t="n">
         <v>1654</v>
       </c>
+      <c r="BU9" t="n">
+        <v>1615</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -14608,6 +14932,9 @@
       <c r="BT10" t="n">
         <v>17755</v>
       </c>
+      <c r="BU10" t="n">
+        <v>17285</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -14830,6 +15157,9 @@
       <c r="BT11" t="n">
         <v>5760</v>
       </c>
+      <c r="BU11" t="n">
+        <v>5680</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -15052,6 +15382,9 @@
       <c r="BT12" t="n">
         <v>6250</v>
       </c>
+      <c r="BU12" t="n">
+        <v>6180</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -15274,6 +15607,9 @@
       <c r="BT13" t="n">
         <v>6370</v>
       </c>
+      <c r="BU13" t="n">
+        <v>6250</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -15496,6 +15832,9 @@
       <c r="BT14" t="n">
         <v>1843</v>
       </c>
+      <c r="BU14" t="n">
+        <v>1774</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -15718,6 +16057,9 @@
       <c r="BT15" t="n">
         <v>19995</v>
       </c>
+      <c r="BU15" t="n">
+        <v>19835</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -15940,6 +16282,9 @@
       <c r="BT16" t="n">
         <v>11670</v>
       </c>
+      <c r="BU16" t="n">
+        <v>11465</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -16162,6 +16507,9 @@
       <c r="BT17" t="n">
         <v>6905</v>
       </c>
+      <c r="BU17" t="n">
+        <v>6795</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -16384,6 +16732,9 @@
       <c r="BT18" t="n">
         <v>18955</v>
       </c>
+      <c r="BU18" t="n">
+        <v>18295</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -16605,6 +16956,9 @@
       </c>
       <c r="BT19" t="n">
         <v>16685</v>
+      </c>
+      <c r="BU19" t="n">
+        <v>16440</v>
       </c>
     </row>
   </sheetData>
@@ -16618,7 +16972,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BT19"/>
+  <dimension ref="A1:BU19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16698,6 +17052,7 @@
     <col width="12" customWidth="1" min="70" max="70"/>
     <col width="12" customWidth="1" min="71" max="71"/>
     <col width="12" customWidth="1" min="72" max="72"/>
+    <col width="12" customWidth="1" min="73" max="73"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -16921,6 +17276,9 @@
       <c r="BT1" s="1" t="n">
         <v>20251211</v>
       </c>
+      <c r="BU1" s="1" t="n">
+        <v>20251212</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -17143,6 +17501,9 @@
       <c r="BT2" t="n">
         <v>15500</v>
       </c>
+      <c r="BU2" t="n">
+        <v>15405</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -17365,6 +17726,9 @@
       <c r="BT3" t="n">
         <v>57225</v>
       </c>
+      <c r="BU3" t="n">
+        <v>57000</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -17587,6 +17951,9 @@
       <c r="BT4" t="n">
         <v>18190</v>
       </c>
+      <c r="BU4" t="n">
+        <v>17785</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -17809,6 +18176,9 @@
       <c r="BT5" t="n">
         <v>15930</v>
       </c>
+      <c r="BU5" t="n">
+        <v>15690</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -18031,6 +18401,9 @@
       <c r="BT6" t="n">
         <v>17085</v>
       </c>
+      <c r="BU6" t="n">
+        <v>16855</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -18253,6 +18626,9 @@
       <c r="BT7" t="n">
         <v>19700</v>
       </c>
+      <c r="BU7" t="n">
+        <v>19555</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -18475,6 +18851,9 @@
       <c r="BT8" t="n">
         <v>18475</v>
       </c>
+      <c r="BU8" t="n">
+        <v>18415</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -18697,6 +19076,9 @@
       <c r="BT9" t="n">
         <v>1556</v>
       </c>
+      <c r="BU9" t="n">
+        <v>1563</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -18919,6 +19301,9 @@
       <c r="BT10" t="n">
         <v>17200</v>
       </c>
+      <c r="BU10" t="n">
+        <v>16747</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -19141,6 +19526,9 @@
       <c r="BT11" t="n">
         <v>5585</v>
       </c>
+      <c r="BU11" t="n">
+        <v>5570</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -19363,6 +19751,9 @@
       <c r="BT12" t="n">
         <v>6050</v>
       </c>
+      <c r="BU12" t="n">
+        <v>6035</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -19585,6 +19976,9 @@
       <c r="BT13" t="n">
         <v>6130</v>
       </c>
+      <c r="BU13" t="n">
+        <v>6090</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -19807,6 +20201,9 @@
       <c r="BT14" t="n">
         <v>1728</v>
       </c>
+      <c r="BU14" t="n">
+        <v>1732</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -20029,6 +20426,9 @@
       <c r="BT15" t="n">
         <v>19555</v>
       </c>
+      <c r="BU15" t="n">
+        <v>19140</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -20251,6 +20651,9 @@
       <c r="BT16" t="n">
         <v>11285</v>
       </c>
+      <c r="BU16" t="n">
+        <v>11280</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -20473,6 +20876,9 @@
       <c r="BT17" t="n">
         <v>6680</v>
       </c>
+      <c r="BU17" t="n">
+        <v>6660</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -20695,6 +21101,9 @@
       <c r="BT18" t="n">
         <v>18305</v>
       </c>
+      <c r="BU18" t="n">
+        <v>17765</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -20916,6 +21325,9 @@
       </c>
       <c r="BT19" t="n">
         <v>16390</v>
+      </c>
+      <c r="BU19" t="n">
+        <v>15935</v>
       </c>
     </row>
   </sheetData>
@@ -20929,7 +21341,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BT19"/>
+  <dimension ref="A1:BU19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21009,6 +21421,7 @@
     <col width="12" customWidth="1" min="70" max="70"/>
     <col width="12" customWidth="1" min="71" max="71"/>
     <col width="12" customWidth="1" min="72" max="72"/>
+    <col width="12" customWidth="1" min="73" max="73"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -21232,6 +21645,9 @@
       <c r="BT1" s="1" t="n">
         <v>20251211</v>
       </c>
+      <c r="BU1" s="1" t="n">
+        <v>20251212</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -21454,6 +21870,9 @@
       <c r="BT2" t="n">
         <v>15570</v>
       </c>
+      <c r="BU2" t="n">
+        <v>15470</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -21676,6 +22095,9 @@
       <c r="BT3" t="n">
         <v>57435</v>
       </c>
+      <c r="BU3" t="n">
+        <v>57375</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -21898,6 +22320,9 @@
       <c r="BT4" t="n">
         <v>18315</v>
       </c>
+      <c r="BU4" t="n">
+        <v>17810</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -22120,6 +22545,9 @@
       <c r="BT5" t="n">
         <v>15975</v>
       </c>
+      <c r="BU5" t="n">
+        <v>15905</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -22342,6 +22770,9 @@
       <c r="BT6" t="n">
         <v>17120</v>
       </c>
+      <c r="BU6" t="n">
+        <v>16985</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -22564,6 +22995,9 @@
       <c r="BT7" t="n">
         <v>19700</v>
       </c>
+      <c r="BU7" t="n">
+        <v>19795</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -22786,6 +23220,9 @@
       <c r="BT8" t="n">
         <v>18565</v>
       </c>
+      <c r="BU8" t="n">
+        <v>18625</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -23008,6 +23445,9 @@
       <c r="BT9" t="n">
         <v>1576</v>
       </c>
+      <c r="BU9" t="n">
+        <v>1608</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -23230,6 +23670,9 @@
       <c r="BT10" t="n">
         <v>17210</v>
       </c>
+      <c r="BU10" t="n">
+        <v>16885</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -23452,6 +23895,9 @@
       <c r="BT11" t="n">
         <v>5610</v>
       </c>
+      <c r="BU11" t="n">
+        <v>5645</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -23674,6 +24120,9 @@
       <c r="BT12" t="n">
         <v>6090</v>
       </c>
+      <c r="BU12" t="n">
+        <v>6135</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -23896,6 +24345,9 @@
       <c r="BT13" t="n">
         <v>6175</v>
       </c>
+      <c r="BU13" t="n">
+        <v>6200</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -24118,6 +24570,9 @@
       <c r="BT14" t="n">
         <v>1756</v>
       </c>
+      <c r="BU14" t="n">
+        <v>1767</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -24340,6 +24795,9 @@
       <c r="BT15" t="n">
         <v>19635</v>
       </c>
+      <c r="BU15" t="n">
+        <v>19265</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -24562,6 +25020,9 @@
       <c r="BT16" t="n">
         <v>11330</v>
       </c>
+      <c r="BU16" t="n">
+        <v>11430</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -24784,6 +25245,9 @@
       <c r="BT17" t="n">
         <v>6710</v>
       </c>
+      <c r="BU17" t="n">
+        <v>6770</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -25006,6 +25470,9 @@
       <c r="BT18" t="n">
         <v>18360</v>
       </c>
+      <c r="BU18" t="n">
+        <v>17845</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -25227,6 +25694,9 @@
       </c>
       <c r="BT19" t="n">
         <v>16440</v>
+      </c>
+      <c r="BU19" t="n">
+        <v>15965</v>
       </c>
     </row>
   </sheetData>
@@ -25240,7 +25710,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BT19"/>
+  <dimension ref="A1:BU19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25320,6 +25790,7 @@
     <col width="12" customWidth="1" min="70" max="70"/>
     <col width="12" customWidth="1" min="71" max="71"/>
     <col width="12" customWidth="1" min="72" max="72"/>
+    <col width="12" customWidth="1" min="73" max="73"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -25543,6 +26014,9 @@
       <c r="BT1" s="1" t="n">
         <v>20251211</v>
       </c>
+      <c r="BU1" s="1" t="n">
+        <v>20251212</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -25765,6 +26239,9 @@
       <c r="BT2" t="n">
         <v>178407</v>
       </c>
+      <c r="BU2" t="n">
+        <v>118334</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -25987,6 +26464,9 @@
       <c r="BT3" t="n">
         <v>1029069</v>
       </c>
+      <c r="BU3" t="n">
+        <v>890897</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -26209,6 +26689,9 @@
       <c r="BT4" t="n">
         <v>114011</v>
       </c>
+      <c r="BU4" t="n">
+        <v>214682</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -26431,6 +26914,9 @@
       <c r="BT5" t="n">
         <v>197748</v>
       </c>
+      <c r="BU5" t="n">
+        <v>167695</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -26653,6 +27139,9 @@
       <c r="BT6" t="n">
         <v>1398543</v>
       </c>
+      <c r="BU6" t="n">
+        <v>1743091</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -26875,6 +27364,9 @@
       <c r="BT7" t="n">
         <v>2029521</v>
       </c>
+      <c r="BU7" t="n">
+        <v>1190061</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -27097,6 +27589,9 @@
       <c r="BT8" t="n">
         <v>4268992</v>
       </c>
+      <c r="BU8" t="n">
+        <v>2682396</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -27319,6 +27814,9 @@
       <c r="BT9" t="n">
         <v>3790031</v>
       </c>
+      <c r="BU9" t="n">
+        <v>3121846</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -27541,6 +28039,9 @@
       <c r="BT10" t="n">
         <v>718608</v>
       </c>
+      <c r="BU10" t="n">
+        <v>858919</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -27763,6 +28264,9 @@
       <c r="BT11" t="n">
         <v>645681</v>
       </c>
+      <c r="BU11" t="n">
+        <v>374862</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -27985,6 +28489,9 @@
       <c r="BT12" t="n">
         <v>1842530</v>
       </c>
+      <c r="BU12" t="n">
+        <v>1853968</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -28207,6 +28714,9 @@
       <c r="BT13" t="n">
         <v>4800813</v>
       </c>
+      <c r="BU13" t="n">
+        <v>5108733</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -28429,6 +28939,9 @@
       <c r="BT14" t="n">
         <v>23149528</v>
       </c>
+      <c r="BU14" t="n">
+        <v>26813627</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -28651,6 +29164,9 @@
       <c r="BT15" t="n">
         <v>1390633</v>
       </c>
+      <c r="BU15" t="n">
+        <v>1379949</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -28873,6 +29389,9 @@
       <c r="BT16" t="n">
         <v>301204</v>
       </c>
+      <c r="BU16" t="n">
+        <v>304760</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -29095,6 +29614,9 @@
       <c r="BT17" t="n">
         <v>46584</v>
       </c>
+      <c r="BU17" t="n">
+        <v>33097</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -29317,6 +29839,9 @@
       <c r="BT18" t="n">
         <v>117658</v>
       </c>
+      <c r="BU18" t="n">
+        <v>90188</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -29538,6 +30063,9 @@
       </c>
       <c r="BT19" t="n">
         <v>27455</v>
+      </c>
+      <c r="BU19" t="n">
+        <v>45934</v>
       </c>
     </row>
   </sheetData>
@@ -29551,7 +30079,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BA19"/>
+  <dimension ref="A1:BB19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -29612,6 +30140,7 @@
     <col width="10" customWidth="1" min="51" max="51"/>
     <col width="10" customWidth="1" min="52" max="52"/>
     <col width="10" customWidth="1" min="53" max="53"/>
+    <col width="10" customWidth="1" min="54" max="54"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -29778,6 +30307,9 @@
       <c r="BA1" s="1" t="n">
         <v>20251211</v>
       </c>
+      <c r="BB1" s="1" t="n">
+        <v>20251212</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -29943,6 +30475,9 @@
       <c r="BA2" t="n">
         <v>37</v>
       </c>
+      <c r="BB2" t="n">
+        <v>31</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -30108,6 +30643,9 @@
       <c r="BA3" t="n">
         <v>80</v>
       </c>
+      <c r="BB3" t="n">
+        <v>79</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -30273,6 +30811,9 @@
       <c r="BA4" t="n">
         <v>25</v>
       </c>
+      <c r="BB4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -30438,6 +30979,9 @@
       <c r="BA5" t="n">
         <v>54</v>
       </c>
+      <c r="BB5" t="n">
+        <v>50</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -30603,6 +31147,9 @@
       <c r="BA6" t="n">
         <v>90</v>
       </c>
+      <c r="BB6" t="n">
+        <v>83</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -30768,6 +31315,9 @@
       <c r="BA7" t="n">
         <v>91</v>
       </c>
+      <c r="BB7" t="n">
+        <v>95</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -30933,6 +31483,9 @@
       <c r="BA8" t="n">
         <v>84</v>
       </c>
+      <c r="BB8" t="n">
+        <v>87</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -31098,6 +31651,9 @@
       <c r="BA9" t="n">
         <v>64</v>
       </c>
+      <c r="BB9" t="n">
+        <v>75</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -31263,6 +31819,9 @@
       <c r="BA10" t="n">
         <v>73</v>
       </c>
+      <c r="BB10" t="n">
+        <v>54</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -31428,6 +31987,9 @@
       <c r="BA11" t="n">
         <v>83</v>
       </c>
+      <c r="BB11" t="n">
+        <v>86</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -31593,6 +32155,9 @@
       <c r="BA12" t="n">
         <v>83</v>
       </c>
+      <c r="BB12" t="n">
+        <v>87</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -31758,6 +32323,9 @@
       <c r="BA13" t="n">
         <v>86</v>
       </c>
+      <c r="BB13" t="n">
+        <v>88</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -31923,6 +32491,9 @@
       <c r="BA14" t="n">
         <v>85</v>
       </c>
+      <c r="BB14" t="n">
+        <v>87</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -32088,6 +32659,9 @@
       <c r="BA15" t="n">
         <v>59</v>
       </c>
+      <c r="BB15" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -32253,6 +32827,9 @@
       <c r="BA16" t="n">
         <v>82</v>
       </c>
+      <c r="BB16" t="n">
+        <v>88</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -32418,6 +32995,9 @@
       <c r="BA17" t="n">
         <v>80</v>
       </c>
+      <c r="BB17" t="n">
+        <v>85</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -32583,6 +33163,9 @@
       <c r="BA18" t="n">
         <v>81</v>
       </c>
+      <c r="BB18" t="n">
+        <v>54</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -32747,6 +33330,9 @@
       </c>
       <c r="BA19" t="n">
         <v>80</v>
+      </c>
+      <c r="BB19" t="n">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -32760,7 +33346,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M19"/>
+  <dimension ref="A1:N19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -32781,6 +33367,7 @@
     <col width="10" customWidth="1" min="11" max="11"/>
     <col width="10" customWidth="1" min="12" max="12"/>
     <col width="10" customWidth="1" min="13" max="13"/>
+    <col width="10" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -32827,6 +33414,9 @@
       <c r="M1" s="1" t="n">
         <v>20251211</v>
       </c>
+      <c r="N1" s="1" t="n">
+        <v>20251212</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -32872,6 +33462,9 @@
       <c r="M2" t="n">
         <v>75</v>
       </c>
+      <c r="N2" t="n">
+        <v>72</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -32917,6 +33510,9 @@
       <c r="M3" t="n">
         <v>81</v>
       </c>
+      <c r="N3" t="n">
+        <v>80</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -32962,6 +33558,9 @@
       <c r="M4" t="n">
         <v>74</v>
       </c>
+      <c r="N4" t="n">
+        <v>61</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -33007,6 +33606,9 @@
       <c r="M5" t="n">
         <v>74</v>
       </c>
+      <c r="N5" t="n">
+        <v>69</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -33052,6 +33654,9 @@
       <c r="M6" t="n">
         <v>89</v>
       </c>
+      <c r="N6" t="n">
+        <v>86</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -33097,6 +33702,9 @@
       <c r="M7" t="n">
         <v>91</v>
       </c>
+      <c r="N7" t="n">
+        <v>93</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -33142,6 +33750,9 @@
       <c r="M8" t="n">
         <v>86</v>
       </c>
+      <c r="N8" t="n">
+        <v>86</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -33187,6 +33798,9 @@
       <c r="M9" t="n">
         <v>58</v>
       </c>
+      <c r="N9" t="n">
+        <v>61</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -33232,6 +33846,9 @@
       <c r="M10" t="n">
         <v>80</v>
       </c>
+      <c r="N10" t="n">
+        <v>70</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -33277,6 +33894,9 @@
       <c r="M11" t="n">
         <v>91</v>
       </c>
+      <c r="N11" t="n">
+        <v>93</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -33322,6 +33942,9 @@
       <c r="M12" t="n">
         <v>92</v>
       </c>
+      <c r="N12" t="n">
+        <v>93</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -33367,6 +33990,9 @@
       <c r="M13" t="n">
         <v>93</v>
       </c>
+      <c r="N13" t="n">
+        <v>94</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -33412,6 +34038,9 @@
       <c r="M14" t="n">
         <v>69</v>
       </c>
+      <c r="N14" t="n">
+        <v>70</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -33457,6 +34086,9 @@
       <c r="M15" t="n">
         <v>87</v>
       </c>
+      <c r="N15" t="n">
+        <v>81</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -33502,6 +34134,9 @@
       <c r="M16" t="n">
         <v>84</v>
       </c>
+      <c r="N16" t="n">
+        <v>86</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -33547,6 +34182,9 @@
       <c r="M17" t="n">
         <v>80</v>
       </c>
+      <c r="N17" t="n">
+        <v>82</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -33592,6 +34230,9 @@
       <c r="M18" t="n">
         <v>93</v>
       </c>
+      <c r="N18" t="n">
+        <v>83</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -33636,6 +34277,9 @@
       </c>
       <c r="M19" t="n">
         <v>93</v>
+      </c>
+      <c r="N19" t="n">
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -33649,7 +34293,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BA19"/>
+  <dimension ref="A1:BB19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -33710,6 +34354,7 @@
     <col width="10" customWidth="1" min="51" max="51"/>
     <col width="10" customWidth="1" min="52" max="52"/>
     <col width="10" customWidth="1" min="53" max="53"/>
+    <col width="10" customWidth="1" min="54" max="54"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -33876,6 +34521,9 @@
       <c r="BA1" s="1" t="n">
         <v>20251211</v>
       </c>
+      <c r="BB1" s="1" t="n">
+        <v>20251212</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -34041,6 +34689,9 @@
       <c r="BA2" t="n">
         <v>-42</v>
       </c>
+      <c r="BB2" t="n">
+        <v>-49</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -34206,6 +34857,9 @@
       <c r="BA3" t="n">
         <v>37</v>
       </c>
+      <c r="BB3" t="n">
+        <v>33</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -34371,6 +35025,9 @@
       <c r="BA4" t="n">
         <v>-35</v>
       </c>
+      <c r="BB4" t="n">
+        <v>-78</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -34536,6 +35193,9 @@
       <c r="BA5" t="n">
         <v>3</v>
       </c>
+      <c r="BB5" t="n">
+        <v>-6</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -34701,6 +35361,9 @@
       <c r="BA6" t="n">
         <v>48</v>
       </c>
+      <c r="BB6" t="n">
+        <v>32</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -34866,6 +35529,9 @@
       <c r="BA7" t="n">
         <v>55</v>
       </c>
+      <c r="BB7" t="n">
+        <v>56</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -35031,6 +35697,9 @@
       <c r="BA8" t="n">
         <v>43</v>
       </c>
+      <c r="BB8" t="n">
+        <v>45</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -35196,6 +35865,9 @@
       <c r="BA9" t="n">
         <v>21</v>
       </c>
+      <c r="BB9" t="n">
+        <v>43</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -35361,6 +36033,9 @@
       <c r="BA10" t="n">
         <v>14</v>
       </c>
+      <c r="BB10" t="n">
+        <v>-23</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -35526,6 +36201,9 @@
       <c r="BA11" t="n">
         <v>60</v>
       </c>
+      <c r="BB11" t="n">
+        <v>61</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -35691,6 +36369,9 @@
       <c r="BA12" t="n">
         <v>62</v>
       </c>
+      <c r="BB12" t="n">
+        <v>63</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -35856,6 +36537,9 @@
       <c r="BA13" t="n">
         <v>68</v>
       </c>
+      <c r="BB13" t="n">
+        <v>65</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -36021,6 +36705,9 @@
       <c r="BA14" t="n">
         <v>45</v>
       </c>
+      <c r="BB14" t="n">
+        <v>51</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -36186,6 +36873,9 @@
       <c r="BA15" t="n">
         <v>19</v>
       </c>
+      <c r="BB15" t="n">
+        <v>-14</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -36351,6 +37041,9 @@
       <c r="BA16" t="n">
         <v>56</v>
       </c>
+      <c r="BB16" t="n">
+        <v>62</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -36516,6 +37209,9 @@
       <c r="BA17" t="n">
         <v>48</v>
       </c>
+      <c r="BB17" t="n">
+        <v>56</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -36681,6 +37377,9 @@
       <c r="BA18" t="n">
         <v>24</v>
       </c>
+      <c r="BB18" t="n">
+        <v>-27</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -36845,6 +37544,9 @@
       </c>
       <c r="BA19" t="n">
         <v>43</v>
+      </c>
+      <c r="BB19" t="n">
+        <v>-13</v>
       </c>
     </row>
   </sheetData>

--- a/KR_Stocks_ETF.xlsx
+++ b/KR_Stocks_ETF.xlsx
@@ -26240,7 +26240,7 @@
         <v>178407</v>
       </c>
       <c r="BU2" t="n">
-        <v>118334</v>
+        <v>118341</v>
       </c>
     </row>
     <row r="3">
@@ -26465,7 +26465,7 @@
         <v>1029069</v>
       </c>
       <c r="BU3" t="n">
-        <v>890897</v>
+        <v>891170</v>
       </c>
     </row>
     <row r="4">
@@ -26690,7 +26690,7 @@
         <v>114011</v>
       </c>
       <c r="BU4" t="n">
-        <v>214682</v>
+        <v>214684</v>
       </c>
     </row>
     <row r="5">
@@ -26915,7 +26915,7 @@
         <v>197748</v>
       </c>
       <c r="BU5" t="n">
-        <v>167695</v>
+        <v>171804</v>
       </c>
     </row>
     <row r="6">
@@ -27140,7 +27140,7 @@
         <v>1398543</v>
       </c>
       <c r="BU6" t="n">
-        <v>1743091</v>
+        <v>1743316</v>
       </c>
     </row>
     <row r="7">
@@ -27365,7 +27365,7 @@
         <v>2029521</v>
       </c>
       <c r="BU7" t="n">
-        <v>1190061</v>
+        <v>1195677</v>
       </c>
     </row>
     <row r="8">
@@ -27590,7 +27590,7 @@
         <v>4268992</v>
       </c>
       <c r="BU8" t="n">
-        <v>2682396</v>
+        <v>3251172</v>
       </c>
     </row>
     <row r="9">
@@ -27815,7 +27815,7 @@
         <v>3790031</v>
       </c>
       <c r="BU9" t="n">
-        <v>3121846</v>
+        <v>3122211</v>
       </c>
     </row>
     <row r="10">
@@ -28040,7 +28040,7 @@
         <v>718608</v>
       </c>
       <c r="BU10" t="n">
-        <v>858919</v>
+        <v>858995</v>
       </c>
     </row>
     <row r="11">
@@ -28265,7 +28265,7 @@
         <v>645681</v>
       </c>
       <c r="BU11" t="n">
-        <v>374862</v>
+        <v>375014</v>
       </c>
     </row>
     <row r="12">
@@ -28490,7 +28490,7 @@
         <v>1842530</v>
       </c>
       <c r="BU12" t="n">
-        <v>1853968</v>
+        <v>1854012</v>
       </c>
     </row>
     <row r="13">
@@ -28715,7 +28715,7 @@
         <v>4800813</v>
       </c>
       <c r="BU13" t="n">
-        <v>5108733</v>
+        <v>5110124</v>
       </c>
     </row>
     <row r="14">
@@ -28940,7 +28940,7 @@
         <v>23149528</v>
       </c>
       <c r="BU14" t="n">
-        <v>26813627</v>
+        <v>26941706</v>
       </c>
     </row>
     <row r="15">
@@ -29165,7 +29165,7 @@
         <v>1390633</v>
       </c>
       <c r="BU15" t="n">
-        <v>1379949</v>
+        <v>1380324</v>
       </c>
     </row>
     <row r="16">
@@ -29390,7 +29390,7 @@
         <v>301204</v>
       </c>
       <c r="BU16" t="n">
-        <v>304760</v>
+        <v>304846</v>
       </c>
     </row>
     <row r="17">
